--- a/cal_profit/2019.xlsx
+++ b/cal_profit/2019.xlsx
@@ -16,6 +16,53 @@
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+  <si>
+    <t>人民币</t>
+  </si>
+  <si>
+    <t>我武生物</t>
+  </si>
+  <si>
+    <t>证券卖出(我武生物)</t>
+  </si>
+  <si>
+    <t>麦克奥迪</t>
+  </si>
+  <si>
+    <t>证券卖出(麦克奥迪)</t>
+  </si>
+  <si>
+    <t>香山股份</t>
+  </si>
+  <si>
+    <t>证券卖出(香山股份)</t>
+  </si>
+  <si>
+    <t>神州数码</t>
+  </si>
+  <si>
+    <t>证券买入(神州数码)</t>
+  </si>
+  <si>
+    <t>华培动力</t>
+  </si>
+  <si>
+    <t>证券买入(华培动力)</t>
+  </si>
+  <si>
+    <t>A400948245</t>
+  </si>
+  <si>
+    <t>四川金顶</t>
+  </si>
+  <si>
+    <t>证券买入(四川金顶)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -965,13 +1012,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P499"/>
+  <dimension ref="A1:P604"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="A1:P499"/>
+    <sheetView tabSelected="1" topLeftCell="A584" workbookViewId="0">
+      <selection activeCell="A597" sqref="A597:Q604"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="10" max="11" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
@@ -33905,6 +33956,6808 @@
       <c r="P499" t="str">
         <f t="shared" si="169"/>
         <v>A400948245</v>
+      </c>
+    </row>
+    <row r="500" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A500" t="str">
+        <f t="shared" ref="A500:A559" si="170">"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B500" t="str">
+        <f>"东港股份"</f>
+        <v>东港股份</v>
+      </c>
+      <c r="C500" t="str">
+        <f>"20191111"</f>
+        <v>20191111</v>
+      </c>
+      <c r="D500" t="str">
+        <f>"12.890"</f>
+        <v>12.890</v>
+      </c>
+      <c r="E500" t="str">
+        <f>"800.00"</f>
+        <v>800.00</v>
+      </c>
+      <c r="F500" t="str">
+        <f>"-10317.00"</f>
+        <v>-10317.00</v>
+      </c>
+      <c r="G500" t="str">
+        <f>"13933.29"</f>
+        <v>13933.29</v>
+      </c>
+      <c r="H500" t="str">
+        <f>"800.00"</f>
+        <v>800.00</v>
+      </c>
+      <c r="I500" t="str">
+        <f>"321"</f>
+        <v>321</v>
+      </c>
+      <c r="J500" t="str">
+        <f>"证券买入(东港股份)"</f>
+        <v>证券买入(东港股份)</v>
+      </c>
+      <c r="K500" t="str">
+        <f t="shared" ref="K500:K503" si="171">"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L500" t="str">
+        <f t="shared" ref="L500:M503" si="172">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M500" t="str">
+        <f t="shared" si="172"/>
+        <v>0.00</v>
+      </c>
+      <c r="N500" t="str">
+        <f t="shared" ref="N500:N510" si="173">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O500" t="str">
+        <f>"002117"</f>
+        <v>002117</v>
+      </c>
+      <c r="P500" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="501" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A501" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B501" t="str">
+        <f>"硕贝德"</f>
+        <v>硕贝德</v>
+      </c>
+      <c r="C501" t="str">
+        <f>"20191111"</f>
+        <v>20191111</v>
+      </c>
+      <c r="D501" t="str">
+        <f>"22.500"</f>
+        <v>22.500</v>
+      </c>
+      <c r="E501" t="str">
+        <f>"600.00"</f>
+        <v>600.00</v>
+      </c>
+      <c r="F501" t="str">
+        <f>"-13505.00"</f>
+        <v>-13505.00</v>
+      </c>
+      <c r="G501" t="str">
+        <f>"24250.29"</f>
+        <v>24250.29</v>
+      </c>
+      <c r="H501" t="str">
+        <f>"1600.00"</f>
+        <v>1600.00</v>
+      </c>
+      <c r="I501" t="str">
+        <f>"315"</f>
+        <v>315</v>
+      </c>
+      <c r="J501" t="str">
+        <f>"证券买入(硕贝德)"</f>
+        <v>证券买入(硕贝德)</v>
+      </c>
+      <c r="K501" t="str">
+        <f t="shared" si="171"/>
+        <v>5.00</v>
+      </c>
+      <c r="L501" t="str">
+        <f t="shared" si="172"/>
+        <v>0.00</v>
+      </c>
+      <c r="M501" t="str">
+        <f t="shared" si="172"/>
+        <v>0.00</v>
+      </c>
+      <c r="N501" t="str">
+        <f t="shared" si="173"/>
+        <v>0.00</v>
+      </c>
+      <c r="O501" t="str">
+        <f>"300322"</f>
+        <v>300322</v>
+      </c>
+      <c r="P501" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="502" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A502" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B502" t="str">
+        <f>"硕贝德"</f>
+        <v>硕贝德</v>
+      </c>
+      <c r="C502" t="str">
+        <f>"20191111"</f>
+        <v>20191111</v>
+      </c>
+      <c r="D502" t="str">
+        <f>"22.530"</f>
+        <v>22.530</v>
+      </c>
+      <c r="E502" t="str">
+        <f>"300.00"</f>
+        <v>300.00</v>
+      </c>
+      <c r="F502" t="str">
+        <f>"-6764.00"</f>
+        <v>-6764.00</v>
+      </c>
+      <c r="G502" t="str">
+        <f>"37755.29"</f>
+        <v>37755.29</v>
+      </c>
+      <c r="H502" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="I502" t="str">
+        <f>"310"</f>
+        <v>310</v>
+      </c>
+      <c r="J502" t="str">
+        <f>"证券买入(硕贝德)"</f>
+        <v>证券买入(硕贝德)</v>
+      </c>
+      <c r="K502" t="str">
+        <f t="shared" si="171"/>
+        <v>5.00</v>
+      </c>
+      <c r="L502" t="str">
+        <f t="shared" si="172"/>
+        <v>0.00</v>
+      </c>
+      <c r="M502" t="str">
+        <f t="shared" si="172"/>
+        <v>0.00</v>
+      </c>
+      <c r="N502" t="str">
+        <f t="shared" si="173"/>
+        <v>0.00</v>
+      </c>
+      <c r="O502" t="str">
+        <f>"300322"</f>
+        <v>300322</v>
+      </c>
+      <c r="P502" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="503" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A503" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B503" t="str">
+        <f>"硕贝德"</f>
+        <v>硕贝德</v>
+      </c>
+      <c r="C503" t="str">
+        <f>"20191111"</f>
+        <v>20191111</v>
+      </c>
+      <c r="D503" t="str">
+        <f>"22.620"</f>
+        <v>22.620</v>
+      </c>
+      <c r="E503" t="str">
+        <f>"700.00"</f>
+        <v>700.00</v>
+      </c>
+      <c r="F503" t="str">
+        <f>"-15839.00"</f>
+        <v>-15839.00</v>
+      </c>
+      <c r="G503" t="str">
+        <f>"44519.29"</f>
+        <v>44519.29</v>
+      </c>
+      <c r="H503" t="str">
+        <f>"700.00"</f>
+        <v>700.00</v>
+      </c>
+      <c r="I503" t="str">
+        <f>"295"</f>
+        <v>295</v>
+      </c>
+      <c r="J503" t="str">
+        <f>"证券买入(硕贝德)"</f>
+        <v>证券买入(硕贝德)</v>
+      </c>
+      <c r="K503" t="str">
+        <f t="shared" si="171"/>
+        <v>5.00</v>
+      </c>
+      <c r="L503" t="str">
+        <f t="shared" si="172"/>
+        <v>0.00</v>
+      </c>
+      <c r="M503" t="str">
+        <f t="shared" si="172"/>
+        <v>0.00</v>
+      </c>
+      <c r="N503" t="str">
+        <f t="shared" si="173"/>
+        <v>0.00</v>
+      </c>
+      <c r="O503" t="str">
+        <f>"300322"</f>
+        <v>300322</v>
+      </c>
+      <c r="P503" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="504" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A504" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B504" t="str">
+        <f>"威派格"</f>
+        <v>威派格</v>
+      </c>
+      <c r="C504" t="str">
+        <f>"20191111"</f>
+        <v>20191111</v>
+      </c>
+      <c r="D504" t="str">
+        <f>"17.150"</f>
+        <v>17.150</v>
+      </c>
+      <c r="E504" t="str">
+        <f>"1500.00"</f>
+        <v>1500.00</v>
+      </c>
+      <c r="F504" t="str">
+        <f>"-25733.23"</f>
+        <v>-25733.23</v>
+      </c>
+      <c r="G504" t="str">
+        <f>"60358.29"</f>
+        <v>60358.29</v>
+      </c>
+      <c r="H504" t="str">
+        <f>"2500.00"</f>
+        <v>2500.00</v>
+      </c>
+      <c r="I504" t="str">
+        <f>"305"</f>
+        <v>305</v>
+      </c>
+      <c r="J504" t="str">
+        <f>"证券买入(威派格)"</f>
+        <v>证券买入(威派格)</v>
+      </c>
+      <c r="K504" t="str">
+        <f>"7.72"</f>
+        <v>7.72</v>
+      </c>
+      <c r="L504" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M504" t="str">
+        <f>"0.51"</f>
+        <v>0.51</v>
+      </c>
+      <c r="N504" t="str">
+        <f t="shared" si="173"/>
+        <v>0.00</v>
+      </c>
+      <c r="O504" t="str">
+        <f>"603956"</f>
+        <v>603956</v>
+      </c>
+      <c r="P504" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="505" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A505" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B505" t="str">
+        <f>"电声股份"</f>
+        <v>电声股份</v>
+      </c>
+      <c r="C505" t="str">
+        <f t="shared" ref="C505:C511" si="174">"20191112"</f>
+        <v>20191112</v>
+      </c>
+      <c r="D505" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E505" t="str">
+        <f>"25.00"</f>
+        <v>25.00</v>
+      </c>
+      <c r="F505" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G505" t="str">
+        <f>"58061.47"</f>
+        <v>58061.47</v>
+      </c>
+      <c r="H505" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I505" t="str">
+        <f>"345"</f>
+        <v>345</v>
+      </c>
+      <c r="J505" t="str">
+        <f>"申购配号(电声股份)"</f>
+        <v>申购配号(电声股份)</v>
+      </c>
+      <c r="K505" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L505" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M505" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N505" t="str">
+        <f t="shared" si="173"/>
+        <v>0.00</v>
+      </c>
+      <c r="O505" t="str">
+        <f>"300805"</f>
+        <v>300805</v>
+      </c>
+      <c r="P505" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="506" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A506" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B506" t="str">
+        <f>"锦鸡股份"</f>
+        <v>锦鸡股份</v>
+      </c>
+      <c r="C506" t="str">
+        <f t="shared" si="174"/>
+        <v>20191112</v>
+      </c>
+      <c r="D506" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E506" t="str">
+        <f>"25.00"</f>
+        <v>25.00</v>
+      </c>
+      <c r="F506" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G506" t="str">
+        <f>"58061.47"</f>
+        <v>58061.47</v>
+      </c>
+      <c r="H506" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I506" t="str">
+        <f>"347"</f>
+        <v>347</v>
+      </c>
+      <c r="J506" t="str">
+        <f>"申购配号(锦鸡股份)"</f>
+        <v>申购配号(锦鸡股份)</v>
+      </c>
+      <c r="K506" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L506" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M506" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N506" t="str">
+        <f t="shared" si="173"/>
+        <v>0.00</v>
+      </c>
+      <c r="O506" t="str">
+        <f>"300798"</f>
+        <v>300798</v>
+      </c>
+      <c r="P506" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="507" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A507" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B507" t="str">
+        <f>"硕贝德"</f>
+        <v>硕贝德</v>
+      </c>
+      <c r="C507" t="str">
+        <f t="shared" si="174"/>
+        <v>20191112</v>
+      </c>
+      <c r="D507" t="str">
+        <f>"22.840"</f>
+        <v>22.840</v>
+      </c>
+      <c r="E507" t="str">
+        <f>"-1200.00"</f>
+        <v>-1200.00</v>
+      </c>
+      <c r="F507" t="str">
+        <f>"27372.36"</f>
+        <v>27372.36</v>
+      </c>
+      <c r="G507" t="str">
+        <f>"58061.47"</f>
+        <v>58061.47</v>
+      </c>
+      <c r="H507" t="str">
+        <f>"400.00"</f>
+        <v>400.00</v>
+      </c>
+      <c r="I507" t="str">
+        <f>"356"</f>
+        <v>356</v>
+      </c>
+      <c r="J507" t="str">
+        <f>"证券卖出(硕贝德)"</f>
+        <v>证券卖出(硕贝德)</v>
+      </c>
+      <c r="K507" t="str">
+        <f>"8.23"</f>
+        <v>8.23</v>
+      </c>
+      <c r="L507" t="str">
+        <f>"27.41"</f>
+        <v>27.41</v>
+      </c>
+      <c r="M507" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N507" t="str">
+        <f t="shared" si="173"/>
+        <v>0.00</v>
+      </c>
+      <c r="O507" t="str">
+        <f>"300322"</f>
+        <v>300322</v>
+      </c>
+      <c r="P507" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="508" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A508" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B508" t="str">
+        <f>"硕贝德"</f>
+        <v>硕贝德</v>
+      </c>
+      <c r="C508" t="str">
+        <f t="shared" si="174"/>
+        <v>20191112</v>
+      </c>
+      <c r="D508" t="str">
+        <f>"22.820"</f>
+        <v>22.820</v>
+      </c>
+      <c r="E508" t="str">
+        <f>"-400.00"</f>
+        <v>-400.00</v>
+      </c>
+      <c r="F508" t="str">
+        <f>"9113.87"</f>
+        <v>9113.87</v>
+      </c>
+      <c r="G508" t="str">
+        <f>"30689.11"</f>
+        <v>30689.11</v>
+      </c>
+      <c r="H508" t="str">
+        <f>"1600.00"</f>
+        <v>1600.00</v>
+      </c>
+      <c r="I508" t="str">
+        <f>"353"</f>
+        <v>353</v>
+      </c>
+      <c r="J508" t="str">
+        <f>"证券卖出(硕贝德)"</f>
+        <v>证券卖出(硕贝德)</v>
+      </c>
+      <c r="K508" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L508" t="str">
+        <f>"9.13"</f>
+        <v>9.13</v>
+      </c>
+      <c r="M508" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N508" t="str">
+        <f t="shared" si="173"/>
+        <v>0.00</v>
+      </c>
+      <c r="O508" t="str">
+        <f>"300322"</f>
+        <v>300322</v>
+      </c>
+      <c r="P508" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="509" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A509" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B509" t="str">
+        <f>"硕贝德"</f>
+        <v>硕贝德</v>
+      </c>
+      <c r="C509" t="str">
+        <f t="shared" si="174"/>
+        <v>20191112</v>
+      </c>
+      <c r="D509" t="str">
+        <f>"22.170"</f>
+        <v>22.170</v>
+      </c>
+      <c r="E509" t="str">
+        <f>"400.00"</f>
+        <v>400.00</v>
+      </c>
+      <c r="F509" t="str">
+        <f>"-8873.00"</f>
+        <v>-8873.00</v>
+      </c>
+      <c r="G509" t="str">
+        <f>"21575.24"</f>
+        <v>21575.24</v>
+      </c>
+      <c r="H509" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="I509" t="str">
+        <f>"341"</f>
+        <v>341</v>
+      </c>
+      <c r="J509" t="str">
+        <f>"证券买入(硕贝德)"</f>
+        <v>证券买入(硕贝德)</v>
+      </c>
+      <c r="K509" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L509" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M509" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N509" t="str">
+        <f t="shared" si="173"/>
+        <v>0.00</v>
+      </c>
+      <c r="O509" t="str">
+        <f>"300322"</f>
+        <v>300322</v>
+      </c>
+      <c r="P509" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="510" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A510" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B510" t="str">
+        <f>"威派格"</f>
+        <v>威派格</v>
+      </c>
+      <c r="C510" t="str">
+        <f t="shared" si="174"/>
+        <v>20191112</v>
+      </c>
+      <c r="D510" t="str">
+        <f>"17.700"</f>
+        <v>17.700</v>
+      </c>
+      <c r="E510" t="str">
+        <f>"-1500.00"</f>
+        <v>-1500.00</v>
+      </c>
+      <c r="F510" t="str">
+        <f>"26514.95"</f>
+        <v>26514.95</v>
+      </c>
+      <c r="G510" t="str">
+        <f>"30448.24"</f>
+        <v>30448.24</v>
+      </c>
+      <c r="H510" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="I510" t="str">
+        <f>"332"</f>
+        <v>332</v>
+      </c>
+      <c r="J510" t="str">
+        <f>"证券卖出(威派格)"</f>
+        <v>证券卖出(威派格)</v>
+      </c>
+      <c r="K510" t="str">
+        <f>"7.97"</f>
+        <v>7.97</v>
+      </c>
+      <c r="L510" t="str">
+        <f>"26.55"</f>
+        <v>26.55</v>
+      </c>
+      <c r="M510" t="str">
+        <f>"0.53"</f>
+        <v>0.53</v>
+      </c>
+      <c r="N510" t="str">
+        <f t="shared" si="173"/>
+        <v>0.00</v>
+      </c>
+      <c r="O510" t="str">
+        <f>"603956"</f>
+        <v>603956</v>
+      </c>
+      <c r="P510" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="511" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A511" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B511" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C511" t="str">
+        <f t="shared" si="174"/>
+        <v>20191112</v>
+      </c>
+      <c r="D511" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="E511" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="F511" t="str">
+        <f>"-10000.00"</f>
+        <v>-10000.00</v>
+      </c>
+      <c r="G511" t="str">
+        <f>"3933.29"</f>
+        <v>3933.29</v>
+      </c>
+      <c r="H511" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="I511" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="J511" t="str">
+        <f>"银行转取"</f>
+        <v>银行转取</v>
+      </c>
+      <c r="K511" t="str">
+        <f t="shared" ref="K511:P511" si="175">"---"</f>
+        <v>---</v>
+      </c>
+      <c r="L511" t="str">
+        <f t="shared" si="175"/>
+        <v>---</v>
+      </c>
+      <c r="M511" t="str">
+        <f t="shared" si="175"/>
+        <v>---</v>
+      </c>
+      <c r="N511" t="str">
+        <f t="shared" si="175"/>
+        <v>---</v>
+      </c>
+      <c r="O511" t="str">
+        <f t="shared" si="175"/>
+        <v>---</v>
+      </c>
+      <c r="P511" t="str">
+        <f t="shared" si="175"/>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="512" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A512" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B512" t="str">
+        <f>"斯迪克"</f>
+        <v>斯迪克</v>
+      </c>
+      <c r="C512" t="str">
+        <f t="shared" ref="C512:C519" si="176">"20191113"</f>
+        <v>20191113</v>
+      </c>
+      <c r="D512" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E512" t="str">
+        <f>"23.00"</f>
+        <v>23.00</v>
+      </c>
+      <c r="F512" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G512" t="str">
+        <f>"42903.78"</f>
+        <v>42903.78</v>
+      </c>
+      <c r="H512" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I512" t="str">
+        <f>"365"</f>
+        <v>365</v>
+      </c>
+      <c r="J512" t="str">
+        <f>"申购配号(斯迪克)"</f>
+        <v>申购配号(斯迪克)</v>
+      </c>
+      <c r="K512" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L512" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M512" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N512" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O512" t="str">
+        <f>"300806"</f>
+        <v>300806</v>
+      </c>
+      <c r="P512" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="513" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A513" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B513" t="str">
+        <f>"东港股份"</f>
+        <v>东港股份</v>
+      </c>
+      <c r="C513" t="str">
+        <f t="shared" si="176"/>
+        <v>20191113</v>
+      </c>
+      <c r="D513" t="str">
+        <f>"12.090"</f>
+        <v>12.090</v>
+      </c>
+      <c r="E513" t="str">
+        <f>"400.00"</f>
+        <v>400.00</v>
+      </c>
+      <c r="F513" t="str">
+        <f>"-4841.00"</f>
+        <v>-4841.00</v>
+      </c>
+      <c r="G513" t="str">
+        <f>"42903.78"</f>
+        <v>42903.78</v>
+      </c>
+      <c r="H513" t="str">
+        <f>"2400.00"</f>
+        <v>2400.00</v>
+      </c>
+      <c r="I513" t="str">
+        <f>"387"</f>
+        <v>387</v>
+      </c>
+      <c r="J513" t="str">
+        <f>"证券买入(东港股份)"</f>
+        <v>证券买入(东港股份)</v>
+      </c>
+      <c r="K513" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L513" t="str">
+        <f t="shared" ref="L513:N515" si="177">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M513" t="str">
+        <f t="shared" si="177"/>
+        <v>0.00</v>
+      </c>
+      <c r="N513" t="str">
+        <f t="shared" si="177"/>
+        <v>0.00</v>
+      </c>
+      <c r="O513" t="str">
+        <f>"002117"</f>
+        <v>002117</v>
+      </c>
+      <c r="P513" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="514" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A514" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B514" t="str">
+        <f>"东港股份"</f>
+        <v>东港股份</v>
+      </c>
+      <c r="C514" t="str">
+        <f t="shared" si="176"/>
+        <v>20191113</v>
+      </c>
+      <c r="D514" t="str">
+        <f>"12.080"</f>
+        <v>12.080</v>
+      </c>
+      <c r="E514" t="str">
+        <f>"400.00"</f>
+        <v>400.00</v>
+      </c>
+      <c r="F514" t="str">
+        <f>"-4837.00"</f>
+        <v>-4837.00</v>
+      </c>
+      <c r="G514" t="str">
+        <f>"47744.78"</f>
+        <v>47744.78</v>
+      </c>
+      <c r="H514" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="I514" t="str">
+        <f>"383"</f>
+        <v>383</v>
+      </c>
+      <c r="J514" t="str">
+        <f>"证券买入(东港股份)"</f>
+        <v>证券买入(东港股份)</v>
+      </c>
+      <c r="K514" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L514" t="str">
+        <f t="shared" si="177"/>
+        <v>0.00</v>
+      </c>
+      <c r="M514" t="str">
+        <f t="shared" si="177"/>
+        <v>0.00</v>
+      </c>
+      <c r="N514" t="str">
+        <f t="shared" si="177"/>
+        <v>0.00</v>
+      </c>
+      <c r="O514" t="str">
+        <f>"002117"</f>
+        <v>002117</v>
+      </c>
+      <c r="P514" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="515" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A515" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B515" t="str">
+        <f>"东港股份"</f>
+        <v>东港股份</v>
+      </c>
+      <c r="C515" t="str">
+        <f t="shared" si="176"/>
+        <v>20191113</v>
+      </c>
+      <c r="D515" t="str">
+        <f>"12.540"</f>
+        <v>12.540</v>
+      </c>
+      <c r="E515" t="str">
+        <f>"800.00"</f>
+        <v>800.00</v>
+      </c>
+      <c r="F515" t="str">
+        <f>"-10037.00"</f>
+        <v>-10037.00</v>
+      </c>
+      <c r="G515" t="str">
+        <f>"52581.78"</f>
+        <v>52581.78</v>
+      </c>
+      <c r="H515" t="str">
+        <f>"1600.00"</f>
+        <v>1600.00</v>
+      </c>
+      <c r="I515" t="str">
+        <f>"375"</f>
+        <v>375</v>
+      </c>
+      <c r="J515" t="str">
+        <f>"证券买入(东港股份)"</f>
+        <v>证券买入(东港股份)</v>
+      </c>
+      <c r="K515" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L515" t="str">
+        <f t="shared" si="177"/>
+        <v>0.00</v>
+      </c>
+      <c r="M515" t="str">
+        <f t="shared" si="177"/>
+        <v>0.00</v>
+      </c>
+      <c r="N515" t="str">
+        <f t="shared" si="177"/>
+        <v>0.00</v>
+      </c>
+      <c r="O515" t="str">
+        <f>"002117"</f>
+        <v>002117</v>
+      </c>
+      <c r="P515" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="516" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A516" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B516" t="str">
+        <f>"硕贝德"</f>
+        <v>硕贝德</v>
+      </c>
+      <c r="C516" t="str">
+        <f t="shared" si="176"/>
+        <v>20191113</v>
+      </c>
+      <c r="D516" t="str">
+        <f>"23.280"</f>
+        <v>23.280</v>
+      </c>
+      <c r="E516" t="str">
+        <f>"-400.00"</f>
+        <v>-400.00</v>
+      </c>
+      <c r="F516" t="str">
+        <f>"9297.69"</f>
+        <v>9297.69</v>
+      </c>
+      <c r="G516" t="str">
+        <f>"62618.78"</f>
+        <v>62618.78</v>
+      </c>
+      <c r="H516" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I516" t="str">
+        <f>"372"</f>
+        <v>372</v>
+      </c>
+      <c r="J516" t="str">
+        <f>"证券卖出(硕贝德)"</f>
+        <v>证券卖出(硕贝德)</v>
+      </c>
+      <c r="K516" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L516" t="str">
+        <f>"9.31"</f>
+        <v>9.31</v>
+      </c>
+      <c r="M516" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N516" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O516" t="str">
+        <f>"300322"</f>
+        <v>300322</v>
+      </c>
+      <c r="P516" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="517" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A517" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B517" t="str">
+        <f>"威派格"</f>
+        <v>威派格</v>
+      </c>
+      <c r="C517" t="str">
+        <f t="shared" si="176"/>
+        <v>20191113</v>
+      </c>
+      <c r="D517" t="str">
+        <f>"17.610"</f>
+        <v>17.610</v>
+      </c>
+      <c r="E517" t="str">
+        <f>"-1000.00"</f>
+        <v>-1000.00</v>
+      </c>
+      <c r="F517" t="str">
+        <f>"17586.76"</f>
+        <v>17586.76</v>
+      </c>
+      <c r="G517" t="str">
+        <f>"53321.09"</f>
+        <v>53321.09</v>
+      </c>
+      <c r="H517" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I517" t="str">
+        <f>"390"</f>
+        <v>390</v>
+      </c>
+      <c r="J517" t="str">
+        <f>"证券卖出(威派格)"</f>
+        <v>证券卖出(威派格)</v>
+      </c>
+      <c r="K517" t="str">
+        <f>"5.28"</f>
+        <v>5.28</v>
+      </c>
+      <c r="L517" t="str">
+        <f>"17.61"</f>
+        <v>17.61</v>
+      </c>
+      <c r="M517" t="str">
+        <f>"0.35"</f>
+        <v>0.35</v>
+      </c>
+      <c r="N517" t="str">
+        <f t="shared" ref="N517:N523" si="178">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O517" t="str">
+        <f>"603956"</f>
+        <v>603956</v>
+      </c>
+      <c r="P517" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="518" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A518" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B518" t="str">
+        <f>"中信建投"</f>
+        <v>中信建投</v>
+      </c>
+      <c r="C518" t="str">
+        <f t="shared" si="176"/>
+        <v>20191113</v>
+      </c>
+      <c r="D518" t="str">
+        <f>"22.320"</f>
+        <v>22.320</v>
+      </c>
+      <c r="E518" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="F518" t="str">
+        <f>"-22327.14"</f>
+        <v>-22327.14</v>
+      </c>
+      <c r="G518" t="str">
+        <f>"35734.33"</f>
+        <v>35734.33</v>
+      </c>
+      <c r="H518" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="I518" t="str">
+        <f>"378"</f>
+        <v>378</v>
+      </c>
+      <c r="J518" t="str">
+        <f>"证券买入(中信建投)"</f>
+        <v>证券买入(中信建投)</v>
+      </c>
+      <c r="K518" t="str">
+        <f>"6.70"</f>
+        <v>6.70</v>
+      </c>
+      <c r="L518" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M518" t="str">
+        <f>"0.44"</f>
+        <v>0.44</v>
+      </c>
+      <c r="N518" t="str">
+        <f t="shared" si="178"/>
+        <v>0.00</v>
+      </c>
+      <c r="O518" t="str">
+        <f>"601066"</f>
+        <v>601066</v>
+      </c>
+      <c r="P518" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="519" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A519" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B519" t="str">
+        <f>"通达配号"</f>
+        <v>通达配号</v>
+      </c>
+      <c r="C519" t="str">
+        <f t="shared" si="176"/>
+        <v>20191113</v>
+      </c>
+      <c r="D519" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E519" t="str">
+        <f>"9.00"</f>
+        <v>9.00</v>
+      </c>
+      <c r="F519" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G519" t="str">
+        <f>"58061.47"</f>
+        <v>58061.47</v>
+      </c>
+      <c r="H519" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I519" t="str">
+        <f>"367"</f>
+        <v>367</v>
+      </c>
+      <c r="J519" t="str">
+        <f>"申购配号(通达配号)"</f>
+        <v>申购配号(通达配号)</v>
+      </c>
+      <c r="K519" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L519" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M519" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N519" t="str">
+        <f t="shared" si="178"/>
+        <v>0.00</v>
+      </c>
+      <c r="O519" t="str">
+        <f>"736390"</f>
+        <v>736390</v>
+      </c>
+      <c r="P519" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="520" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A520" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B520" t="str">
+        <f>"苏奥传感"</f>
+        <v>苏奥传感</v>
+      </c>
+      <c r="C520" t="str">
+        <f>"20191114"</f>
+        <v>20191114</v>
+      </c>
+      <c r="D520" t="str">
+        <f>"10.970"</f>
+        <v>10.970</v>
+      </c>
+      <c r="E520" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="F520" t="str">
+        <f>"-21946.58"</f>
+        <v>-21946.58</v>
+      </c>
+      <c r="G520" t="str">
+        <f>"33527.37"</f>
+        <v>33527.37</v>
+      </c>
+      <c r="H520" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="I520" t="str">
+        <f>"401"</f>
+        <v>401</v>
+      </c>
+      <c r="J520" t="str">
+        <f>"证券买入(苏奥传感)"</f>
+        <v>证券买入(苏奥传感)</v>
+      </c>
+      <c r="K520" t="str">
+        <f>"6.58"</f>
+        <v>6.58</v>
+      </c>
+      <c r="L520" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M520" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N520" t="str">
+        <f t="shared" si="178"/>
+        <v>0.00</v>
+      </c>
+      <c r="O520" t="str">
+        <f>"300507"</f>
+        <v>300507</v>
+      </c>
+      <c r="P520" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="521" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A521" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B521" t="str">
+        <f>"浙银配号"</f>
+        <v>浙银配号</v>
+      </c>
+      <c r="C521" t="str">
+        <f>"20191114"</f>
+        <v>20191114</v>
+      </c>
+      <c r="D521" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E521" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="F521" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G521" t="str">
+        <f>"55473.95"</f>
+        <v>55473.95</v>
+      </c>
+      <c r="H521" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I521" t="str">
+        <f>"407"</f>
+        <v>407</v>
+      </c>
+      <c r="J521" t="str">
+        <f>"申购配号(浙银配号)"</f>
+        <v>申购配号(浙银配号)</v>
+      </c>
+      <c r="K521" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L521" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M521" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N521" t="str">
+        <f t="shared" si="178"/>
+        <v>0.00</v>
+      </c>
+      <c r="O521" t="str">
+        <f>"791916"</f>
+        <v>791916</v>
+      </c>
+      <c r="P521" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="522" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A522" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B522" t="str">
+        <f>"中信建投"</f>
+        <v>中信建投</v>
+      </c>
+      <c r="C522" t="str">
+        <f>"20191114"</f>
+        <v>20191114</v>
+      </c>
+      <c r="D522" t="str">
+        <f>"22.600"</f>
+        <v>22.600</v>
+      </c>
+      <c r="E522" t="str">
+        <f>"-1000.00"</f>
+        <v>-1000.00</v>
+      </c>
+      <c r="F522" t="str">
+        <f>"22570.17"</f>
+        <v>22570.17</v>
+      </c>
+      <c r="G522" t="str">
+        <f>"55473.95"</f>
+        <v>55473.95</v>
+      </c>
+      <c r="H522" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I522" t="str">
+        <f>"410"</f>
+        <v>410</v>
+      </c>
+      <c r="J522" t="str">
+        <f>"证券卖出(中信建投)"</f>
+        <v>证券卖出(中信建投)</v>
+      </c>
+      <c r="K522" t="str">
+        <f>"6.78"</f>
+        <v>6.78</v>
+      </c>
+      <c r="L522" t="str">
+        <f>"22.60"</f>
+        <v>22.60</v>
+      </c>
+      <c r="M522" t="str">
+        <f>"0.45"</f>
+        <v>0.45</v>
+      </c>
+      <c r="N522" t="str">
+        <f t="shared" si="178"/>
+        <v>0.00</v>
+      </c>
+      <c r="O522" t="str">
+        <f>"601066"</f>
+        <v>601066</v>
+      </c>
+      <c r="P522" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="523" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A523" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B523" t="str">
+        <f>"浙银配号"</f>
+        <v>浙银配号</v>
+      </c>
+      <c r="C523" t="str">
+        <f>"20191114"</f>
+        <v>20191114</v>
+      </c>
+      <c r="D523" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E523" t="str">
+        <f>"9.00"</f>
+        <v>9.00</v>
+      </c>
+      <c r="F523" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G523" t="str">
+        <f>"32903.78"</f>
+        <v>32903.78</v>
+      </c>
+      <c r="H523" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I523" t="str">
+        <f>"405"</f>
+        <v>405</v>
+      </c>
+      <c r="J523" t="str">
+        <f>"申购配号(浙银配号)"</f>
+        <v>申购配号(浙银配号)</v>
+      </c>
+      <c r="K523" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L523" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M523" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N523" t="str">
+        <f t="shared" si="178"/>
+        <v>0.00</v>
+      </c>
+      <c r="O523" t="str">
+        <f>"791916"</f>
+        <v>791916</v>
+      </c>
+      <c r="P523" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="524" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A524" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B524" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C524" t="str">
+        <f>"20191114"</f>
+        <v>20191114</v>
+      </c>
+      <c r="D524" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="E524" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="F524" t="str">
+        <f>"-10000.00"</f>
+        <v>-10000.00</v>
+      </c>
+      <c r="G524" t="str">
+        <f>"32903.78"</f>
+        <v>32903.78</v>
+      </c>
+      <c r="H524" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="I524" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="J524" t="str">
+        <f>"银行转取"</f>
+        <v>银行转取</v>
+      </c>
+      <c r="K524" t="str">
+        <f t="shared" ref="K524:P525" si="179">"---"</f>
+        <v>---</v>
+      </c>
+      <c r="L524" t="str">
+        <f t="shared" si="179"/>
+        <v>---</v>
+      </c>
+      <c r="M524" t="str">
+        <f t="shared" si="179"/>
+        <v>---</v>
+      </c>
+      <c r="N524" t="str">
+        <f t="shared" si="179"/>
+        <v>---</v>
+      </c>
+      <c r="O524" t="str">
+        <f t="shared" si="179"/>
+        <v>---</v>
+      </c>
+      <c r="P524" t="str">
+        <f t="shared" si="179"/>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="525" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A525" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B525" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C525" t="str">
+        <f>"20191115"</f>
+        <v>20191115</v>
+      </c>
+      <c r="D525" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="E525" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="F525" t="str">
+        <f>"-10000.00"</f>
+        <v>-10000.00</v>
+      </c>
+      <c r="G525" t="str">
+        <f>"23527.37"</f>
+        <v>23527.37</v>
+      </c>
+      <c r="H525" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="I525" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="J525" t="str">
+        <f>"银行转取"</f>
+        <v>银行转取</v>
+      </c>
+      <c r="K525" t="str">
+        <f t="shared" si="179"/>
+        <v>---</v>
+      </c>
+      <c r="L525" t="str">
+        <f t="shared" si="179"/>
+        <v>---</v>
+      </c>
+      <c r="M525" t="str">
+        <f t="shared" si="179"/>
+        <v>---</v>
+      </c>
+      <c r="N525" t="str">
+        <f t="shared" si="179"/>
+        <v>---</v>
+      </c>
+      <c r="O525" t="str">
+        <f t="shared" si="179"/>
+        <v>---</v>
+      </c>
+      <c r="P525" t="str">
+        <f t="shared" si="179"/>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="526" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A526" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B526" t="str">
+        <f>"泰和科技"</f>
+        <v>泰和科技</v>
+      </c>
+      <c r="C526" t="str">
+        <f>"20191119"</f>
+        <v>20191119</v>
+      </c>
+      <c r="D526" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E526" t="str">
+        <f>"24.00"</f>
+        <v>24.00</v>
+      </c>
+      <c r="F526" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G526" t="str">
+        <f>"46058.88"</f>
+        <v>46058.88</v>
+      </c>
+      <c r="H526" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I526" t="str">
+        <f>"420"</f>
+        <v>420</v>
+      </c>
+      <c r="J526" t="str">
+        <f>"申购配号(泰和科技)"</f>
+        <v>申购配号(泰和科技)</v>
+      </c>
+      <c r="K526" t="str">
+        <f t="shared" ref="K526:N536" si="180">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L526" t="str">
+        <f t="shared" si="180"/>
+        <v>0.00</v>
+      </c>
+      <c r="M526" t="str">
+        <f t="shared" si="180"/>
+        <v>0.00</v>
+      </c>
+      <c r="N526" t="str">
+        <f t="shared" si="180"/>
+        <v>0.00</v>
+      </c>
+      <c r="O526" t="str">
+        <f>"300801"</f>
+        <v>300801</v>
+      </c>
+      <c r="P526" t="str">
+        <f t="shared" ref="P526:P536" si="181">"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="527" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A527" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B527" t="str">
+        <f>"久量股份"</f>
+        <v>久量股份</v>
+      </c>
+      <c r="C527" t="str">
+        <f>"20191119"</f>
+        <v>20191119</v>
+      </c>
+      <c r="D527" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E527" t="str">
+        <f>"32.00"</f>
+        <v>32.00</v>
+      </c>
+      <c r="F527" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G527" t="str">
+        <f>"46058.88"</f>
+        <v>46058.88</v>
+      </c>
+      <c r="H527" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I527" t="str">
+        <f>"418"</f>
+        <v>418</v>
+      </c>
+      <c r="J527" t="str">
+        <f>"申购配号(久量股份)"</f>
+        <v>申购配号(久量股份)</v>
+      </c>
+      <c r="K527" t="str">
+        <f t="shared" si="180"/>
+        <v>0.00</v>
+      </c>
+      <c r="L527" t="str">
+        <f t="shared" si="180"/>
+        <v>0.00</v>
+      </c>
+      <c r="M527" t="str">
+        <f t="shared" si="180"/>
+        <v>0.00</v>
+      </c>
+      <c r="N527" t="str">
+        <f t="shared" si="180"/>
+        <v>0.00</v>
+      </c>
+      <c r="O527" t="str">
+        <f>"300808"</f>
+        <v>300808</v>
+      </c>
+      <c r="P527" t="str">
+        <f t="shared" si="181"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="528" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A528" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B528" t="str">
+        <f>"嘉美包装"</f>
+        <v>嘉美包装</v>
+      </c>
+      <c r="C528" t="str">
+        <f>"20191119"</f>
+        <v>20191119</v>
+      </c>
+      <c r="D528" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E528" t="str">
+        <f>"35.00"</f>
+        <v>35.00</v>
+      </c>
+      <c r="F528" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G528" t="str">
+        <f>"46058.88"</f>
+        <v>46058.88</v>
+      </c>
+      <c r="H528" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I528" t="str">
+        <f>"422"</f>
+        <v>422</v>
+      </c>
+      <c r="J528" t="str">
+        <f>"申购配号(嘉美包装)"</f>
+        <v>申购配号(嘉美包装)</v>
+      </c>
+      <c r="K528" t="str">
+        <f t="shared" si="180"/>
+        <v>0.00</v>
+      </c>
+      <c r="L528" t="str">
+        <f t="shared" si="180"/>
+        <v>0.00</v>
+      </c>
+      <c r="M528" t="str">
+        <f t="shared" si="180"/>
+        <v>0.00</v>
+      </c>
+      <c r="N528" t="str">
+        <f t="shared" si="180"/>
+        <v>0.00</v>
+      </c>
+      <c r="O528" t="str">
+        <f>"002969"</f>
+        <v>002969</v>
+      </c>
+      <c r="P528" t="str">
+        <f t="shared" si="181"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="529" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A529" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B529" t="str">
+        <f>"顺灏股份"</f>
+        <v>顺灏股份</v>
+      </c>
+      <c r="C529" t="str">
+        <f>"20191119"</f>
+        <v>20191119</v>
+      </c>
+      <c r="D529" t="str">
+        <f>"6.690"</f>
+        <v>6.690</v>
+      </c>
+      <c r="E529" t="str">
+        <f>"-5000.00"</f>
+        <v>-5000.00</v>
+      </c>
+      <c r="F529" t="str">
+        <f>"33406.51"</f>
+        <v>33406.51</v>
+      </c>
+      <c r="G529" t="str">
+        <f>"46058.88"</f>
+        <v>46058.88</v>
+      </c>
+      <c r="H529" t="str">
+        <f>"14900.00"</f>
+        <v>14900.00</v>
+      </c>
+      <c r="I529" t="str">
+        <f>"427"</f>
+        <v>427</v>
+      </c>
+      <c r="J529" t="str">
+        <f>"证券卖出(顺灏股份)"</f>
+        <v>证券卖出(顺灏股份)</v>
+      </c>
+      <c r="K529" t="str">
+        <f>"10.04"</f>
+        <v>10.04</v>
+      </c>
+      <c r="L529" t="str">
+        <f>"33.45"</f>
+        <v>33.45</v>
+      </c>
+      <c r="M529" t="str">
+        <f t="shared" si="180"/>
+        <v>0.00</v>
+      </c>
+      <c r="N529" t="str">
+        <f t="shared" si="180"/>
+        <v>0.00</v>
+      </c>
+      <c r="O529" t="str">
+        <f>"002565"</f>
+        <v>002565</v>
+      </c>
+      <c r="P529" t="str">
+        <f t="shared" si="181"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="530" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A530" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B530" t="str">
+        <f>"苏奥传感"</f>
+        <v>苏奥传感</v>
+      </c>
+      <c r="C530" t="str">
+        <f>"20191119"</f>
+        <v>20191119</v>
+      </c>
+      <c r="D530" t="str">
+        <f>"10.870"</f>
+        <v>10.870</v>
+      </c>
+      <c r="E530" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="F530" t="str">
+        <f>"-10875.00"</f>
+        <v>-10875.00</v>
+      </c>
+      <c r="G530" t="str">
+        <f>"12652.37"</f>
+        <v>12652.37</v>
+      </c>
+      <c r="H530" t="str">
+        <f>"3000.00"</f>
+        <v>3000.00</v>
+      </c>
+      <c r="I530" t="str">
+        <f>"424"</f>
+        <v>424</v>
+      </c>
+      <c r="J530" t="str">
+        <f>"证券买入(苏奥传感)"</f>
+        <v>证券买入(苏奥传感)</v>
+      </c>
+      <c r="K530" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L530" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M530" t="str">
+        <f t="shared" si="180"/>
+        <v>0.00</v>
+      </c>
+      <c r="N530" t="str">
+        <f t="shared" si="180"/>
+        <v>0.00</v>
+      </c>
+      <c r="O530" t="str">
+        <f>"300507"</f>
+        <v>300507</v>
+      </c>
+      <c r="P530" t="str">
+        <f t="shared" si="181"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="531" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A531" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B531" t="str">
+        <f>"新大正"</f>
+        <v>新大正</v>
+      </c>
+      <c r="C531" t="str">
+        <f>"20191120"</f>
+        <v>20191120</v>
+      </c>
+      <c r="D531" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E531" t="str">
+        <f>"35.00"</f>
+        <v>35.00</v>
+      </c>
+      <c r="F531" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G531" t="str">
+        <f>"46058.88"</f>
+        <v>46058.88</v>
+      </c>
+      <c r="H531" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I531" t="str">
+        <f>"440"</f>
+        <v>440</v>
+      </c>
+      <c r="J531" t="str">
+        <f>"申购配号(新大正)"</f>
+        <v>申购配号(新大正)</v>
+      </c>
+      <c r="K531" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L531" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M531" t="str">
+        <f t="shared" si="180"/>
+        <v>0.00</v>
+      </c>
+      <c r="N531" t="str">
+        <f t="shared" si="180"/>
+        <v>0.00</v>
+      </c>
+      <c r="O531" t="str">
+        <f>"002968"</f>
+        <v>002968</v>
+      </c>
+      <c r="P531" t="str">
+        <f t="shared" si="181"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="532" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A532" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B532" t="str">
+        <f>"华辰装备"</f>
+        <v>华辰装备</v>
+      </c>
+      <c r="C532" t="str">
+        <f>"20191121"</f>
+        <v>20191121</v>
+      </c>
+      <c r="D532" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E532" t="str">
+        <f>"31.00"</f>
+        <v>31.00</v>
+      </c>
+      <c r="F532" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G532" t="str">
+        <f>"46058.88"</f>
+        <v>46058.88</v>
+      </c>
+      <c r="H532" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I532" t="str">
+        <f>"445"</f>
+        <v>445</v>
+      </c>
+      <c r="J532" t="str">
+        <f>"申购配号(华辰装备)"</f>
+        <v>申购配号(华辰装备)</v>
+      </c>
+      <c r="K532" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L532" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M532" t="str">
+        <f t="shared" si="180"/>
+        <v>0.00</v>
+      </c>
+      <c r="N532" t="str">
+        <f t="shared" si="180"/>
+        <v>0.00</v>
+      </c>
+      <c r="O532" t="str">
+        <f>"300809"</f>
+        <v>300809</v>
+      </c>
+      <c r="P532" t="str">
+        <f t="shared" si="181"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="533" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A533" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B533" t="str">
+        <f>"中科海讯"</f>
+        <v>中科海讯</v>
+      </c>
+      <c r="C533" t="str">
+        <f>"20191121"</f>
+        <v>20191121</v>
+      </c>
+      <c r="D533" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E533" t="str">
+        <f>"35.00"</f>
+        <v>35.00</v>
+      </c>
+      <c r="F533" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G533" t="str">
+        <f>"46058.88"</f>
+        <v>46058.88</v>
+      </c>
+      <c r="H533" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I533" t="str">
+        <f>"443"</f>
+        <v>443</v>
+      </c>
+      <c r="J533" t="str">
+        <f>"申购配号(中科海讯)"</f>
+        <v>申购配号(中科海讯)</v>
+      </c>
+      <c r="K533" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L533" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M533" t="str">
+        <f t="shared" si="180"/>
+        <v>0.00</v>
+      </c>
+      <c r="N533" t="str">
+        <f t="shared" si="180"/>
+        <v>0.00</v>
+      </c>
+      <c r="O533" t="str">
+        <f>"300810"</f>
+        <v>300810</v>
+      </c>
+      <c r="P533" t="str">
+        <f t="shared" si="181"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="534" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A534" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B534" t="str">
+        <f>"东港股份"</f>
+        <v>东港股份</v>
+      </c>
+      <c r="C534" t="str">
+        <f>"20191122"</f>
+        <v>20191122</v>
+      </c>
+      <c r="D534" t="str">
+        <f>"11.700"</f>
+        <v>11.700</v>
+      </c>
+      <c r="E534" t="str">
+        <f>"600.00"</f>
+        <v>600.00</v>
+      </c>
+      <c r="F534" t="str">
+        <f>"-7025.00"</f>
+        <v>-7025.00</v>
+      </c>
+      <c r="G534" t="str">
+        <f>"32680.08"</f>
+        <v>32680.08</v>
+      </c>
+      <c r="H534" t="str">
+        <f>"3000.00"</f>
+        <v>3000.00</v>
+      </c>
+      <c r="I534" t="str">
+        <f>"456"</f>
+        <v>456</v>
+      </c>
+      <c r="J534" t="str">
+        <f>"证券买入(东港股份)"</f>
+        <v>证券买入(东港股份)</v>
+      </c>
+      <c r="K534" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L534" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M534" t="str">
+        <f t="shared" si="180"/>
+        <v>0.00</v>
+      </c>
+      <c r="N534" t="str">
+        <f t="shared" si="180"/>
+        <v>0.00</v>
+      </c>
+      <c r="O534" t="str">
+        <f>"002117"</f>
+        <v>002117</v>
+      </c>
+      <c r="P534" t="str">
+        <f t="shared" si="181"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="535" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A535" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B535" t="str">
+        <f>"苏奥传感"</f>
+        <v>苏奥传感</v>
+      </c>
+      <c r="C535" t="str">
+        <f>"20191122"</f>
+        <v>20191122</v>
+      </c>
+      <c r="D535" t="str">
+        <f>"11.100"</f>
+        <v>11.100</v>
+      </c>
+      <c r="E535" t="str">
+        <f>"-1500.00"</f>
+        <v>-1500.00</v>
+      </c>
+      <c r="F535" t="str">
+        <f>"16628.35"</f>
+        <v>16628.35</v>
+      </c>
+      <c r="G535" t="str">
+        <f>"39705.08"</f>
+        <v>39705.08</v>
+      </c>
+      <c r="H535" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I535" t="str">
+        <f>"459"</f>
+        <v>459</v>
+      </c>
+      <c r="J535" t="str">
+        <f>"证券卖出(苏奥传感)"</f>
+        <v>证券卖出(苏奥传感)</v>
+      </c>
+      <c r="K535" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L535" t="str">
+        <f>"16.65"</f>
+        <v>16.65</v>
+      </c>
+      <c r="M535" t="str">
+        <f t="shared" si="180"/>
+        <v>0.00</v>
+      </c>
+      <c r="N535" t="str">
+        <f t="shared" si="180"/>
+        <v>0.00</v>
+      </c>
+      <c r="O535" t="str">
+        <f>"300507"</f>
+        <v>300507</v>
+      </c>
+      <c r="P535" t="str">
+        <f t="shared" si="181"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="536" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A536" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B536" t="str">
+        <f>"苏奥传感"</f>
+        <v>苏奥传感</v>
+      </c>
+      <c r="C536" t="str">
+        <f>"20191122"</f>
+        <v>20191122</v>
+      </c>
+      <c r="D536" t="str">
+        <f>"11.360"</f>
+        <v>11.360</v>
+      </c>
+      <c r="E536" t="str">
+        <f>"-1500.00"</f>
+        <v>-1500.00</v>
+      </c>
+      <c r="F536" t="str">
+        <f>"17017.85"</f>
+        <v>17017.85</v>
+      </c>
+      <c r="G536" t="str">
+        <f>"23076.73"</f>
+        <v>23076.73</v>
+      </c>
+      <c r="H536" t="str">
+        <f>"1500.00"</f>
+        <v>1500.00</v>
+      </c>
+      <c r="I536" t="str">
+        <f>"452"</f>
+        <v>452</v>
+      </c>
+      <c r="J536" t="str">
+        <f>"证券卖出(苏奥传感)"</f>
+        <v>证券卖出(苏奥传感)</v>
+      </c>
+      <c r="K536" t="str">
+        <f>"5.11"</f>
+        <v>5.11</v>
+      </c>
+      <c r="L536" t="str">
+        <f>"17.04"</f>
+        <v>17.04</v>
+      </c>
+      <c r="M536" t="str">
+        <f t="shared" si="180"/>
+        <v>0.00</v>
+      </c>
+      <c r="N536" t="str">
+        <f t="shared" si="180"/>
+        <v>0.00</v>
+      </c>
+      <c r="O536" t="str">
+        <f>"300507"</f>
+        <v>300507</v>
+      </c>
+      <c r="P536" t="str">
+        <f t="shared" si="181"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="537" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A537" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B537" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C537" t="str">
+        <f>"20191122"</f>
+        <v>20191122</v>
+      </c>
+      <c r="D537" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="E537" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="F537" t="str">
+        <f>"-40000.00"</f>
+        <v>-40000.00</v>
+      </c>
+      <c r="G537" t="str">
+        <f>"6058.88"</f>
+        <v>6058.88</v>
+      </c>
+      <c r="H537" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="I537" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="J537" t="str">
+        <f>"银行转取"</f>
+        <v>银行转取</v>
+      </c>
+      <c r="K537" t="str">
+        <f t="shared" ref="K537:P537" si="182">"---"</f>
+        <v>---</v>
+      </c>
+      <c r="L537" t="str">
+        <f t="shared" si="182"/>
+        <v>---</v>
+      </c>
+      <c r="M537" t="str">
+        <f t="shared" si="182"/>
+        <v>---</v>
+      </c>
+      <c r="N537" t="str">
+        <f t="shared" si="182"/>
+        <v>---</v>
+      </c>
+      <c r="O537" t="str">
+        <f t="shared" si="182"/>
+        <v>---</v>
+      </c>
+      <c r="P537" t="str">
+        <f t="shared" si="182"/>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="538" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A538" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B538" t="str">
+        <f>"瀛通通讯"</f>
+        <v>瀛通通讯</v>
+      </c>
+      <c r="C538" t="str">
+        <f>"20191125"</f>
+        <v>20191125</v>
+      </c>
+      <c r="D538" t="str">
+        <f>"36.640"</f>
+        <v>36.640</v>
+      </c>
+      <c r="E538" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F538" t="str">
+        <f>"-18325.50"</f>
+        <v>-18325.50</v>
+      </c>
+      <c r="G538" t="str">
+        <f>"29828.66"</f>
+        <v>29828.66</v>
+      </c>
+      <c r="H538" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="I538" t="str">
+        <f>"487"</f>
+        <v>487</v>
+      </c>
+      <c r="J538" t="str">
+        <f>"证券买入(瀛通通讯)"</f>
+        <v>证券买入(瀛通通讯)</v>
+      </c>
+      <c r="K538" t="str">
+        <f>"5.50"</f>
+        <v>5.50</v>
+      </c>
+      <c r="L538" t="str">
+        <f t="shared" ref="L538:N553" si="183">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M538" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="N538" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="O538" t="str">
+        <f>"002861"</f>
+        <v>002861</v>
+      </c>
+      <c r="P538" t="str">
+        <f t="shared" ref="P538:P544" si="184">"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="539" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A539" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B539" t="str">
+        <f>"瀛通通讯"</f>
+        <v>瀛通通讯</v>
+      </c>
+      <c r="C539" t="str">
+        <f>"20191125"</f>
+        <v>20191125</v>
+      </c>
+      <c r="D539" t="str">
+        <f>"36.600"</f>
+        <v>36.600</v>
+      </c>
+      <c r="E539" t="str">
+        <f>"200.00"</f>
+        <v>200.00</v>
+      </c>
+      <c r="F539" t="str">
+        <f>"-7325.00"</f>
+        <v>-7325.00</v>
+      </c>
+      <c r="G539" t="str">
+        <f>"48154.16"</f>
+        <v>48154.16</v>
+      </c>
+      <c r="H539" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="I539" t="str">
+        <f>"482"</f>
+        <v>482</v>
+      </c>
+      <c r="J539" t="str">
+        <f>"证券买入(瀛通通讯)"</f>
+        <v>证券买入(瀛通通讯)</v>
+      </c>
+      <c r="K539" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L539" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="M539" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="N539" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="O539" t="str">
+        <f>"002861"</f>
+        <v>002861</v>
+      </c>
+      <c r="P539" t="str">
+        <f t="shared" si="184"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="540" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A540" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B540" t="str">
+        <f>"瀛通通讯"</f>
+        <v>瀛通通讯</v>
+      </c>
+      <c r="C540" t="str">
+        <f>"20191125"</f>
+        <v>20191125</v>
+      </c>
+      <c r="D540" t="str">
+        <f>"36.440"</f>
+        <v>36.440</v>
+      </c>
+      <c r="E540" t="str">
+        <f>"300.00"</f>
+        <v>300.00</v>
+      </c>
+      <c r="F540" t="str">
+        <f>"-10937.00"</f>
+        <v>-10937.00</v>
+      </c>
+      <c r="G540" t="str">
+        <f>"55479.16"</f>
+        <v>55479.16</v>
+      </c>
+      <c r="H540" t="str">
+        <f>"300.00"</f>
+        <v>300.00</v>
+      </c>
+      <c r="I540" t="str">
+        <f>"468"</f>
+        <v>468</v>
+      </c>
+      <c r="J540" t="str">
+        <f>"证券买入(瀛通通讯)"</f>
+        <v>证券买入(瀛通通讯)</v>
+      </c>
+      <c r="K540" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L540" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="M540" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="N540" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="O540" t="str">
+        <f>"002861"</f>
+        <v>002861</v>
+      </c>
+      <c r="P540" t="str">
+        <f t="shared" si="184"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="541" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A541" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B541" t="str">
+        <f>"东港股份"</f>
+        <v>东港股份</v>
+      </c>
+      <c r="C541" t="str">
+        <f>"20191125"</f>
+        <v>20191125</v>
+      </c>
+      <c r="D541" t="str">
+        <f>"11.260"</f>
+        <v>11.260</v>
+      </c>
+      <c r="E541" t="str">
+        <f>"-3000.00"</f>
+        <v>-3000.00</v>
+      </c>
+      <c r="F541" t="str">
+        <f>"33736.08"</f>
+        <v>33736.08</v>
+      </c>
+      <c r="G541" t="str">
+        <f>"66416.16"</f>
+        <v>66416.16</v>
+      </c>
+      <c r="H541" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I541" t="str">
+        <f>"475"</f>
+        <v>475</v>
+      </c>
+      <c r="J541" t="str">
+        <f>"证券卖出(东港股份)"</f>
+        <v>证券卖出(东港股份)</v>
+      </c>
+      <c r="K541" t="str">
+        <f>"10.14"</f>
+        <v>10.14</v>
+      </c>
+      <c r="L541" t="str">
+        <f>"33.78"</f>
+        <v>33.78</v>
+      </c>
+      <c r="M541" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="N541" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="O541" t="str">
+        <f>"002117"</f>
+        <v>002117</v>
+      </c>
+      <c r="P541" t="str">
+        <f t="shared" si="184"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="542" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A542" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B542" t="str">
+        <f>"凯普生物"</f>
+        <v>凯普生物</v>
+      </c>
+      <c r="C542" t="str">
+        <f>"20191126"</f>
+        <v>20191126</v>
+      </c>
+      <c r="D542" t="str">
+        <f>"26.050"</f>
+        <v>26.050</v>
+      </c>
+      <c r="E542" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="F542" t="str">
+        <f>"-52115.64"</f>
+        <v>-52115.64</v>
+      </c>
+      <c r="G542" t="str">
+        <f>"44441.20"</f>
+        <v>44441.20</v>
+      </c>
+      <c r="H542" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="I542" t="str">
+        <f>"523"</f>
+        <v>523</v>
+      </c>
+      <c r="J542" t="str">
+        <f>"证券买入(凯普生物)"</f>
+        <v>证券买入(凯普生物)</v>
+      </c>
+      <c r="K542" t="str">
+        <f>"15.64"</f>
+        <v>15.64</v>
+      </c>
+      <c r="L542" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M542" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="N542" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="O542" t="str">
+        <f>"300639"</f>
+        <v>300639</v>
+      </c>
+      <c r="P542" t="str">
+        <f t="shared" si="184"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="543" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A543" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B543" t="str">
+        <f>"惠威科技"</f>
+        <v>惠威科技</v>
+      </c>
+      <c r="C543" t="str">
+        <f>"20191126"</f>
+        <v>20191126</v>
+      </c>
+      <c r="D543" t="str">
+        <f>"21.480"</f>
+        <v>21.480</v>
+      </c>
+      <c r="E543" t="str">
+        <f>"800.00"</f>
+        <v>800.00</v>
+      </c>
+      <c r="F543" t="str">
+        <f>"-17189.16"</f>
+        <v>-17189.16</v>
+      </c>
+      <c r="G543" t="str">
+        <f>"96556.84"</f>
+        <v>96556.84</v>
+      </c>
+      <c r="H543" t="str">
+        <f>"800.00"</f>
+        <v>800.00</v>
+      </c>
+      <c r="I543" t="str">
+        <f>"501"</f>
+        <v>501</v>
+      </c>
+      <c r="J543" t="str">
+        <f>"证券买入(惠威科技)"</f>
+        <v>证券买入(惠威科技)</v>
+      </c>
+      <c r="K543" t="str">
+        <f>"5.16"</f>
+        <v>5.16</v>
+      </c>
+      <c r="L543" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M543" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="N543" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="O543" t="str">
+        <f>"002888"</f>
+        <v>002888</v>
+      </c>
+      <c r="P543" t="str">
+        <f t="shared" si="184"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="544" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A544" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B544" t="str">
+        <f>"顺灏股份"</f>
+        <v>顺灏股份</v>
+      </c>
+      <c r="C544" t="str">
+        <f>"20191126"</f>
+        <v>20191126</v>
+      </c>
+      <c r="D544" t="str">
+        <f>"6.220"</f>
+        <v>6.220</v>
+      </c>
+      <c r="E544" t="str">
+        <f>"-14900.00"</f>
+        <v>-14900.00</v>
+      </c>
+      <c r="F544" t="str">
+        <f>"92557.51"</f>
+        <v>92557.51</v>
+      </c>
+      <c r="G544" t="str">
+        <f>"113746.00"</f>
+        <v>113746.00</v>
+      </c>
+      <c r="H544" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I544" t="str">
+        <f>"512"</f>
+        <v>512</v>
+      </c>
+      <c r="J544" t="str">
+        <f>"证券卖出(顺灏股份)"</f>
+        <v>证券卖出(顺灏股份)</v>
+      </c>
+      <c r="K544" t="str">
+        <f>"27.81"</f>
+        <v>27.81</v>
+      </c>
+      <c r="L544" t="str">
+        <f>"92.68"</f>
+        <v>92.68</v>
+      </c>
+      <c r="M544" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="N544" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="O544" t="str">
+        <f>"002565"</f>
+        <v>002565</v>
+      </c>
+      <c r="P544" t="str">
+        <f t="shared" si="184"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="545" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A545" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B545" t="str">
+        <f>"中通国脉"</f>
+        <v>中通国脉</v>
+      </c>
+      <c r="C545" t="str">
+        <f>"20191126"</f>
+        <v>20191126</v>
+      </c>
+      <c r="D545" t="str">
+        <f>"17.270"</f>
+        <v>17.270</v>
+      </c>
+      <c r="E545" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F545" t="str">
+        <f>"-8640.17"</f>
+        <v>-8640.17</v>
+      </c>
+      <c r="G545" t="str">
+        <f>"21188.49"</f>
+        <v>21188.49</v>
+      </c>
+      <c r="H545" t="str">
+        <f>"3500.00"</f>
+        <v>3500.00</v>
+      </c>
+      <c r="I545" t="str">
+        <f>"508"</f>
+        <v>508</v>
+      </c>
+      <c r="J545" t="str">
+        <f>"证券买入(中通国脉)"</f>
+        <v>证券买入(中通国脉)</v>
+      </c>
+      <c r="K545" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L545" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M545" t="str">
+        <f>"0.17"</f>
+        <v>0.17</v>
+      </c>
+      <c r="N545" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="O545" t="str">
+        <f>"603559"</f>
+        <v>603559</v>
+      </c>
+      <c r="P545" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="546" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A546" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B546" t="str">
+        <f>"恒铭达"</f>
+        <v>恒铭达</v>
+      </c>
+      <c r="C546" t="str">
+        <f>"20191127"</f>
+        <v>20191127</v>
+      </c>
+      <c r="D546" t="str">
+        <f>"53.820"</f>
+        <v>53.820</v>
+      </c>
+      <c r="E546" t="str">
+        <f>"400.00"</f>
+        <v>400.00</v>
+      </c>
+      <c r="F546" t="str">
+        <f>"-21534.46"</f>
+        <v>-21534.46</v>
+      </c>
+      <c r="G546" t="str">
+        <f>"78941.79"</f>
+        <v>78941.79</v>
+      </c>
+      <c r="H546" t="str">
+        <f>"400.00"</f>
+        <v>400.00</v>
+      </c>
+      <c r="I546" t="str">
+        <f>"541"</f>
+        <v>541</v>
+      </c>
+      <c r="J546" t="str">
+        <f>"证券买入(恒铭达)"</f>
+        <v>证券买入(恒铭达)</v>
+      </c>
+      <c r="K546" t="str">
+        <f>"6.46"</f>
+        <v>6.46</v>
+      </c>
+      <c r="L546" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M546" t="str">
+        <f t="shared" ref="M546:N561" si="185">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N546" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="O546" t="str">
+        <f>"002947"</f>
+        <v>002947</v>
+      </c>
+      <c r="P546" t="str">
+        <f t="shared" ref="P546:P554" si="186">"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="547" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A547" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B547" t="str">
+        <f>"惠威科技"</f>
+        <v>惠威科技</v>
+      </c>
+      <c r="C547" t="str">
+        <f>"20191127"</f>
+        <v>20191127</v>
+      </c>
+      <c r="D547" t="str">
+        <f>"22.510"</f>
+        <v>22.510</v>
+      </c>
+      <c r="E547" t="str">
+        <f>"-800.00"</f>
+        <v>-800.00</v>
+      </c>
+      <c r="F547" t="str">
+        <f>"17984.59"</f>
+        <v>17984.59</v>
+      </c>
+      <c r="G547" t="str">
+        <f>"100476.25"</f>
+        <v>100476.25</v>
+      </c>
+      <c r="H547" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I547" t="str">
+        <f>"535"</f>
+        <v>535</v>
+      </c>
+      <c r="J547" t="str">
+        <f>"证券卖出(惠威科技)"</f>
+        <v>证券卖出(惠威科技)</v>
+      </c>
+      <c r="K547" t="str">
+        <f>"5.40"</f>
+        <v>5.40</v>
+      </c>
+      <c r="L547" t="str">
+        <f>"18.01"</f>
+        <v>18.01</v>
+      </c>
+      <c r="M547" t="str">
+        <f t="shared" si="185"/>
+        <v>0.00</v>
+      </c>
+      <c r="N547" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="O547" t="str">
+        <f>"002888"</f>
+        <v>002888</v>
+      </c>
+      <c r="P547" t="str">
+        <f t="shared" si="186"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="548" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A548" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B548" t="str">
+        <f>"瀛通通讯"</f>
+        <v>瀛通通讯</v>
+      </c>
+      <c r="C548" t="str">
+        <f>"20191127"</f>
+        <v>20191127</v>
+      </c>
+      <c r="D548" t="str">
+        <f>"38.350"</f>
+        <v>38.350</v>
+      </c>
+      <c r="E548" t="str">
+        <f>"-500.00"</f>
+        <v>-500.00</v>
+      </c>
+      <c r="F548" t="str">
+        <f>"19150.07"</f>
+        <v>19150.07</v>
+      </c>
+      <c r="G548" t="str">
+        <f>"82491.66"</f>
+        <v>82491.66</v>
+      </c>
+      <c r="H548" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I548" t="str">
+        <f>"537"</f>
+        <v>537</v>
+      </c>
+      <c r="J548" t="str">
+        <f>"证券卖出(瀛通通讯)"</f>
+        <v>证券卖出(瀛通通讯)</v>
+      </c>
+      <c r="K548" t="str">
+        <f>"5.75"</f>
+        <v>5.75</v>
+      </c>
+      <c r="L548" t="str">
+        <f>"19.18"</f>
+        <v>19.18</v>
+      </c>
+      <c r="M548" t="str">
+        <f t="shared" si="185"/>
+        <v>0.00</v>
+      </c>
+      <c r="N548" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="O548" t="str">
+        <f>"002861"</f>
+        <v>002861</v>
+      </c>
+      <c r="P548" t="str">
+        <f t="shared" si="186"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="549" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A549" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B549" t="str">
+        <f>"瀛通通讯"</f>
+        <v>瀛通通讯</v>
+      </c>
+      <c r="C549" t="str">
+        <f>"20191127"</f>
+        <v>20191127</v>
+      </c>
+      <c r="D549" t="str">
+        <f>"37.850"</f>
+        <v>37.850</v>
+      </c>
+      <c r="E549" t="str">
+        <f>"-500.00"</f>
+        <v>-500.00</v>
+      </c>
+      <c r="F549" t="str">
+        <f>"18900.39"</f>
+        <v>18900.39</v>
+      </c>
+      <c r="G549" t="str">
+        <f>"63341.59"</f>
+        <v>63341.59</v>
+      </c>
+      <c r="H549" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="I549" t="str">
+        <f>"531"</f>
+        <v>531</v>
+      </c>
+      <c r="J549" t="str">
+        <f>"证券卖出(瀛通通讯)"</f>
+        <v>证券卖出(瀛通通讯)</v>
+      </c>
+      <c r="K549" t="str">
+        <f>"5.68"</f>
+        <v>5.68</v>
+      </c>
+      <c r="L549" t="str">
+        <f>"18.93"</f>
+        <v>18.93</v>
+      </c>
+      <c r="M549" t="str">
+        <f t="shared" si="185"/>
+        <v>0.00</v>
+      </c>
+      <c r="N549" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="O549" t="str">
+        <f>"002861"</f>
+        <v>002861</v>
+      </c>
+      <c r="P549" t="str">
+        <f t="shared" si="186"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="550" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A550" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B550" t="str">
+        <f>"凯普生物"</f>
+        <v>凯普生物</v>
+      </c>
+      <c r="C550" t="str">
+        <f t="shared" ref="C550:C555" si="187">"20191128"</f>
+        <v>20191128</v>
+      </c>
+      <c r="D550" t="str">
+        <f>"26.850"</f>
+        <v>26.850</v>
+      </c>
+      <c r="E550" t="str">
+        <f>"-2000.00"</f>
+        <v>-2000.00</v>
+      </c>
+      <c r="F550" t="str">
+        <f>"53630.18"</f>
+        <v>53630.18</v>
+      </c>
+      <c r="G550" t="str">
+        <f>"67415.80"</f>
+        <v>67415.80</v>
+      </c>
+      <c r="H550" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I550" t="str">
+        <f>"562"</f>
+        <v>562</v>
+      </c>
+      <c r="J550" t="str">
+        <f>"证券卖出(凯普生物)"</f>
+        <v>证券卖出(凯普生物)</v>
+      </c>
+      <c r="K550" t="str">
+        <f>"16.12"</f>
+        <v>16.12</v>
+      </c>
+      <c r="L550" t="str">
+        <f>"53.70"</f>
+        <v>53.70</v>
+      </c>
+      <c r="M550" t="str">
+        <f t="shared" si="185"/>
+        <v>0.00</v>
+      </c>
+      <c r="N550" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="O550" t="str">
+        <f>"300639"</f>
+        <v>300639</v>
+      </c>
+      <c r="P550" t="str">
+        <f t="shared" si="186"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="551" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A551" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B551" t="str">
+        <f>"我武生物"</f>
+        <v>我武生物</v>
+      </c>
+      <c r="C551" t="str">
+        <f t="shared" si="187"/>
+        <v>20191128</v>
+      </c>
+      <c r="D551" t="str">
+        <f>"47.230"</f>
+        <v>47.230</v>
+      </c>
+      <c r="E551" t="str">
+        <f>"600.00"</f>
+        <v>600.00</v>
+      </c>
+      <c r="F551" t="str">
+        <f>"-28346.50"</f>
+        <v>-28346.50</v>
+      </c>
+      <c r="G551" t="str">
+        <f>"13785.62"</f>
+        <v>13785.62</v>
+      </c>
+      <c r="H551" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="I551" t="str">
+        <f>"572"</f>
+        <v>572</v>
+      </c>
+      <c r="J551" t="str">
+        <f>"证券买入(我武生物)"</f>
+        <v>证券买入(我武生物)</v>
+      </c>
+      <c r="K551" t="str">
+        <f>"8.50"</f>
+        <v>8.50</v>
+      </c>
+      <c r="L551" t="str">
+        <f t="shared" ref="L551:L557" si="188">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M551" t="str">
+        <f t="shared" si="185"/>
+        <v>0.00</v>
+      </c>
+      <c r="N551" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="O551" t="str">
+        <f>"300357"</f>
+        <v>300357</v>
+      </c>
+      <c r="P551" t="str">
+        <f t="shared" si="186"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="552" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A552" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B552" t="str">
+        <f>"我武生物"</f>
+        <v>我武生物</v>
+      </c>
+      <c r="C552" t="str">
+        <f t="shared" si="187"/>
+        <v>20191128</v>
+      </c>
+      <c r="D552" t="str">
+        <f>"47.220"</f>
+        <v>47.220</v>
+      </c>
+      <c r="E552" t="str">
+        <f>"400.00"</f>
+        <v>400.00</v>
+      </c>
+      <c r="F552" t="str">
+        <f>"-18893.67"</f>
+        <v>-18893.67</v>
+      </c>
+      <c r="G552" t="str">
+        <f>"42132.12"</f>
+        <v>42132.12</v>
+      </c>
+      <c r="H552" t="str">
+        <f>"400.00"</f>
+        <v>400.00</v>
+      </c>
+      <c r="I552" t="str">
+        <f>"565"</f>
+        <v>565</v>
+      </c>
+      <c r="J552" t="str">
+        <f>"证券买入(我武生物)"</f>
+        <v>证券买入(我武生物)</v>
+      </c>
+      <c r="K552" t="str">
+        <f>"5.67"</f>
+        <v>5.67</v>
+      </c>
+      <c r="L552" t="str">
+        <f t="shared" si="188"/>
+        <v>0.00</v>
+      </c>
+      <c r="M552" t="str">
+        <f t="shared" si="185"/>
+        <v>0.00</v>
+      </c>
+      <c r="N552" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="O552" t="str">
+        <f>"300357"</f>
+        <v>300357</v>
+      </c>
+      <c r="P552" t="str">
+        <f t="shared" si="186"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="553" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A553" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B553" t="str">
+        <f>"四方精创"</f>
+        <v>四方精创</v>
+      </c>
+      <c r="C553" t="str">
+        <f t="shared" si="187"/>
+        <v>20191128</v>
+      </c>
+      <c r="D553" t="str">
+        <f>"29.487"</f>
+        <v>29.487</v>
+      </c>
+      <c r="E553" t="str">
+        <f>"300.00"</f>
+        <v>300.00</v>
+      </c>
+      <c r="F553" t="str">
+        <f>"-8851.00"</f>
+        <v>-8851.00</v>
+      </c>
+      <c r="G553" t="str">
+        <f>"61025.79"</f>
+        <v>61025.79</v>
+      </c>
+      <c r="H553" t="str">
+        <f>"600.00"</f>
+        <v>600.00</v>
+      </c>
+      <c r="I553" t="str">
+        <f>"557"</f>
+        <v>557</v>
+      </c>
+      <c r="J553" t="str">
+        <f>"证券买入(四方精创)"</f>
+        <v>证券买入(四方精创)</v>
+      </c>
+      <c r="K553" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L553" t="str">
+        <f t="shared" si="188"/>
+        <v>0.00</v>
+      </c>
+      <c r="M553" t="str">
+        <f t="shared" si="185"/>
+        <v>0.00</v>
+      </c>
+      <c r="N553" t="str">
+        <f t="shared" si="183"/>
+        <v>0.00</v>
+      </c>
+      <c r="O553" t="str">
+        <f>"300468"</f>
+        <v>300468</v>
+      </c>
+      <c r="P553" t="str">
+        <f t="shared" si="186"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="554" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A554" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B554" t="str">
+        <f>"四方精创"</f>
+        <v>四方精创</v>
+      </c>
+      <c r="C554" t="str">
+        <f t="shared" si="187"/>
+        <v>20191128</v>
+      </c>
+      <c r="D554" t="str">
+        <f>"30.200"</f>
+        <v>30.200</v>
+      </c>
+      <c r="E554" t="str">
+        <f>"300.00"</f>
+        <v>300.00</v>
+      </c>
+      <c r="F554" t="str">
+        <f>"-9065.00"</f>
+        <v>-9065.00</v>
+      </c>
+      <c r="G554" t="str">
+        <f>"69876.79"</f>
+        <v>69876.79</v>
+      </c>
+      <c r="H554" t="str">
+        <f>"300.00"</f>
+        <v>300.00</v>
+      </c>
+      <c r="I554" t="str">
+        <f>"550"</f>
+        <v>550</v>
+      </c>
+      <c r="J554" t="str">
+        <f>"证券买入(四方精创)"</f>
+        <v>证券买入(四方精创)</v>
+      </c>
+      <c r="K554" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L554" t="str">
+        <f t="shared" si="188"/>
+        <v>0.00</v>
+      </c>
+      <c r="M554" t="str">
+        <f t="shared" si="185"/>
+        <v>0.00</v>
+      </c>
+      <c r="N554" t="str">
+        <f t="shared" si="185"/>
+        <v>0.00</v>
+      </c>
+      <c r="O554" t="str">
+        <f>"300468"</f>
+        <v>300468</v>
+      </c>
+      <c r="P554" t="str">
+        <f t="shared" si="186"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="555" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A555" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B555" t="str">
+        <f>"邮储配号"</f>
+        <v>邮储配号</v>
+      </c>
+      <c r="C555" t="str">
+        <f t="shared" si="187"/>
+        <v>20191128</v>
+      </c>
+      <c r="D555" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E555" t="str">
+        <f>"7.00"</f>
+        <v>7.00</v>
+      </c>
+      <c r="F555" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G555" t="str">
+        <f>"78941.79"</f>
+        <v>78941.79</v>
+      </c>
+      <c r="H555" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I555" t="str">
+        <f>"548"</f>
+        <v>548</v>
+      </c>
+      <c r="J555" t="str">
+        <f>"申购配号(邮储配号)"</f>
+        <v>申购配号(邮储配号)</v>
+      </c>
+      <c r="K555" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L555" t="str">
+        <f t="shared" si="188"/>
+        <v>0.00</v>
+      </c>
+      <c r="M555" t="str">
+        <f t="shared" si="185"/>
+        <v>0.00</v>
+      </c>
+      <c r="N555" t="str">
+        <f t="shared" si="185"/>
+        <v>0.00</v>
+      </c>
+      <c r="O555" t="str">
+        <f>"791658"</f>
+        <v>791658</v>
+      </c>
+      <c r="P555" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="556" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A556" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B556" t="str">
+        <f>"精测电子"</f>
+        <v>精测电子</v>
+      </c>
+      <c r="C556" t="str">
+        <f>"20191129"</f>
+        <v>20191129</v>
+      </c>
+      <c r="D556" t="str">
+        <f>"39.710"</f>
+        <v>39.710</v>
+      </c>
+      <c r="E556" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F556" t="str">
+        <f>"-19860.96"</f>
+        <v>-19860.96</v>
+      </c>
+      <c r="G556" t="str">
+        <f>"86026.73"</f>
+        <v>86026.73</v>
+      </c>
+      <c r="H556" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="I556" t="str">
+        <f>"603"</f>
+        <v>603</v>
+      </c>
+      <c r="J556" t="str">
+        <f>"证券买入(精测电子)"</f>
+        <v>证券买入(精测电子)</v>
+      </c>
+      <c r="K556" t="str">
+        <f>"5.96"</f>
+        <v>5.96</v>
+      </c>
+      <c r="L556" t="str">
+        <f t="shared" si="188"/>
+        <v>0.00</v>
+      </c>
+      <c r="M556" t="str">
+        <f t="shared" si="185"/>
+        <v>0.00</v>
+      </c>
+      <c r="N556" t="str">
+        <f t="shared" si="185"/>
+        <v>0.00</v>
+      </c>
+      <c r="O556" t="str">
+        <f>"300567"</f>
+        <v>300567</v>
+      </c>
+      <c r="P556" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="557" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A557" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B557" t="str">
+        <f>"精测电子"</f>
+        <v>精测电子</v>
+      </c>
+      <c r="C557" t="str">
+        <f>"20191129"</f>
+        <v>20191129</v>
+      </c>
+      <c r="D557" t="str">
+        <f>"39.790"</f>
+        <v>39.790</v>
+      </c>
+      <c r="E557" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F557" t="str">
+        <f>"-19900.97"</f>
+        <v>-19900.97</v>
+      </c>
+      <c r="G557" t="str">
+        <f>"105887.69"</f>
+        <v>105887.69</v>
+      </c>
+      <c r="H557" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="I557" t="str">
+        <f>"590"</f>
+        <v>590</v>
+      </c>
+      <c r="J557" t="str">
+        <f>"证券买入(精测电子)"</f>
+        <v>证券买入(精测电子)</v>
+      </c>
+      <c r="K557" t="str">
+        <f>"5.97"</f>
+        <v>5.97</v>
+      </c>
+      <c r="L557" t="str">
+        <f t="shared" si="188"/>
+        <v>0.00</v>
+      </c>
+      <c r="M557" t="str">
+        <f t="shared" si="185"/>
+        <v>0.00</v>
+      </c>
+      <c r="N557" t="str">
+        <f t="shared" si="185"/>
+        <v>0.00</v>
+      </c>
+      <c r="O557" t="str">
+        <f>"300567"</f>
+        <v>300567</v>
+      </c>
+      <c r="P557" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="558" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A558" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B558" t="str">
+        <f>"中通国脉"</f>
+        <v>中通国脉</v>
+      </c>
+      <c r="C558" t="str">
+        <f>"20191129"</f>
+        <v>20191129</v>
+      </c>
+      <c r="D558" t="str">
+        <f>"16.700"</f>
+        <v>16.700</v>
+      </c>
+      <c r="E558" t="str">
+        <f>"-3500.00"</f>
+        <v>-3500.00</v>
+      </c>
+      <c r="F558" t="str">
+        <f>"58372.86"</f>
+        <v>58372.86</v>
+      </c>
+      <c r="G558" t="str">
+        <f>"125788.66"</f>
+        <v>125788.66</v>
+      </c>
+      <c r="H558" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I558" t="str">
+        <f>"586"</f>
+        <v>586</v>
+      </c>
+      <c r="J558" t="str">
+        <f>"证券卖出(中通国脉)"</f>
+        <v>证券卖出(中通国脉)</v>
+      </c>
+      <c r="K558" t="str">
+        <f>"17.54"</f>
+        <v>17.54</v>
+      </c>
+      <c r="L558" t="str">
+        <f>"58.45"</f>
+        <v>58.45</v>
+      </c>
+      <c r="M558" t="str">
+        <f>"1.15"</f>
+        <v>1.15</v>
+      </c>
+      <c r="N558" t="str">
+        <f t="shared" si="185"/>
+        <v>0.00</v>
+      </c>
+      <c r="O558" t="str">
+        <f>"603559"</f>
+        <v>603559</v>
+      </c>
+      <c r="P558" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="559" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A559" t="str">
+        <f t="shared" si="170"/>
+        <v>人民币</v>
+      </c>
+      <c r="B559" t="str">
+        <f>"恒铭达"</f>
+        <v>恒铭达</v>
+      </c>
+      <c r="C559" t="str">
+        <f>"20191202"</f>
+        <v>20191202</v>
+      </c>
+      <c r="D559" t="str">
+        <f>"53.830"</f>
+        <v>53.830</v>
+      </c>
+      <c r="E559" t="str">
+        <f>"600.00"</f>
+        <v>600.00</v>
+      </c>
+      <c r="F559" t="str">
+        <f>"-32307.69"</f>
+        <v>-32307.69</v>
+      </c>
+      <c r="G559" t="str">
+        <f>"60234.94"</f>
+        <v>60234.94</v>
+      </c>
+      <c r="H559" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="I559" t="str">
+        <f>"615"</f>
+        <v>615</v>
+      </c>
+      <c r="J559" t="str">
+        <f>"证券买入(恒铭达)"</f>
+        <v>证券买入(恒铭达)</v>
+      </c>
+      <c r="K559" t="str">
+        <f>"9.69"</f>
+        <v>9.69</v>
+      </c>
+      <c r="L559" t="str">
+        <f t="shared" ref="L559:N571" si="189">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M559" t="str">
+        <f t="shared" si="189"/>
+        <v>0.00</v>
+      </c>
+      <c r="N559" t="str">
+        <f t="shared" si="185"/>
+        <v>0.00</v>
+      </c>
+      <c r="O559" t="str">
+        <f>"002947"</f>
+        <v>002947</v>
+      </c>
+      <c r="P559" t="str">
+        <f t="shared" ref="P559:P564" si="190">"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="560" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A560" t="str">
+        <f t="shared" ref="A560:A596" si="191">"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B560" t="str">
+        <f>"四方精创"</f>
+        <v>四方精创</v>
+      </c>
+      <c r="C560" t="str">
+        <f>"20191202"</f>
+        <v>20191202</v>
+      </c>
+      <c r="D560" t="str">
+        <f>"29.410"</f>
+        <v>29.410</v>
+      </c>
+      <c r="E560" t="str">
+        <f>"400.00"</f>
+        <v>400.00</v>
+      </c>
+      <c r="F560" t="str">
+        <f>"-11769.00"</f>
+        <v>-11769.00</v>
+      </c>
+      <c r="G560" t="str">
+        <f>"92542.63"</f>
+        <v>92542.63</v>
+      </c>
+      <c r="H560" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="I560" t="str">
+        <f>"622"</f>
+        <v>622</v>
+      </c>
+      <c r="J560" t="str">
+        <f>"证券买入(四方精创)"</f>
+        <v>证券买入(四方精创)</v>
+      </c>
+      <c r="K560" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L560" t="str">
+        <f t="shared" si="189"/>
+        <v>0.00</v>
+      </c>
+      <c r="M560" t="str">
+        <f t="shared" si="189"/>
+        <v>0.00</v>
+      </c>
+      <c r="N560" t="str">
+        <f t="shared" si="185"/>
+        <v>0.00</v>
+      </c>
+      <c r="O560" t="str">
+        <f>"300468"</f>
+        <v>300468</v>
+      </c>
+      <c r="P560" t="str">
+        <f t="shared" si="190"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="561" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A561" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B561" t="str">
+        <f>"我武生物"</f>
+        <v>我武生物</v>
+      </c>
+      <c r="C561" t="str">
+        <f>"20191202"</f>
+        <v>20191202</v>
+      </c>
+      <c r="D561" t="str">
+        <f>"45.310"</f>
+        <v>45.310</v>
+      </c>
+      <c r="E561" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F561" t="str">
+        <f>"-22661.80"</f>
+        <v>-22661.80</v>
+      </c>
+      <c r="G561" t="str">
+        <f>"104311.63"</f>
+        <v>104311.63</v>
+      </c>
+      <c r="H561" t="str">
+        <f>"1500.00"</f>
+        <v>1500.00</v>
+      </c>
+      <c r="I561" t="str">
+        <f>"609"</f>
+        <v>609</v>
+      </c>
+      <c r="J561" t="str">
+        <f>"证券买入(我武生物)"</f>
+        <v>证券买入(我武生物)</v>
+      </c>
+      <c r="K561" t="str">
+        <f>"6.80"</f>
+        <v>6.80</v>
+      </c>
+      <c r="L561" t="str">
+        <f t="shared" si="189"/>
+        <v>0.00</v>
+      </c>
+      <c r="M561" t="str">
+        <f t="shared" si="189"/>
+        <v>0.00</v>
+      </c>
+      <c r="N561" t="str">
+        <f t="shared" si="185"/>
+        <v>0.00</v>
+      </c>
+      <c r="O561" t="str">
+        <f>"300357"</f>
+        <v>300357</v>
+      </c>
+      <c r="P561" t="str">
+        <f t="shared" si="190"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="562" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A562" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B562" t="str">
+        <f>"精测电子"</f>
+        <v>精测电子</v>
+      </c>
+      <c r="C562" t="str">
+        <f>"20191202"</f>
+        <v>20191202</v>
+      </c>
+      <c r="D562" t="str">
+        <f>"41.000"</f>
+        <v>41.000</v>
+      </c>
+      <c r="E562" t="str">
+        <f>"-1000.00"</f>
+        <v>-1000.00</v>
+      </c>
+      <c r="F562" t="str">
+        <f>"40946.70"</f>
+        <v>40946.70</v>
+      </c>
+      <c r="G562" t="str">
+        <f>"126973.43"</f>
+        <v>126973.43</v>
+      </c>
+      <c r="H562" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I562" t="str">
+        <f>"612"</f>
+        <v>612</v>
+      </c>
+      <c r="J562" t="str">
+        <f>"证券卖出(精测电子)"</f>
+        <v>证券卖出(精测电子)</v>
+      </c>
+      <c r="K562" t="str">
+        <f>"12.30"</f>
+        <v>12.30</v>
+      </c>
+      <c r="L562" t="str">
+        <f>"41.00"</f>
+        <v>41.00</v>
+      </c>
+      <c r="M562" t="str">
+        <f t="shared" si="189"/>
+        <v>0.00</v>
+      </c>
+      <c r="N562" t="str">
+        <f t="shared" si="189"/>
+        <v>0.00</v>
+      </c>
+      <c r="O562" t="str">
+        <f>"300567"</f>
+        <v>300567</v>
+      </c>
+      <c r="P562" t="str">
+        <f t="shared" si="190"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="563" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A563" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B563" t="str">
+        <f>"我武生物"</f>
+        <v>我武生物</v>
+      </c>
+      <c r="C563" t="str">
+        <f>"20191203"</f>
+        <v>20191203</v>
+      </c>
+      <c r="D563" t="str">
+        <f>"44.000"</f>
+        <v>44.000</v>
+      </c>
+      <c r="E563" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F563" t="str">
+        <f>"-22006.60"</f>
+        <v>-22006.60</v>
+      </c>
+      <c r="G563" t="str">
+        <f>"21143.21"</f>
+        <v>21143.21</v>
+      </c>
+      <c r="H563" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="I563" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="J563" t="str">
+        <f>"证券买入(我武生物)"</f>
+        <v>证券买入(我武生物)</v>
+      </c>
+      <c r="K563" t="str">
+        <f>"6.60"</f>
+        <v>6.60</v>
+      </c>
+      <c r="L563" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M563" t="str">
+        <f t="shared" si="189"/>
+        <v>0.00</v>
+      </c>
+      <c r="N563" t="str">
+        <f t="shared" si="189"/>
+        <v>0.00</v>
+      </c>
+      <c r="O563" t="str">
+        <f>"300357"</f>
+        <v>300357</v>
+      </c>
+      <c r="P563" t="str">
+        <f t="shared" si="190"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="564" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A564" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B564" t="str">
+        <f>"奥飞娱乐"</f>
+        <v>奥飞娱乐</v>
+      </c>
+      <c r="C564" t="str">
+        <f>"20191203"</f>
+        <v>20191203</v>
+      </c>
+      <c r="D564" t="str">
+        <f>"8.540"</f>
+        <v>8.540</v>
+      </c>
+      <c r="E564" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="F564" t="str">
+        <f>"-17085.13"</f>
+        <v>-17085.13</v>
+      </c>
+      <c r="G564" t="str">
+        <f>"43149.81"</f>
+        <v>43149.81</v>
+      </c>
+      <c r="H564" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="I564" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="J564" t="str">
+        <f>"证券买入(奥飞娱乐)"</f>
+        <v>证券买入(奥飞娱乐)</v>
+      </c>
+      <c r="K564" t="str">
+        <f>"5.13"</f>
+        <v>5.13</v>
+      </c>
+      <c r="L564" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M564" t="str">
+        <f t="shared" si="189"/>
+        <v>0.00</v>
+      </c>
+      <c r="N564" t="str">
+        <f t="shared" si="189"/>
+        <v>0.00</v>
+      </c>
+      <c r="O564" t="str">
+        <f>"002292"</f>
+        <v>002292</v>
+      </c>
+      <c r="P564" t="str">
+        <f t="shared" si="190"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="565" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A565" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B565" t="str">
+        <f>"成燃配号"</f>
+        <v>成燃配号</v>
+      </c>
+      <c r="C565" t="str">
+        <f>"20191203"</f>
+        <v>20191203</v>
+      </c>
+      <c r="D565" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E565" t="str">
+        <f>"6.00"</f>
+        <v>6.00</v>
+      </c>
+      <c r="F565" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G565" t="str">
+        <f>"60234.94"</f>
+        <v>60234.94</v>
+      </c>
+      <c r="H565" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I565" t="str">
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+      <c r="J565" t="str">
+        <f>"申购配号(成燃配号)"</f>
+        <v>申购配号(成燃配号)</v>
+      </c>
+      <c r="K565" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L565" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M565" t="str">
+        <f t="shared" si="189"/>
+        <v>0.00</v>
+      </c>
+      <c r="N565" t="str">
+        <f t="shared" si="189"/>
+        <v>0.00</v>
+      </c>
+      <c r="O565" t="str">
+        <f>"736053"</f>
+        <v>736053</v>
+      </c>
+      <c r="P565" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="566" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A566" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B566" t="str">
+        <f>"锐明技术"</f>
+        <v>锐明技术</v>
+      </c>
+      <c r="C566" t="str">
+        <f t="shared" ref="C566:C572" si="192">"20191204"</f>
+        <v>20191204</v>
+      </c>
+      <c r="D566" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E566" t="str">
+        <f>"17.00"</f>
+        <v>17.00</v>
+      </c>
+      <c r="F566" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G566" t="str">
+        <f>"44820.78"</f>
+        <v>44820.78</v>
+      </c>
+      <c r="H566" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I566" t="str">
+        <f>"13"</f>
+        <v>13</v>
+      </c>
+      <c r="J566" t="str">
+        <f>"申购配号(锐明技术)"</f>
+        <v>申购配号(锐明技术)</v>
+      </c>
+      <c r="K566" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L566" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M566" t="str">
+        <f t="shared" si="189"/>
+        <v>0.00</v>
+      </c>
+      <c r="N566" t="str">
+        <f t="shared" si="189"/>
+        <v>0.00</v>
+      </c>
+      <c r="O566" t="str">
+        <f>"002970"</f>
+        <v>002970</v>
+      </c>
+      <c r="P566" t="str">
+        <f t="shared" ref="P566:P571" si="193">"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="567" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A567" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B567" t="str">
+        <f>"奥飞娱乐"</f>
+        <v>奥飞娱乐</v>
+      </c>
+      <c r="C567" t="str">
+        <f t="shared" si="192"/>
+        <v>20191204</v>
+      </c>
+      <c r="D567" t="str">
+        <f>"8.910"</f>
+        <v>8.910</v>
+      </c>
+      <c r="E567" t="str">
+        <f>"-2000.00"</f>
+        <v>-2000.00</v>
+      </c>
+      <c r="F567" t="str">
+        <f>"17796.83"</f>
+        <v>17796.83</v>
+      </c>
+      <c r="G567" t="str">
+        <f>"44820.78"</f>
+        <v>44820.78</v>
+      </c>
+      <c r="H567" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I567" t="str">
+        <f>"32"</f>
+        <v>32</v>
+      </c>
+      <c r="J567" t="str">
+        <f>"证券卖出(奥飞娱乐)"</f>
+        <v>证券卖出(奥飞娱乐)</v>
+      </c>
+      <c r="K567" t="str">
+        <f>"5.35"</f>
+        <v>5.35</v>
+      </c>
+      <c r="L567" t="str">
+        <f>"17.82"</f>
+        <v>17.82</v>
+      </c>
+      <c r="M567" t="str">
+        <f t="shared" si="189"/>
+        <v>0.00</v>
+      </c>
+      <c r="N567" t="str">
+        <f t="shared" si="189"/>
+        <v>0.00</v>
+      </c>
+      <c r="O567" t="str">
+        <f>"002292"</f>
+        <v>002292</v>
+      </c>
+      <c r="P567" t="str">
+        <f t="shared" si="193"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="568" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A568" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B568" t="str">
+        <f>"光弘科技"</f>
+        <v>光弘科技</v>
+      </c>
+      <c r="C568" t="str">
+        <f t="shared" si="192"/>
+        <v>20191204</v>
+      </c>
+      <c r="D568" t="str">
+        <f>"27.220"</f>
+        <v>27.220</v>
+      </c>
+      <c r="E568" t="str">
+        <f>"300.00"</f>
+        <v>300.00</v>
+      </c>
+      <c r="F568" t="str">
+        <f>"-8171.00"</f>
+        <v>-8171.00</v>
+      </c>
+      <c r="G568" t="str">
+        <f>"27023.95"</f>
+        <v>27023.95</v>
+      </c>
+      <c r="H568" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="I568" t="str">
+        <f>"25"</f>
+        <v>25</v>
+      </c>
+      <c r="J568" t="str">
+        <f>"证券买入(光弘科技)"</f>
+        <v>证券买入(光弘科技)</v>
+      </c>
+      <c r="K568" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L568" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M568" t="str">
+        <f t="shared" si="189"/>
+        <v>0.00</v>
+      </c>
+      <c r="N568" t="str">
+        <f t="shared" si="189"/>
+        <v>0.00</v>
+      </c>
+      <c r="O568" t="str">
+        <f>"300735"</f>
+        <v>300735</v>
+      </c>
+      <c r="P568" t="str">
+        <f t="shared" si="193"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="569" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A569" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B569" t="str">
+        <f>"光弘科技"</f>
+        <v>光弘科技</v>
+      </c>
+      <c r="C569" t="str">
+        <f t="shared" si="192"/>
+        <v>20191204</v>
+      </c>
+      <c r="D569" t="str">
+        <f>"27.390"</f>
+        <v>27.390</v>
+      </c>
+      <c r="E569" t="str">
+        <f>"700.00"</f>
+        <v>700.00</v>
+      </c>
+      <c r="F569" t="str">
+        <f>"-19178.75"</f>
+        <v>-19178.75</v>
+      </c>
+      <c r="G569" t="str">
+        <f>"35194.95"</f>
+        <v>35194.95</v>
+      </c>
+      <c r="H569" t="str">
+        <f>"700.00"</f>
+        <v>700.00</v>
+      </c>
+      <c r="I569" t="str">
+        <f>"15"</f>
+        <v>15</v>
+      </c>
+      <c r="J569" t="str">
+        <f>"证券买入(光弘科技)"</f>
+        <v>证券买入(光弘科技)</v>
+      </c>
+      <c r="K569" t="str">
+        <f>"5.75"</f>
+        <v>5.75</v>
+      </c>
+      <c r="L569" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M569" t="str">
+        <f t="shared" si="189"/>
+        <v>0.00</v>
+      </c>
+      <c r="N569" t="str">
+        <f t="shared" si="189"/>
+        <v>0.00</v>
+      </c>
+      <c r="O569" t="str">
+        <f>"300735"</f>
+        <v>300735</v>
+      </c>
+      <c r="P569" t="str">
+        <f t="shared" si="193"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="570" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A570" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B570" t="str">
+        <f>"神州数码"</f>
+        <v>神州数码</v>
+      </c>
+      <c r="C570" t="str">
+        <f t="shared" si="192"/>
+        <v>20191204</v>
+      </c>
+      <c r="D570" t="str">
+        <f>"18.870"</f>
+        <v>18.870</v>
+      </c>
+      <c r="E570" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F570" t="str">
+        <f>"-9440.00"</f>
+        <v>-9440.00</v>
+      </c>
+      <c r="G570" t="str">
+        <f>"54373.70"</f>
+        <v>54373.70</v>
+      </c>
+      <c r="H570" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="I570" t="str">
+        <f>"38"</f>
+        <v>38</v>
+      </c>
+      <c r="J570" t="str">
+        <f>"证券买入(神州数码)"</f>
+        <v>证券买入(神州数码)</v>
+      </c>
+      <c r="K570" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L570" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M570" t="str">
+        <f t="shared" si="189"/>
+        <v>0.00</v>
+      </c>
+      <c r="N570" t="str">
+        <f t="shared" si="189"/>
+        <v>0.00</v>
+      </c>
+      <c r="O570" t="str">
+        <f>"000034"</f>
+        <v>000034</v>
+      </c>
+      <c r="P570" t="str">
+        <f t="shared" si="193"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="571" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A571" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B571" t="str">
+        <f>"我武生物"</f>
+        <v>我武生物</v>
+      </c>
+      <c r="C571" t="str">
+        <f t="shared" si="192"/>
+        <v>20191204</v>
+      </c>
+      <c r="D571" t="str">
+        <f>"45.400"</f>
+        <v>45.400</v>
+      </c>
+      <c r="E571" t="str">
+        <f>"-500.00"</f>
+        <v>-500.00</v>
+      </c>
+      <c r="F571" t="str">
+        <f>"22670.49"</f>
+        <v>22670.49</v>
+      </c>
+      <c r="G571" t="str">
+        <f>"63813.70"</f>
+        <v>63813.70</v>
+      </c>
+      <c r="H571" t="str">
+        <f>"1500.00"</f>
+        <v>1500.00</v>
+      </c>
+      <c r="I571" t="str">
+        <f>"35"</f>
+        <v>35</v>
+      </c>
+      <c r="J571" t="str">
+        <f>"证券卖出(我武生物)"</f>
+        <v>证券卖出(我武生物)</v>
+      </c>
+      <c r="K571" t="str">
+        <f>"6.81"</f>
+        <v>6.81</v>
+      </c>
+      <c r="L571" t="str">
+        <f>"22.70"</f>
+        <v>22.70</v>
+      </c>
+      <c r="M571" t="str">
+        <f t="shared" si="189"/>
+        <v>0.00</v>
+      </c>
+      <c r="N571" t="str">
+        <f t="shared" si="189"/>
+        <v>0.00</v>
+      </c>
+      <c r="O571" t="str">
+        <f>"300357"</f>
+        <v>300357</v>
+      </c>
+      <c r="P571" t="str">
+        <f t="shared" si="193"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="572" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A572" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B572" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C572" t="str">
+        <f t="shared" si="192"/>
+        <v>20191204</v>
+      </c>
+      <c r="D572" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="E572" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="F572" t="str">
+        <f>"20000.00"</f>
+        <v>20000.00</v>
+      </c>
+      <c r="G572" t="str">
+        <f>"41143.21"</f>
+        <v>41143.21</v>
+      </c>
+      <c r="H572" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="I572" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="J572" t="str">
+        <f>"银行转存"</f>
+        <v>银行转存</v>
+      </c>
+      <c r="K572" t="str">
+        <f t="shared" ref="K572:P572" si="194">"---"</f>
+        <v>---</v>
+      </c>
+      <c r="L572" t="str">
+        <f t="shared" si="194"/>
+        <v>---</v>
+      </c>
+      <c r="M572" t="str">
+        <f t="shared" si="194"/>
+        <v>---</v>
+      </c>
+      <c r="N572" t="str">
+        <f t="shared" si="194"/>
+        <v>---</v>
+      </c>
+      <c r="O572" t="str">
+        <f t="shared" si="194"/>
+        <v>---</v>
+      </c>
+      <c r="P572" t="str">
+        <f t="shared" si="194"/>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="573" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A573" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B573" t="str">
+        <f>"天迈科技"</f>
+        <v>天迈科技</v>
+      </c>
+      <c r="C573" t="str">
+        <f t="shared" ref="C573:C579" si="195">"20191205"</f>
+        <v>20191205</v>
+      </c>
+      <c r="D573" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E573" t="str">
+        <f>"29.00"</f>
+        <v>29.00</v>
+      </c>
+      <c r="F573" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G573" t="str">
+        <f>"98100.68"</f>
+        <v>98100.68</v>
+      </c>
+      <c r="H573" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I573" t="str">
+        <f>"51"</f>
+        <v>51</v>
+      </c>
+      <c r="J573" t="str">
+        <f>"申购配号(天迈科技)"</f>
+        <v>申购配号(天迈科技)</v>
+      </c>
+      <c r="K573" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L573" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M573" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N573" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O573" t="str">
+        <f>"300807"</f>
+        <v>300807</v>
+      </c>
+      <c r="P573" t="str">
+        <f t="shared" ref="P573:P586" si="196">"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="574" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A574" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B574" t="str">
+        <f>"四方精创"</f>
+        <v>四方精创</v>
+      </c>
+      <c r="C574" t="str">
+        <f t="shared" si="195"/>
+        <v>20191205</v>
+      </c>
+      <c r="D574" t="str">
+        <f>"31.250"</f>
+        <v>31.250</v>
+      </c>
+      <c r="E574" t="str">
+        <f>"-1000.00"</f>
+        <v>-1000.00</v>
+      </c>
+      <c r="F574" t="str">
+        <f>"31209.36"</f>
+        <v>31209.36</v>
+      </c>
+      <c r="G574" t="str">
+        <f>"98100.68"</f>
+        <v>98100.68</v>
+      </c>
+      <c r="H574" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I574" t="str">
+        <f>"72"</f>
+        <v>72</v>
+      </c>
+      <c r="J574" t="str">
+        <f>"证券卖出(四方精创)"</f>
+        <v>证券卖出(四方精创)</v>
+      </c>
+      <c r="K574" t="str">
+        <f>"9.38"</f>
+        <v>9.38</v>
+      </c>
+      <c r="L574" t="str">
+        <f>"31.26"</f>
+        <v>31.26</v>
+      </c>
+      <c r="M574" t="str">
+        <f t="shared" ref="M574:N586" si="197">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N574" t="str">
+        <f t="shared" si="197"/>
+        <v>0.00</v>
+      </c>
+      <c r="O574" t="str">
+        <f>"300468"</f>
+        <v>300468</v>
+      </c>
+      <c r="P574" t="str">
+        <f t="shared" si="196"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="575" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A575" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B575" t="str">
+        <f>"科瑞技术"</f>
+        <v>科瑞技术</v>
+      </c>
+      <c r="C575" t="str">
+        <f t="shared" si="195"/>
+        <v>20191205</v>
+      </c>
+      <c r="D575" t="str">
+        <f>"32.080"</f>
+        <v>32.080</v>
+      </c>
+      <c r="E575" t="str">
+        <f>"600.00"</f>
+        <v>600.00</v>
+      </c>
+      <c r="F575" t="str">
+        <f>"-19253.78"</f>
+        <v>-19253.78</v>
+      </c>
+      <c r="G575" t="str">
+        <f>"66891.32"</f>
+        <v>66891.32</v>
+      </c>
+      <c r="H575" t="str">
+        <f>"1200.00"</f>
+        <v>1200.00</v>
+      </c>
+      <c r="I575" t="str">
+        <f>"75"</f>
+        <v>75</v>
+      </c>
+      <c r="J575" t="str">
+        <f>"证券买入(科瑞技术)"</f>
+        <v>证券买入(科瑞技术)</v>
+      </c>
+      <c r="K575" t="str">
+        <f>"5.78"</f>
+        <v>5.78</v>
+      </c>
+      <c r="L575" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M575" t="str">
+        <f t="shared" si="197"/>
+        <v>0.00</v>
+      </c>
+      <c r="N575" t="str">
+        <f t="shared" si="197"/>
+        <v>0.00</v>
+      </c>
+      <c r="O575" t="str">
+        <f>"002957"</f>
+        <v>002957</v>
+      </c>
+      <c r="P575" t="str">
+        <f t="shared" si="196"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="576" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A576" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B576" t="str">
+        <f>"科瑞技术"</f>
+        <v>科瑞技术</v>
+      </c>
+      <c r="C576" t="str">
+        <f t="shared" si="195"/>
+        <v>20191205</v>
+      </c>
+      <c r="D576" t="str">
+        <f>"31.990"</f>
+        <v>31.990</v>
+      </c>
+      <c r="E576" t="str">
+        <f>"600.00"</f>
+        <v>600.00</v>
+      </c>
+      <c r="F576" t="str">
+        <f>"-19199.76"</f>
+        <v>-19199.76</v>
+      </c>
+      <c r="G576" t="str">
+        <f>"86145.10"</f>
+        <v>86145.10</v>
+      </c>
+      <c r="H576" t="str">
+        <f>"600.00"</f>
+        <v>600.00</v>
+      </c>
+      <c r="I576" t="str">
+        <f>"69"</f>
+        <v>69</v>
+      </c>
+      <c r="J576" t="str">
+        <f>"证券买入(科瑞技术)"</f>
+        <v>证券买入(科瑞技术)</v>
+      </c>
+      <c r="K576" t="str">
+        <f>"5.76"</f>
+        <v>5.76</v>
+      </c>
+      <c r="L576" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M576" t="str">
+        <f t="shared" si="197"/>
+        <v>0.00</v>
+      </c>
+      <c r="N576" t="str">
+        <f t="shared" si="197"/>
+        <v>0.00</v>
+      </c>
+      <c r="O576" t="str">
+        <f>"002957"</f>
+        <v>002957</v>
+      </c>
+      <c r="P576" t="str">
+        <f t="shared" si="196"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="577" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A577" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B577" t="str">
+        <f>"光弘科技"</f>
+        <v>光弘科技</v>
+      </c>
+      <c r="C577" t="str">
+        <f t="shared" si="195"/>
+        <v>20191205</v>
+      </c>
+      <c r="D577" t="str">
+        <f>"27.840"</f>
+        <v>27.840</v>
+      </c>
+      <c r="E577" t="str">
+        <f>"-1000.00"</f>
+        <v>-1000.00</v>
+      </c>
+      <c r="F577" t="str">
+        <f>"27803.81"</f>
+        <v>27803.81</v>
+      </c>
+      <c r="G577" t="str">
+        <f>"105344.86"</f>
+        <v>105344.86</v>
+      </c>
+      <c r="H577" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I577" t="str">
+        <f>"56"</f>
+        <v>56</v>
+      </c>
+      <c r="J577" t="str">
+        <f>"证券卖出(光弘科技)"</f>
+        <v>证券卖出(光弘科技)</v>
+      </c>
+      <c r="K577" t="str">
+        <f>"8.35"</f>
+        <v>8.35</v>
+      </c>
+      <c r="L577" t="str">
+        <f>"27.84"</f>
+        <v>27.84</v>
+      </c>
+      <c r="M577" t="str">
+        <f t="shared" si="197"/>
+        <v>0.00</v>
+      </c>
+      <c r="N577" t="str">
+        <f t="shared" si="197"/>
+        <v>0.00</v>
+      </c>
+      <c r="O577" t="str">
+        <f>"300735"</f>
+        <v>300735</v>
+      </c>
+      <c r="P577" t="str">
+        <f t="shared" si="196"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="578" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A578" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B578" t="str">
+        <f>"我武生物"</f>
+        <v>我武生物</v>
+      </c>
+      <c r="C578" t="str">
+        <f t="shared" si="195"/>
+        <v>20191205</v>
+      </c>
+      <c r="D578" t="str">
+        <f>"46.410"</f>
+        <v>46.410</v>
+      </c>
+      <c r="E578" t="str">
+        <f>"-500.00"</f>
+        <v>-500.00</v>
+      </c>
+      <c r="F578" t="str">
+        <f>"23174.83"</f>
+        <v>23174.83</v>
+      </c>
+      <c r="G578" t="str">
+        <f>"77541.05"</f>
+        <v>77541.05</v>
+      </c>
+      <c r="H578" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="I578" t="str">
+        <f>"53"</f>
+        <v>53</v>
+      </c>
+      <c r="J578" t="str">
+        <f>"证券卖出(我武生物)"</f>
+        <v>证券卖出(我武生物)</v>
+      </c>
+      <c r="K578" t="str">
+        <f>"6.96"</f>
+        <v>6.96</v>
+      </c>
+      <c r="L578" t="str">
+        <f>"23.21"</f>
+        <v>23.21</v>
+      </c>
+      <c r="M578" t="str">
+        <f t="shared" si="197"/>
+        <v>0.00</v>
+      </c>
+      <c r="N578" t="str">
+        <f t="shared" si="197"/>
+        <v>0.00</v>
+      </c>
+      <c r="O578" t="str">
+        <f>"300357"</f>
+        <v>300357</v>
+      </c>
+      <c r="P578" t="str">
+        <f t="shared" si="196"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="579" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A579" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B579" t="str">
+        <f>"神州数码"</f>
+        <v>神州数码</v>
+      </c>
+      <c r="C579" t="str">
+        <f t="shared" si="195"/>
+        <v>20191205</v>
+      </c>
+      <c r="D579" t="str">
+        <f>"19.120"</f>
+        <v>19.120</v>
+      </c>
+      <c r="E579" t="str">
+        <f>"-500.00"</f>
+        <v>-500.00</v>
+      </c>
+      <c r="F579" t="str">
+        <f>"9545.44"</f>
+        <v>9545.44</v>
+      </c>
+      <c r="G579" t="str">
+        <f>"54366.22"</f>
+        <v>54366.22</v>
+      </c>
+      <c r="H579" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I579" t="str">
+        <f>"62"</f>
+        <v>62</v>
+      </c>
+      <c r="J579" t="str">
+        <f>"证券卖出(神州数码)"</f>
+        <v>证券卖出(神州数码)</v>
+      </c>
+      <c r="K579" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L579" t="str">
+        <f>"9.56"</f>
+        <v>9.56</v>
+      </c>
+      <c r="M579" t="str">
+        <f t="shared" si="197"/>
+        <v>0.00</v>
+      </c>
+      <c r="N579" t="str">
+        <f t="shared" si="197"/>
+        <v>0.00</v>
+      </c>
+      <c r="O579" t="str">
+        <f>"000034"</f>
+        <v>000034</v>
+      </c>
+      <c r="P579" t="str">
+        <f t="shared" si="196"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="580" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A580" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B580" t="str">
+        <f>"我武生物"</f>
+        <v>我武生物</v>
+      </c>
+      <c r="C580" t="str">
+        <f t="shared" ref="C580:C587" si="198">"20191206"</f>
+        <v>20191206</v>
+      </c>
+      <c r="D580" t="str">
+        <f>"47.048"</f>
+        <v>47.048</v>
+      </c>
+      <c r="E580" t="str">
+        <f>"600.00"</f>
+        <v>600.00</v>
+      </c>
+      <c r="F580" t="str">
+        <f>"-28237.47"</f>
+        <v>-28237.47</v>
+      </c>
+      <c r="G580" t="str">
+        <f>"54018.69"</f>
+        <v>54018.69</v>
+      </c>
+      <c r="H580" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="I580" t="str">
+        <f>"106"</f>
+        <v>106</v>
+      </c>
+      <c r="J580" t="str">
+        <f>"证券买入(我武生物)"</f>
+        <v>证券买入(我武生物)</v>
+      </c>
+      <c r="K580" t="str">
+        <f>"8.47"</f>
+        <v>8.47</v>
+      </c>
+      <c r="L580" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M580" t="str">
+        <f t="shared" si="197"/>
+        <v>0.00</v>
+      </c>
+      <c r="N580" t="str">
+        <f t="shared" si="197"/>
+        <v>0.00</v>
+      </c>
+      <c r="O580" t="str">
+        <f>"300357"</f>
+        <v>300357</v>
+      </c>
+      <c r="P580" t="str">
+        <f t="shared" si="196"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="581" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A581" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B581" t="str">
+        <f>"我武生物"</f>
+        <v>我武生物</v>
+      </c>
+      <c r="C581" t="str">
+        <f t="shared" si="198"/>
+        <v>20191206</v>
+      </c>
+      <c r="D581" t="str">
+        <f>"48.080"</f>
+        <v>48.080</v>
+      </c>
+      <c r="E581" t="str">
+        <f>"-600.00"</f>
+        <v>-600.00</v>
+      </c>
+      <c r="F581" t="str">
+        <f>"28810.49"</f>
+        <v>28810.49</v>
+      </c>
+      <c r="G581" t="str">
+        <f>"82256.16"</f>
+        <v>82256.16</v>
+      </c>
+      <c r="H581" t="str">
+        <f>"400.00"</f>
+        <v>400.00</v>
+      </c>
+      <c r="I581" t="str">
+        <f>"85"</f>
+        <v>85</v>
+      </c>
+      <c r="J581" t="str">
+        <f>"证券卖出(我武生物)"</f>
+        <v>证券卖出(我武生物)</v>
+      </c>
+      <c r="K581" t="str">
+        <f>"8.66"</f>
+        <v>8.66</v>
+      </c>
+      <c r="L581" t="str">
+        <f>"28.85"</f>
+        <v>28.85</v>
+      </c>
+      <c r="M581" t="str">
+        <f t="shared" si="197"/>
+        <v>0.00</v>
+      </c>
+      <c r="N581" t="str">
+        <f t="shared" si="197"/>
+        <v>0.00</v>
+      </c>
+      <c r="O581" t="str">
+        <f>"300357"</f>
+        <v>300357</v>
+      </c>
+      <c r="P581" t="str">
+        <f t="shared" si="196"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="582" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A582" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B582" t="str">
+        <f>"恒铭达"</f>
+        <v>恒铭达</v>
+      </c>
+      <c r="C582" t="str">
+        <f t="shared" si="198"/>
+        <v>20191206</v>
+      </c>
+      <c r="D582" t="str">
+        <f>"55.230"</f>
+        <v>55.230</v>
+      </c>
+      <c r="E582" t="str">
+        <f>"-1000.00"</f>
+        <v>-1000.00</v>
+      </c>
+      <c r="F582" t="str">
+        <f>"55158.20"</f>
+        <v>55158.20</v>
+      </c>
+      <c r="G582" t="str">
+        <f>"53445.67"</f>
+        <v>53445.67</v>
+      </c>
+      <c r="H582" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I582" t="str">
+        <f>"110"</f>
+        <v>110</v>
+      </c>
+      <c r="J582" t="str">
+        <f>"证券卖出(恒铭达)"</f>
+        <v>证券卖出(恒铭达)</v>
+      </c>
+      <c r="K582" t="str">
+        <f>"16.57"</f>
+        <v>16.57</v>
+      </c>
+      <c r="L582" t="str">
+        <f>"55.23"</f>
+        <v>55.23</v>
+      </c>
+      <c r="M582" t="str">
+        <f t="shared" si="197"/>
+        <v>0.00</v>
+      </c>
+      <c r="N582" t="str">
+        <f t="shared" si="197"/>
+        <v>0.00</v>
+      </c>
+      <c r="O582" t="str">
+        <f>"002947"</f>
+        <v>002947</v>
+      </c>
+      <c r="P582" t="str">
+        <f t="shared" si="196"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="583" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A583" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B583" t="str">
+        <f>"香山股份"</f>
+        <v>香山股份</v>
+      </c>
+      <c r="C583" t="str">
+        <f t="shared" si="198"/>
+        <v>20191206</v>
+      </c>
+      <c r="D583" t="str">
+        <f>"23.650"</f>
+        <v>23.650</v>
+      </c>
+      <c r="E583" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F583" t="str">
+        <f>"-11830.00"</f>
+        <v>-11830.00</v>
+      </c>
+      <c r="G583" t="str">
+        <f>"-1712.53"</f>
+        <v>-1712.53</v>
+      </c>
+      <c r="H583" t="str">
+        <f>"2500.00"</f>
+        <v>2500.00</v>
+      </c>
+      <c r="I583" t="str">
+        <f>"99"</f>
+        <v>99</v>
+      </c>
+      <c r="J583" t="str">
+        <f>"证券买入(香山股份)"</f>
+        <v>证券买入(香山股份)</v>
+      </c>
+      <c r="K583" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L583" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M583" t="str">
+        <f t="shared" si="197"/>
+        <v>0.00</v>
+      </c>
+      <c r="N583" t="str">
+        <f t="shared" si="197"/>
+        <v>0.00</v>
+      </c>
+      <c r="O583" t="str">
+        <f>"002870"</f>
+        <v>002870</v>
+      </c>
+      <c r="P583" t="str">
+        <f t="shared" si="196"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="584" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A584" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B584" t="str">
+        <f>"香山股份"</f>
+        <v>香山股份</v>
+      </c>
+      <c r="C584" t="str">
+        <f t="shared" si="198"/>
+        <v>20191206</v>
+      </c>
+      <c r="D584" t="str">
+        <f>"23.900"</f>
+        <v>23.900</v>
+      </c>
+      <c r="E584" t="str">
+        <f>"400.00"</f>
+        <v>400.00</v>
+      </c>
+      <c r="F584" t="str">
+        <f>"-9565.00"</f>
+        <v>-9565.00</v>
+      </c>
+      <c r="G584" t="str">
+        <f>"10117.47"</f>
+        <v>10117.47</v>
+      </c>
+      <c r="H584" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="I584" t="str">
+        <f>"96"</f>
+        <v>96</v>
+      </c>
+      <c r="J584" t="str">
+        <f>"证券买入(香山股份)"</f>
+        <v>证券买入(香山股份)</v>
+      </c>
+      <c r="K584" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L584" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M584" t="str">
+        <f t="shared" si="197"/>
+        <v>0.00</v>
+      </c>
+      <c r="N584" t="str">
+        <f t="shared" si="197"/>
+        <v>0.00</v>
+      </c>
+      <c r="O584" t="str">
+        <f>"002870"</f>
+        <v>002870</v>
+      </c>
+      <c r="P584" t="str">
+        <f t="shared" si="196"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="585" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A585" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B585" t="str">
+        <f>"香山股份"</f>
+        <v>香山股份</v>
+      </c>
+      <c r="C585" t="str">
+        <f t="shared" si="198"/>
+        <v>20191206</v>
+      </c>
+      <c r="D585" t="str">
+        <f>"23.960"</f>
+        <v>23.960</v>
+      </c>
+      <c r="E585" t="str">
+        <f>"600.00"</f>
+        <v>600.00</v>
+      </c>
+      <c r="F585" t="str">
+        <f>"-14381.00"</f>
+        <v>-14381.00</v>
+      </c>
+      <c r="G585" t="str">
+        <f>"19682.47"</f>
+        <v>19682.47</v>
+      </c>
+      <c r="H585" t="str">
+        <f>"1600.00"</f>
+        <v>1600.00</v>
+      </c>
+      <c r="I585" t="str">
+        <f>"92"</f>
+        <v>92</v>
+      </c>
+      <c r="J585" t="str">
+        <f>"证券买入(香山股份)"</f>
+        <v>证券买入(香山股份)</v>
+      </c>
+      <c r="K585" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L585" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M585" t="str">
+        <f t="shared" si="197"/>
+        <v>0.00</v>
+      </c>
+      <c r="N585" t="str">
+        <f t="shared" si="197"/>
+        <v>0.00</v>
+      </c>
+      <c r="O585" t="str">
+        <f>"002870"</f>
+        <v>002870</v>
+      </c>
+      <c r="P585" t="str">
+        <f t="shared" si="196"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="586" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A586" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B586" t="str">
+        <f>"香山股份"</f>
+        <v>香山股份</v>
+      </c>
+      <c r="C586" t="str">
+        <f t="shared" si="198"/>
+        <v>20191206</v>
+      </c>
+      <c r="D586" t="str">
+        <f>"24.030"</f>
+        <v>24.030</v>
+      </c>
+      <c r="E586" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="F586" t="str">
+        <f>"-24037.21"</f>
+        <v>-24037.21</v>
+      </c>
+      <c r="G586" t="str">
+        <f>"34063.47"</f>
+        <v>34063.47</v>
+      </c>
+      <c r="H586" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="I586" t="str">
+        <f>"89"</f>
+        <v>89</v>
+      </c>
+      <c r="J586" t="str">
+        <f>"证券买入(香山股份)"</f>
+        <v>证券买入(香山股份)</v>
+      </c>
+      <c r="K586" t="str">
+        <f>"7.21"</f>
+        <v>7.21</v>
+      </c>
+      <c r="L586" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M586" t="str">
+        <f t="shared" si="197"/>
+        <v>0.00</v>
+      </c>
+      <c r="N586" t="str">
+        <f t="shared" si="197"/>
+        <v>0.00</v>
+      </c>
+      <c r="O586" t="str">
+        <f>"002870"</f>
+        <v>002870</v>
+      </c>
+      <c r="P586" t="str">
+        <f t="shared" si="196"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="587" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A587" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B587" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C587" t="str">
+        <f t="shared" si="198"/>
+        <v>20191206</v>
+      </c>
+      <c r="D587" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="E587" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="F587" t="str">
+        <f>"-40000.00"</f>
+        <v>-40000.00</v>
+      </c>
+      <c r="G587" t="str">
+        <f>"58100.68"</f>
+        <v>58100.68</v>
+      </c>
+      <c r="H587" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="I587" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="J587" t="str">
+        <f>"银行转取"</f>
+        <v>银行转取</v>
+      </c>
+      <c r="K587" t="str">
+        <f t="shared" ref="K587:P587" si="199">"---"</f>
+        <v>---</v>
+      </c>
+      <c r="L587" t="str">
+        <f t="shared" si="199"/>
+        <v>---</v>
+      </c>
+      <c r="M587" t="str">
+        <f t="shared" si="199"/>
+        <v>---</v>
+      </c>
+      <c r="N587" t="str">
+        <f t="shared" si="199"/>
+        <v>---</v>
+      </c>
+      <c r="O587" t="str">
+        <f t="shared" si="199"/>
+        <v>---</v>
+      </c>
+      <c r="P587" t="str">
+        <f t="shared" si="199"/>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="588" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A588" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B588" t="str">
+        <f>"我武生物"</f>
+        <v>我武生物</v>
+      </c>
+      <c r="C588" t="str">
+        <f>"20191209"</f>
+        <v>20191209</v>
+      </c>
+      <c r="D588" t="str">
+        <f>"45.690"</f>
+        <v>45.690</v>
+      </c>
+      <c r="E588" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F588" t="str">
+        <f>"-22851.86"</f>
+        <v>-22851.86</v>
+      </c>
+      <c r="G588" t="str">
+        <f>"42351.39"</f>
+        <v>42351.39</v>
+      </c>
+      <c r="H588" t="str">
+        <f>"2100.00"</f>
+        <v>2100.00</v>
+      </c>
+      <c r="I588" t="str">
+        <f>"127"</f>
+        <v>127</v>
+      </c>
+      <c r="J588" t="str">
+        <f>"证券买入(我武生物)"</f>
+        <v>证券买入(我武生物)</v>
+      </c>
+      <c r="K588" t="str">
+        <f>"6.86"</f>
+        <v>6.86</v>
+      </c>
+      <c r="L588" t="str">
+        <f t="shared" ref="L588:N595" si="200">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M588" t="str">
+        <f t="shared" si="200"/>
+        <v>0.00</v>
+      </c>
+      <c r="N588" t="str">
+        <f t="shared" si="200"/>
+        <v>0.00</v>
+      </c>
+      <c r="O588" t="str">
+        <f>"300357"</f>
+        <v>300357</v>
+      </c>
+      <c r="P588" t="str">
+        <f t="shared" ref="P588:P593" si="201">"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="589" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A589" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B589" t="str">
+        <f>"我武生物"</f>
+        <v>我武生物</v>
+      </c>
+      <c r="C589" t="str">
+        <f>"20191209"</f>
+        <v>20191209</v>
+      </c>
+      <c r="D589" t="str">
+        <f>"46.680"</f>
+        <v>46.680</v>
+      </c>
+      <c r="E589" t="str">
+        <f>"600.00"</f>
+        <v>600.00</v>
+      </c>
+      <c r="F589" t="str">
+        <f>"-28016.41"</f>
+        <v>-28016.41</v>
+      </c>
+      <c r="G589" t="str">
+        <f>"65203.25"</f>
+        <v>65203.25</v>
+      </c>
+      <c r="H589" t="str">
+        <f>"1600.00"</f>
+        <v>1600.00</v>
+      </c>
+      <c r="I589" t="str">
+        <f>"122"</f>
+        <v>122</v>
+      </c>
+      <c r="J589" t="str">
+        <f>"证券买入(我武生物)"</f>
+        <v>证券买入(我武生物)</v>
+      </c>
+      <c r="K589" t="str">
+        <f>"8.41"</f>
+        <v>8.41</v>
+      </c>
+      <c r="L589" t="str">
+        <f t="shared" si="200"/>
+        <v>0.00</v>
+      </c>
+      <c r="M589" t="str">
+        <f t="shared" si="200"/>
+        <v>0.00</v>
+      </c>
+      <c r="N589" t="str">
+        <f t="shared" si="200"/>
+        <v>0.00</v>
+      </c>
+      <c r="O589" t="str">
+        <f>"300357"</f>
+        <v>300357</v>
+      </c>
+      <c r="P589" t="str">
+        <f t="shared" si="201"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="590" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A590" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B590" t="str">
+        <f>"科瑞技术"</f>
+        <v>科瑞技术</v>
+      </c>
+      <c r="C590" t="str">
+        <f>"20191209"</f>
+        <v>20191209</v>
+      </c>
+      <c r="D590" t="str">
+        <f>"32.710"</f>
+        <v>32.710</v>
+      </c>
+      <c r="E590" t="str">
+        <f>"-1200.00"</f>
+        <v>-1200.00</v>
+      </c>
+      <c r="F590" t="str">
+        <f>"39200.97"</f>
+        <v>39200.97</v>
+      </c>
+      <c r="G590" t="str">
+        <f>"93219.66"</f>
+        <v>93219.66</v>
+      </c>
+      <c r="H590" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I590" t="str">
+        <f>"133"</f>
+        <v>133</v>
+      </c>
+      <c r="J590" t="str">
+        <f>"证券卖出(科瑞技术)"</f>
+        <v>证券卖出(科瑞技术)</v>
+      </c>
+      <c r="K590" t="str">
+        <f>"11.78"</f>
+        <v>11.78</v>
+      </c>
+      <c r="L590" t="str">
+        <f>"39.25"</f>
+        <v>39.25</v>
+      </c>
+      <c r="M590" t="str">
+        <f t="shared" si="200"/>
+        <v>0.00</v>
+      </c>
+      <c r="N590" t="str">
+        <f t="shared" si="200"/>
+        <v>0.00</v>
+      </c>
+      <c r="O590" t="str">
+        <f>"002957"</f>
+        <v>002957</v>
+      </c>
+      <c r="P590" t="str">
+        <f t="shared" si="201"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="591" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A591" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B591" t="str">
+        <f>"麦克奥迪"</f>
+        <v>麦克奥迪</v>
+      </c>
+      <c r="C591" t="str">
+        <f>"20191210"</f>
+        <v>20191210</v>
+      </c>
+      <c r="D591" t="str">
+        <f>"18.250"</f>
+        <v>18.250</v>
+      </c>
+      <c r="E591" t="str">
+        <f>"800.00"</f>
+        <v>800.00</v>
+      </c>
+      <c r="F591" t="str">
+        <f>"-14605.00"</f>
+        <v>-14605.00</v>
+      </c>
+      <c r="G591" t="str">
+        <f>"18616.39"</f>
+        <v>18616.39</v>
+      </c>
+      <c r="H591" t="str">
+        <f>"1300.00"</f>
+        <v>1300.00</v>
+      </c>
+      <c r="I591" t="str">
+        <f>"143"</f>
+        <v>143</v>
+      </c>
+      <c r="J591" t="str">
+        <f>"证券买入(麦克奥迪)"</f>
+        <v>证券买入(麦克奥迪)</v>
+      </c>
+      <c r="K591" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L591" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M591" t="str">
+        <f t="shared" si="200"/>
+        <v>0.00</v>
+      </c>
+      <c r="N591" t="str">
+        <f t="shared" si="200"/>
+        <v>0.00</v>
+      </c>
+      <c r="O591" t="str">
+        <f>"300341"</f>
+        <v>300341</v>
+      </c>
+      <c r="P591" t="str">
+        <f t="shared" si="201"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="592" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A592" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B592" t="str">
+        <f>"麦克奥迪"</f>
+        <v>麦克奥迪</v>
+      </c>
+      <c r="C592" t="str">
+        <f>"20191210"</f>
+        <v>20191210</v>
+      </c>
+      <c r="D592" t="str">
+        <f>"18.250"</f>
+        <v>18.250</v>
+      </c>
+      <c r="E592" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F592" t="str">
+        <f>"-9130.00"</f>
+        <v>-9130.00</v>
+      </c>
+      <c r="G592" t="str">
+        <f>"33221.39"</f>
+        <v>33221.39</v>
+      </c>
+      <c r="H592" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="I592" t="str">
+        <f>"139"</f>
+        <v>139</v>
+      </c>
+      <c r="J592" t="str">
+        <f>"证券买入(麦克奥迪)"</f>
+        <v>证券买入(麦克奥迪)</v>
+      </c>
+      <c r="K592" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L592" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M592" t="str">
+        <f t="shared" si="200"/>
+        <v>0.00</v>
+      </c>
+      <c r="N592" t="str">
+        <f t="shared" si="200"/>
+        <v>0.00</v>
+      </c>
+      <c r="O592" t="str">
+        <f>"300341"</f>
+        <v>300341</v>
+      </c>
+      <c r="P592" t="str">
+        <f t="shared" si="201"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="593" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A593" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B593" t="str">
+        <f>"麦克奥迪"</f>
+        <v>麦克奥迪</v>
+      </c>
+      <c r="C593" t="str">
+        <f>"20191211"</f>
+        <v>20191211</v>
+      </c>
+      <c r="D593" t="str">
+        <f>"19.055"</f>
+        <v>19.055</v>
+      </c>
+      <c r="E593" t="str">
+        <f>"800.00"</f>
+        <v>800.00</v>
+      </c>
+      <c r="F593" t="str">
+        <f>"-15249.00"</f>
+        <v>-15249.00</v>
+      </c>
+      <c r="G593" t="str">
+        <f>"23367.39"</f>
+        <v>23367.39</v>
+      </c>
+      <c r="H593" t="str">
+        <f>"2100.00"</f>
+        <v>2100.00</v>
+      </c>
+      <c r="I593" t="str">
+        <f>"156"</f>
+        <v>156</v>
+      </c>
+      <c r="J593" t="str">
+        <f>"证券买入(麦克奥迪)"</f>
+        <v>证券买入(麦克奥迪)</v>
+      </c>
+      <c r="K593" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L593" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M593" t="str">
+        <f t="shared" si="200"/>
+        <v>0.00</v>
+      </c>
+      <c r="N593" t="str">
+        <f t="shared" si="200"/>
+        <v>0.00</v>
+      </c>
+      <c r="O593" t="str">
+        <f>"300341"</f>
+        <v>300341</v>
+      </c>
+      <c r="P593" t="str">
+        <f t="shared" si="201"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="594" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A594" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B594" t="str">
+        <f>"中新配号"</f>
+        <v>中新配号</v>
+      </c>
+      <c r="C594" t="str">
+        <f>"20191211"</f>
+        <v>20191211</v>
+      </c>
+      <c r="D594" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E594" t="str">
+        <f>"3.00"</f>
+        <v>3.00</v>
+      </c>
+      <c r="F594" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G594" t="str">
+        <f>"38616.39"</f>
+        <v>38616.39</v>
+      </c>
+      <c r="H594" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I594" t="str">
+        <f>"152"</f>
+        <v>152</v>
+      </c>
+      <c r="J594" t="str">
+        <f>"申购配号(中新配号)"</f>
+        <v>申购配号(中新配号)</v>
+      </c>
+      <c r="K594" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L594" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M594" t="str">
+        <f t="shared" si="200"/>
+        <v>0.00</v>
+      </c>
+      <c r="N594" t="str">
+        <f t="shared" si="200"/>
+        <v>0.00</v>
+      </c>
+      <c r="O594" t="str">
+        <f>"791512"</f>
+        <v>791512</v>
+      </c>
+      <c r="P594" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="595" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A595" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B595" t="str">
+        <f>"甬金配号"</f>
+        <v>甬金配号</v>
+      </c>
+      <c r="C595" t="str">
+        <f>"20191211"</f>
+        <v>20191211</v>
+      </c>
+      <c r="D595" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E595" t="str">
+        <f>"3.00"</f>
+        <v>3.00</v>
+      </c>
+      <c r="F595" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G595" t="str">
+        <f>"38616.39"</f>
+        <v>38616.39</v>
+      </c>
+      <c r="H595" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I595" t="str">
+        <f>"154"</f>
+        <v>154</v>
+      </c>
+      <c r="J595" t="str">
+        <f>"申购配号(甬金配号)"</f>
+        <v>申购配号(甬金配号)</v>
+      </c>
+      <c r="K595" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L595" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M595" t="str">
+        <f t="shared" si="200"/>
+        <v>0.00</v>
+      </c>
+      <c r="N595" t="str">
+        <f t="shared" si="200"/>
+        <v>0.00</v>
+      </c>
+      <c r="O595" t="str">
+        <f>"736995"</f>
+        <v>736995</v>
+      </c>
+      <c r="P595" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="596" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A596" t="str">
+        <f t="shared" si="191"/>
+        <v>人民币</v>
+      </c>
+      <c r="B596" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C596" t="str">
+        <f>"20191211"</f>
+        <v>20191211</v>
+      </c>
+      <c r="D596" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="E596" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="F596" t="str">
+        <f>"20000.00"</f>
+        <v>20000.00</v>
+      </c>
+      <c r="G596" t="str">
+        <f>"38616.39"</f>
+        <v>38616.39</v>
+      </c>
+      <c r="H596" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="I596" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="J596" t="str">
+        <f>"银行转存"</f>
+        <v>银行转存</v>
+      </c>
+      <c r="K596" t="str">
+        <f t="shared" ref="K596:P596" si="202">"---"</f>
+        <v>---</v>
+      </c>
+      <c r="L596" t="str">
+        <f t="shared" si="202"/>
+        <v>---</v>
+      </c>
+      <c r="M596" t="str">
+        <f t="shared" si="202"/>
+        <v>---</v>
+      </c>
+      <c r="N596" t="str">
+        <f t="shared" si="202"/>
+        <v>---</v>
+      </c>
+      <c r="O596" t="str">
+        <f t="shared" si="202"/>
+        <v>---</v>
+      </c>
+      <c r="P596" t="str">
+        <f t="shared" si="202"/>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="597" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>0</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1</v>
+      </c>
+      <c r="C597">
+        <v>20191212</v>
+      </c>
+      <c r="D597">
+        <v>46.48</v>
+      </c>
+      <c r="E597">
+        <v>-500</v>
+      </c>
+      <c r="F597">
+        <v>23209.79</v>
+      </c>
+      <c r="G597">
+        <v>77202.899999999994</v>
+      </c>
+      <c r="H597">
+        <v>1600</v>
+      </c>
+      <c r="I597">
+        <v>194</v>
+      </c>
+      <c r="J597" t="s">
+        <v>2</v>
+      </c>
+      <c r="K597">
+        <v>6.97</v>
+      </c>
+      <c r="L597">
+        <v>23.24</v>
+      </c>
+      <c r="M597">
+        <v>0</v>
+      </c>
+      <c r="N597">
+        <v>0</v>
+      </c>
+      <c r="O597">
+        <v>300357</v>
+      </c>
+      <c r="P597">
+        <v>153613480</v>
+      </c>
+    </row>
+    <row r="598" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>0</v>
+      </c>
+      <c r="B598" t="s">
+        <v>3</v>
+      </c>
+      <c r="C598">
+        <v>20191212</v>
+      </c>
+      <c r="D598">
+        <v>19.54</v>
+      </c>
+      <c r="E598">
+        <v>-1300</v>
+      </c>
+      <c r="F598">
+        <v>25368.98</v>
+      </c>
+      <c r="G598">
+        <v>53993.11</v>
+      </c>
+      <c r="H598">
+        <v>800</v>
+      </c>
+      <c r="I598">
+        <v>180</v>
+      </c>
+      <c r="J598" t="s">
+        <v>4</v>
+      </c>
+      <c r="K598">
+        <v>7.62</v>
+      </c>
+      <c r="L598">
+        <v>25.4</v>
+      </c>
+      <c r="M598">
+        <v>0</v>
+      </c>
+      <c r="N598">
+        <v>0</v>
+      </c>
+      <c r="O598">
+        <v>300341</v>
+      </c>
+      <c r="P598">
+        <v>153613480</v>
+      </c>
+    </row>
+    <row r="599" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>0</v>
+      </c>
+      <c r="B599" t="s">
+        <v>5</v>
+      </c>
+      <c r="C599">
+        <v>20191212</v>
+      </c>
+      <c r="D599">
+        <v>25.81</v>
+      </c>
+      <c r="E599">
+        <v>-1000</v>
+      </c>
+      <c r="F599">
+        <v>25776.44</v>
+      </c>
+      <c r="G599">
+        <v>28624.13</v>
+      </c>
+      <c r="H599">
+        <v>0</v>
+      </c>
+      <c r="I599">
+        <v>176</v>
+      </c>
+      <c r="J599" t="s">
+        <v>6</v>
+      </c>
+      <c r="K599">
+        <v>7.75</v>
+      </c>
+      <c r="L599">
+        <v>25.81</v>
+      </c>
+      <c r="M599">
+        <v>0</v>
+      </c>
+      <c r="N599">
+        <v>0</v>
+      </c>
+      <c r="O599">
+        <v>2870</v>
+      </c>
+      <c r="P599">
+        <v>153613480</v>
+      </c>
+    </row>
+    <row r="600" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>0</v>
+      </c>
+      <c r="B600" t="s">
+        <v>7</v>
+      </c>
+      <c r="C600">
+        <v>20191212</v>
+      </c>
+      <c r="D600">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="E600">
+        <v>1000</v>
+      </c>
+      <c r="F600">
+        <v>-19945.98</v>
+      </c>
+      <c r="G600">
+        <v>2847.69</v>
+      </c>
+      <c r="H600">
+        <v>1000</v>
+      </c>
+      <c r="I600">
+        <v>172</v>
+      </c>
+      <c r="J600" t="s">
+        <v>8</v>
+      </c>
+      <c r="K600">
+        <v>5.98</v>
+      </c>
+      <c r="L600">
+        <v>0</v>
+      </c>
+      <c r="M600">
+        <v>0</v>
+      </c>
+      <c r="N600">
+        <v>0</v>
+      </c>
+      <c r="O600">
+        <v>34</v>
+      </c>
+      <c r="P600">
+        <v>153613480</v>
+      </c>
+    </row>
+    <row r="601" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>0</v>
+      </c>
+      <c r="B601" t="s">
+        <v>5</v>
+      </c>
+      <c r="C601">
+        <v>20191212</v>
+      </c>
+      <c r="D601">
+        <v>24.6</v>
+      </c>
+      <c r="E601">
+        <v>-1500</v>
+      </c>
+      <c r="F601">
+        <v>36852.03</v>
+      </c>
+      <c r="G601">
+        <v>22793.67</v>
+      </c>
+      <c r="H601">
+        <v>1000</v>
+      </c>
+      <c r="I601">
+        <v>166</v>
+      </c>
+      <c r="J601" t="s">
+        <v>6</v>
+      </c>
+      <c r="K601">
+        <v>11.07</v>
+      </c>
+      <c r="L601">
+        <v>36.9</v>
+      </c>
+      <c r="M601">
+        <v>0</v>
+      </c>
+      <c r="N601">
+        <v>0</v>
+      </c>
+      <c r="O601">
+        <v>2870</v>
+      </c>
+      <c r="P601">
+        <v>153613480</v>
+      </c>
+    </row>
+    <row r="602" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>0</v>
+      </c>
+      <c r="B602" t="s">
+        <v>9</v>
+      </c>
+      <c r="C602">
+        <v>20191212</v>
+      </c>
+      <c r="D602">
+        <v>26.25</v>
+      </c>
+      <c r="E602">
+        <v>600</v>
+      </c>
+      <c r="F602">
+        <v>-15755.32</v>
+      </c>
+      <c r="G602">
+        <v>-14058.36</v>
+      </c>
+      <c r="H602">
+        <v>600</v>
+      </c>
+      <c r="I602">
+        <v>191</v>
+      </c>
+      <c r="J602" t="s">
+        <v>10</v>
+      </c>
+      <c r="K602">
+        <v>5</v>
+      </c>
+      <c r="L602">
+        <v>0</v>
+      </c>
+      <c r="M602">
+        <v>0.32</v>
+      </c>
+      <c r="N602">
+        <v>0</v>
+      </c>
+      <c r="O602">
+        <v>603121</v>
+      </c>
+      <c r="P602" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="603" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>0</v>
+      </c>
+      <c r="B603" t="s">
+        <v>12</v>
+      </c>
+      <c r="C603">
+        <v>20191212</v>
+      </c>
+      <c r="D603">
+        <v>7.29</v>
+      </c>
+      <c r="E603">
+        <v>1500</v>
+      </c>
+      <c r="F603">
+        <v>-10940.22</v>
+      </c>
+      <c r="G603">
+        <v>1696.96</v>
+      </c>
+      <c r="H603">
+        <v>3000</v>
+      </c>
+      <c r="I603">
+        <v>188</v>
+      </c>
+      <c r="J603" t="s">
+        <v>13</v>
+      </c>
+      <c r="K603">
+        <v>5</v>
+      </c>
+      <c r="L603">
+        <v>0</v>
+      </c>
+      <c r="M603">
+        <v>0.22</v>
+      </c>
+      <c r="N603">
+        <v>0</v>
+      </c>
+      <c r="O603">
+        <v>600678</v>
+      </c>
+      <c r="P603" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="604" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>0</v>
+      </c>
+      <c r="B604" t="s">
+        <v>12</v>
+      </c>
+      <c r="C604">
+        <v>20191212</v>
+      </c>
+      <c r="D604">
+        <v>7.15</v>
+      </c>
+      <c r="E604">
+        <v>1500</v>
+      </c>
+      <c r="F604">
+        <v>-10730.21</v>
+      </c>
+      <c r="G604">
+        <v>12637.18</v>
+      </c>
+      <c r="H604">
+        <v>1500</v>
+      </c>
+      <c r="I604">
+        <v>184</v>
+      </c>
+      <c r="J604" t="s">
+        <v>13</v>
+      </c>
+      <c r="K604">
+        <v>5</v>
+      </c>
+      <c r="L604">
+        <v>0</v>
+      </c>
+      <c r="M604">
+        <v>0.21</v>
+      </c>
+      <c r="N604">
+        <v>0</v>
+      </c>
+      <c r="O604">
+        <v>600678</v>
+      </c>
+      <c r="P604" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/cal_profit/2019.xlsx
+++ b/cal_profit/2019.xlsx
@@ -1012,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P604"/>
+  <dimension ref="A1:P633"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A584" workbookViewId="0">
-      <selection activeCell="A597" sqref="A597:Q604"/>
+    <sheetView tabSelected="1" topLeftCell="A596" workbookViewId="0">
+      <selection activeCell="A605" sqref="A605:XFD633"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -40760,6 +40760,1920 @@
         <v>11</v>
       </c>
     </row>
+    <row r="605" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A605" t="str">
+        <f t="shared" ref="A605:A633" si="203">"人民币"</f>
+        <v>人民币</v>
+      </c>
+      <c r="B605" t="str">
+        <f>"神州数码"</f>
+        <v>神州数码</v>
+      </c>
+      <c r="C605" t="str">
+        <f>"20191213"</f>
+        <v>20191213</v>
+      </c>
+      <c r="D605" t="str">
+        <f>"20.810"</f>
+        <v>20.810</v>
+      </c>
+      <c r="E605" t="str">
+        <f>"-1000.00"</f>
+        <v>-1000.00</v>
+      </c>
+      <c r="F605" t="str">
+        <f>"20782.94"</f>
+        <v>20782.94</v>
+      </c>
+      <c r="G605" t="str">
+        <f>"34683.84"</f>
+        <v>34683.84</v>
+      </c>
+      <c r="H605" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I605" t="str">
+        <f>"214"</f>
+        <v>214</v>
+      </c>
+      <c r="J605" t="str">
+        <f>"证券卖出(神州数码)"</f>
+        <v>证券卖出(神州数码)</v>
+      </c>
+      <c r="K605" t="str">
+        <f>"6.25"</f>
+        <v>6.25</v>
+      </c>
+      <c r="L605" t="str">
+        <f>"20.81"</f>
+        <v>20.81</v>
+      </c>
+      <c r="M605" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N605" t="str">
+        <f t="shared" ref="N605:N611" si="204">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O605" t="str">
+        <f>"000034"</f>
+        <v>000034</v>
+      </c>
+      <c r="P605" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="606" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A606" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B606" t="str">
+        <f>"苏奥传感"</f>
+        <v>苏奥传感</v>
+      </c>
+      <c r="C606" t="str">
+        <f>"20191213"</f>
+        <v>20191213</v>
+      </c>
+      <c r="D606" t="str">
+        <f>"14.680"</f>
+        <v>14.680</v>
+      </c>
+      <c r="E606" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="F606" t="str">
+        <f>"-14685.00"</f>
+        <v>-14685.00</v>
+      </c>
+      <c r="G606" t="str">
+        <f>"13900.90"</f>
+        <v>13900.90</v>
+      </c>
+      <c r="H606" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="I606" t="str">
+        <f>"205"</f>
+        <v>205</v>
+      </c>
+      <c r="J606" t="str">
+        <f>"证券买入(苏奥传感)"</f>
+        <v>证券买入(苏奥传感)</v>
+      </c>
+      <c r="K606" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L606" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M606" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N606" t="str">
+        <f t="shared" si="204"/>
+        <v>0.00</v>
+      </c>
+      <c r="O606" t="str">
+        <f>"300507"</f>
+        <v>300507</v>
+      </c>
+      <c r="P606" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="607" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A607" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B607" t="str">
+        <f>"麦克奥迪"</f>
+        <v>麦克奥迪</v>
+      </c>
+      <c r="C607" t="str">
+        <f>"20191213"</f>
+        <v>20191213</v>
+      </c>
+      <c r="D607" t="str">
+        <f>"17.760"</f>
+        <v>17.760</v>
+      </c>
+      <c r="E607" t="str">
+        <f>"800.00"</f>
+        <v>800.00</v>
+      </c>
+      <c r="F607" t="str">
+        <f>"-14213.00"</f>
+        <v>-14213.00</v>
+      </c>
+      <c r="G607" t="str">
+        <f>"28585.90"</f>
+        <v>28585.90</v>
+      </c>
+      <c r="H607" t="str">
+        <f>"2400.00"</f>
+        <v>2400.00</v>
+      </c>
+      <c r="I607" t="str">
+        <f>"219"</f>
+        <v>219</v>
+      </c>
+      <c r="J607" t="str">
+        <f>"证券买入(麦克奥迪)"</f>
+        <v>证券买入(麦克奥迪)</v>
+      </c>
+      <c r="K607" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L607" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M607" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N607" t="str">
+        <f t="shared" si="204"/>
+        <v>0.00</v>
+      </c>
+      <c r="O607" t="str">
+        <f>"300341"</f>
+        <v>300341</v>
+      </c>
+      <c r="P607" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="608" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A608" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B608" t="str">
+        <f>"麦克奥迪"</f>
+        <v>麦克奥迪</v>
+      </c>
+      <c r="C608" t="str">
+        <f>"20191213"</f>
+        <v>20191213</v>
+      </c>
+      <c r="D608" t="str">
+        <f>"17.999"</f>
+        <v>17.999</v>
+      </c>
+      <c r="E608" t="str">
+        <f>"800.00"</f>
+        <v>800.00</v>
+      </c>
+      <c r="F608" t="str">
+        <f>"-14404.00"</f>
+        <v>-14404.00</v>
+      </c>
+      <c r="G608" t="str">
+        <f>"42798.90"</f>
+        <v>42798.90</v>
+      </c>
+      <c r="H608" t="str">
+        <f>"1600.00"</f>
+        <v>1600.00</v>
+      </c>
+      <c r="I608" t="str">
+        <f>"209"</f>
+        <v>209</v>
+      </c>
+      <c r="J608" t="str">
+        <f>"证券买入(麦克奥迪)"</f>
+        <v>证券买入(麦克奥迪)</v>
+      </c>
+      <c r="K608" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L608" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M608" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N608" t="str">
+        <f t="shared" si="204"/>
+        <v>0.00</v>
+      </c>
+      <c r="O608" t="str">
+        <f>"300341"</f>
+        <v>300341</v>
+      </c>
+      <c r="P608" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="609" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A609" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B609" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C609" t="str">
+        <f>"20191213"</f>
+        <v>20191213</v>
+      </c>
+      <c r="D609" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="E609" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="F609" t="str">
+        <f>"-20000.00"</f>
+        <v>-20000.00</v>
+      </c>
+      <c r="G609" t="str">
+        <f>"57202.90"</f>
+        <v>57202.90</v>
+      </c>
+      <c r="H609" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="I609" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="J609" t="str">
+        <f>"银行转取"</f>
+        <v>银行转取</v>
+      </c>
+      <c r="K609" t="str">
+        <f t="shared" ref="K609:P609" si="205">"---"</f>
+        <v>---</v>
+      </c>
+      <c r="L609" t="str">
+        <f t="shared" si="205"/>
+        <v>---</v>
+      </c>
+      <c r="M609" t="str">
+        <f t="shared" si="205"/>
+        <v>---</v>
+      </c>
+      <c r="N609" t="str">
+        <f t="shared" si="205"/>
+        <v>---</v>
+      </c>
+      <c r="O609" t="str">
+        <f t="shared" si="205"/>
+        <v>---</v>
+      </c>
+      <c r="P609" t="str">
+        <f t="shared" si="205"/>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="610" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A610" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B610" t="str">
+        <f>"麦克奥迪"</f>
+        <v>麦克奥迪</v>
+      </c>
+      <c r="C610" t="str">
+        <f>"20191216"</f>
+        <v>20191216</v>
+      </c>
+      <c r="D610" t="str">
+        <f>"18.440"</f>
+        <v>18.440</v>
+      </c>
+      <c r="E610" t="str">
+        <f>"-800.00"</f>
+        <v>-800.00</v>
+      </c>
+      <c r="F610" t="str">
+        <f>"14732.25"</f>
+        <v>14732.25</v>
+      </c>
+      <c r="G610" t="str">
+        <f>"58960.06"</f>
+        <v>58960.06</v>
+      </c>
+      <c r="H610" t="str">
+        <f>"800.00"</f>
+        <v>800.00</v>
+      </c>
+      <c r="I610" t="str">
+        <f>"242"</f>
+        <v>242</v>
+      </c>
+      <c r="J610" t="str">
+        <f>"证券卖出(麦克奥迪)"</f>
+        <v>证券卖出(麦克奥迪)</v>
+      </c>
+      <c r="K610" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L610" t="str">
+        <f>"14.75"</f>
+        <v>14.75</v>
+      </c>
+      <c r="M610" t="str">
+        <f t="shared" ref="M610:N625" si="206">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N610" t="str">
+        <f t="shared" si="206"/>
+        <v>0.00</v>
+      </c>
+      <c r="O610" t="str">
+        <f>"300341"</f>
+        <v>300341</v>
+      </c>
+      <c r="P610" t="str">
+        <f t="shared" ref="P610:P619" si="207">"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="611" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A611" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B611" t="str">
+        <f>"麦克奥迪"</f>
+        <v>麦克奥迪</v>
+      </c>
+      <c r="C611" t="str">
+        <f>"20191216"</f>
+        <v>20191216</v>
+      </c>
+      <c r="D611" t="str">
+        <f>"18.450"</f>
+        <v>18.450</v>
+      </c>
+      <c r="E611" t="str">
+        <f>"-800.00"</f>
+        <v>-800.00</v>
+      </c>
+      <c r="F611" t="str">
+        <f>"14740.24"</f>
+        <v>14740.24</v>
+      </c>
+      <c r="G611" t="str">
+        <f>"44227.81"</f>
+        <v>44227.81</v>
+      </c>
+      <c r="H611" t="str">
+        <f>"1600.00"</f>
+        <v>1600.00</v>
+      </c>
+      <c r="I611" t="str">
+        <f>"239"</f>
+        <v>239</v>
+      </c>
+      <c r="J611" t="str">
+        <f>"证券卖出(麦克奥迪)"</f>
+        <v>证券卖出(麦克奥迪)</v>
+      </c>
+      <c r="K611" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L611" t="str">
+        <f>"14.76"</f>
+        <v>14.76</v>
+      </c>
+      <c r="M611" t="str">
+        <f t="shared" si="206"/>
+        <v>0.00</v>
+      </c>
+      <c r="N611" t="str">
+        <f t="shared" si="206"/>
+        <v>0.00</v>
+      </c>
+      <c r="O611" t="str">
+        <f>"300341"</f>
+        <v>300341</v>
+      </c>
+      <c r="P611" t="str">
+        <f t="shared" si="207"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="612" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A612" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B612" t="str">
+        <f>"苏奥传感"</f>
+        <v>苏奥传感</v>
+      </c>
+      <c r="C612" t="str">
+        <f>"20191216"</f>
+        <v>20191216</v>
+      </c>
+      <c r="D612" t="str">
+        <f>"15.550"</f>
+        <v>15.550</v>
+      </c>
+      <c r="E612" t="str">
+        <f>"-1000.00"</f>
+        <v>-1000.00</v>
+      </c>
+      <c r="F612" t="str">
+        <f>"15529.45"</f>
+        <v>15529.45</v>
+      </c>
+      <c r="G612" t="str">
+        <f>"29487.57"</f>
+        <v>29487.57</v>
+      </c>
+      <c r="H612" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I612" t="str">
+        <f>"226"</f>
+        <v>226</v>
+      </c>
+      <c r="J612" t="str">
+        <f>"证券卖出(苏奥传感)"</f>
+        <v>证券卖出(苏奥传感)</v>
+      </c>
+      <c r="K612" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L612" t="str">
+        <f>"15.55"</f>
+        <v>15.55</v>
+      </c>
+      <c r="M612" t="str">
+        <f t="shared" si="206"/>
+        <v>0.00</v>
+      </c>
+      <c r="N612" t="str">
+        <f t="shared" si="206"/>
+        <v>0.00</v>
+      </c>
+      <c r="O612" t="str">
+        <f>"300507"</f>
+        <v>300507</v>
+      </c>
+      <c r="P612" t="str">
+        <f t="shared" si="207"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="613" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A613" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B613" t="str">
+        <f>"上海新阳"</f>
+        <v>上海新阳</v>
+      </c>
+      <c r="C613" t="str">
+        <f>"20191216"</f>
+        <v>20191216</v>
+      </c>
+      <c r="D613" t="str">
+        <f>"25.899"</f>
+        <v>25.899</v>
+      </c>
+      <c r="E613" t="str">
+        <f>"800.00"</f>
+        <v>800.00</v>
+      </c>
+      <c r="F613" t="str">
+        <f>"-20725.72"</f>
+        <v>-20725.72</v>
+      </c>
+      <c r="G613" t="str">
+        <f>"13958.12"</f>
+        <v>13958.12</v>
+      </c>
+      <c r="H613" t="str">
+        <f>"800.00"</f>
+        <v>800.00</v>
+      </c>
+      <c r="I613" t="str">
+        <f>"232"</f>
+        <v>232</v>
+      </c>
+      <c r="J613" t="str">
+        <f>"证券买入(上海新阳)"</f>
+        <v>证券买入(上海新阳)</v>
+      </c>
+      <c r="K613" t="str">
+        <f>"6.22"</f>
+        <v>6.22</v>
+      </c>
+      <c r="L613" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M613" t="str">
+        <f t="shared" si="206"/>
+        <v>0.00</v>
+      </c>
+      <c r="N613" t="str">
+        <f t="shared" si="206"/>
+        <v>0.00</v>
+      </c>
+      <c r="O613" t="str">
+        <f>"300236"</f>
+        <v>300236</v>
+      </c>
+      <c r="P613" t="str">
+        <f t="shared" si="207"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="614" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A614" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B614" t="str">
+        <f>"麦克奥迪"</f>
+        <v>麦克奥迪</v>
+      </c>
+      <c r="C614" t="str">
+        <f t="shared" ref="C614:C621" si="208">"20191217"</f>
+        <v>20191217</v>
+      </c>
+      <c r="D614" t="str">
+        <f>"18.900"</f>
+        <v>18.900</v>
+      </c>
+      <c r="E614" t="str">
+        <f>"-800.00"</f>
+        <v>-800.00</v>
+      </c>
+      <c r="F614" t="str">
+        <f>"15099.88"</f>
+        <v>15099.88</v>
+      </c>
+      <c r="G614" t="str">
+        <f>"89783.95"</f>
+        <v>89783.95</v>
+      </c>
+      <c r="H614" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I614" t="str">
+        <f>"254"</f>
+        <v>254</v>
+      </c>
+      <c r="J614" t="str">
+        <f>"证券卖出(麦克奥迪)"</f>
+        <v>证券卖出(麦克奥迪)</v>
+      </c>
+      <c r="K614" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L614" t="str">
+        <f>"15.12"</f>
+        <v>15.12</v>
+      </c>
+      <c r="M614" t="str">
+        <f t="shared" si="206"/>
+        <v>0.00</v>
+      </c>
+      <c r="N614" t="str">
+        <f t="shared" si="206"/>
+        <v>0.00</v>
+      </c>
+      <c r="O614" t="str">
+        <f>"300341"</f>
+        <v>300341</v>
+      </c>
+      <c r="P614" t="str">
+        <f t="shared" si="207"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="615" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A615" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B615" t="str">
+        <f>"科蓝软件"</f>
+        <v>科蓝软件</v>
+      </c>
+      <c r="C615" t="str">
+        <f t="shared" si="208"/>
+        <v>20191217</v>
+      </c>
+      <c r="D615" t="str">
+        <f>"28.780"</f>
+        <v>28.780</v>
+      </c>
+      <c r="E615" t="str">
+        <f>"600.00"</f>
+        <v>600.00</v>
+      </c>
+      <c r="F615" t="str">
+        <f>"-17273.18"</f>
+        <v>-17273.18</v>
+      </c>
+      <c r="G615" t="str">
+        <f>"74684.07"</f>
+        <v>74684.07</v>
+      </c>
+      <c r="H615" t="str">
+        <f>"1200.00"</f>
+        <v>1200.00</v>
+      </c>
+      <c r="I615" t="str">
+        <f>"269"</f>
+        <v>269</v>
+      </c>
+      <c r="J615" t="str">
+        <f>"证券买入(科蓝软件)"</f>
+        <v>证券买入(科蓝软件)</v>
+      </c>
+      <c r="K615" t="str">
+        <f>"5.18"</f>
+        <v>5.18</v>
+      </c>
+      <c r="L615" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M615" t="str">
+        <f t="shared" si="206"/>
+        <v>0.00</v>
+      </c>
+      <c r="N615" t="str">
+        <f t="shared" si="206"/>
+        <v>0.00</v>
+      </c>
+      <c r="O615" t="str">
+        <f>"300663"</f>
+        <v>300663</v>
+      </c>
+      <c r="P615" t="str">
+        <f t="shared" si="207"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="616" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A616" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B616" t="str">
+        <f>"科蓝软件"</f>
+        <v>科蓝软件</v>
+      </c>
+      <c r="C616" t="str">
+        <f t="shared" si="208"/>
+        <v>20191217</v>
+      </c>
+      <c r="D616" t="str">
+        <f>"29.010"</f>
+        <v>29.010</v>
+      </c>
+      <c r="E616" t="str">
+        <f>"600.00"</f>
+        <v>600.00</v>
+      </c>
+      <c r="F616" t="str">
+        <f>"-17411.22"</f>
+        <v>-17411.22</v>
+      </c>
+      <c r="G616" t="str">
+        <f>"91957.25"</f>
+        <v>91957.25</v>
+      </c>
+      <c r="H616" t="str">
+        <f>"600.00"</f>
+        <v>600.00</v>
+      </c>
+      <c r="I616" t="str">
+        <f>"263"</f>
+        <v>263</v>
+      </c>
+      <c r="J616" t="str">
+        <f>"证券买入(科蓝软件)"</f>
+        <v>证券买入(科蓝软件)</v>
+      </c>
+      <c r="K616" t="str">
+        <f>"5.22"</f>
+        <v>5.22</v>
+      </c>
+      <c r="L616" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M616" t="str">
+        <f t="shared" si="206"/>
+        <v>0.00</v>
+      </c>
+      <c r="N616" t="str">
+        <f t="shared" si="206"/>
+        <v>0.00</v>
+      </c>
+      <c r="O616" t="str">
+        <f>"300663"</f>
+        <v>300663</v>
+      </c>
+      <c r="P616" t="str">
+        <f t="shared" si="207"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="617" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A617" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B617" t="str">
+        <f>"我武生物"</f>
+        <v>我武生物</v>
+      </c>
+      <c r="C617" t="str">
+        <f t="shared" si="208"/>
+        <v>20191217</v>
+      </c>
+      <c r="D617" t="str">
+        <f>"47.100"</f>
+        <v>47.100</v>
+      </c>
+      <c r="E617" t="str">
+        <f>"-400.00"</f>
+        <v>-400.00</v>
+      </c>
+      <c r="F617" t="str">
+        <f>"18815.51"</f>
+        <v>18815.51</v>
+      </c>
+      <c r="G617" t="str">
+        <f>"109368.47"</f>
+        <v>109368.47</v>
+      </c>
+      <c r="H617" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I617" t="str">
+        <f>"292"</f>
+        <v>292</v>
+      </c>
+      <c r="J617" t="str">
+        <f>"证券卖出(我武生物)"</f>
+        <v>证券卖出(我武生物)</v>
+      </c>
+      <c r="K617" t="str">
+        <f>"5.65"</f>
+        <v>5.65</v>
+      </c>
+      <c r="L617" t="str">
+        <f>"18.84"</f>
+        <v>18.84</v>
+      </c>
+      <c r="M617" t="str">
+        <f t="shared" si="206"/>
+        <v>0.00</v>
+      </c>
+      <c r="N617" t="str">
+        <f t="shared" si="206"/>
+        <v>0.00</v>
+      </c>
+      <c r="O617" t="str">
+        <f>"300357"</f>
+        <v>300357</v>
+      </c>
+      <c r="P617" t="str">
+        <f t="shared" si="207"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="618" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A618" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B618" t="str">
+        <f>"我武生物"</f>
+        <v>我武生物</v>
+      </c>
+      <c r="C618" t="str">
+        <f t="shared" si="208"/>
+        <v>20191217</v>
+      </c>
+      <c r="D618" t="str">
+        <f>"47.100"</f>
+        <v>47.100</v>
+      </c>
+      <c r="E618" t="str">
+        <f>"-1200.00"</f>
+        <v>-1200.00</v>
+      </c>
+      <c r="F618" t="str">
+        <f>"56446.52"</f>
+        <v>56446.52</v>
+      </c>
+      <c r="G618" t="str">
+        <f>"90552.96"</f>
+        <v>90552.96</v>
+      </c>
+      <c r="H618" t="str">
+        <f>"400.00"</f>
+        <v>400.00</v>
+      </c>
+      <c r="I618" t="str">
+        <f>"285"</f>
+        <v>285</v>
+      </c>
+      <c r="J618" t="str">
+        <f>"证券卖出(我武生物)"</f>
+        <v>证券卖出(我武生物)</v>
+      </c>
+      <c r="K618" t="str">
+        <f>"16.96"</f>
+        <v>16.96</v>
+      </c>
+      <c r="L618" t="str">
+        <f>"56.52"</f>
+        <v>56.52</v>
+      </c>
+      <c r="M618" t="str">
+        <f t="shared" si="206"/>
+        <v>0.00</v>
+      </c>
+      <c r="N618" t="str">
+        <f t="shared" si="206"/>
+        <v>0.00</v>
+      </c>
+      <c r="O618" t="str">
+        <f>"300357"</f>
+        <v>300357</v>
+      </c>
+      <c r="P618" t="str">
+        <f t="shared" si="207"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="619" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A619" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B619" t="str">
+        <f>"易尚展示"</f>
+        <v>易尚展示</v>
+      </c>
+      <c r="C619" t="str">
+        <f t="shared" si="208"/>
+        <v>20191217</v>
+      </c>
+      <c r="D619" t="str">
+        <f>"26.000"</f>
+        <v>26.000</v>
+      </c>
+      <c r="E619" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="F619" t="str">
+        <f>"-26007.80"</f>
+        <v>-26007.80</v>
+      </c>
+      <c r="G619" t="str">
+        <f>"34106.44"</f>
+        <v>34106.44</v>
+      </c>
+      <c r="H619" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="I619" t="str">
+        <f>"250"</f>
+        <v>250</v>
+      </c>
+      <c r="J619" t="str">
+        <f>"证券买入(易尚展示)"</f>
+        <v>证券买入(易尚展示)</v>
+      </c>
+      <c r="K619" t="str">
+        <f>"7.80"</f>
+        <v>7.80</v>
+      </c>
+      <c r="L619" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M619" t="str">
+        <f t="shared" si="206"/>
+        <v>0.00</v>
+      </c>
+      <c r="N619" t="str">
+        <f t="shared" si="206"/>
+        <v>0.00</v>
+      </c>
+      <c r="O619" t="str">
+        <f>"002751"</f>
+        <v>002751</v>
+      </c>
+      <c r="P619" t="str">
+        <f t="shared" si="207"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="620" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A620" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B620" t="str">
+        <f>"四川金顶"</f>
+        <v>四川金顶</v>
+      </c>
+      <c r="C620" t="str">
+        <f t="shared" si="208"/>
+        <v>20191217</v>
+      </c>
+      <c r="D620" t="str">
+        <f>"7.030"</f>
+        <v>7.030</v>
+      </c>
+      <c r="E620" t="str">
+        <f>"2000.00"</f>
+        <v>2000.00</v>
+      </c>
+      <c r="F620" t="str">
+        <f>"-14065.28"</f>
+        <v>-14065.28</v>
+      </c>
+      <c r="G620" t="str">
+        <f>"60114.24"</f>
+        <v>60114.24</v>
+      </c>
+      <c r="H620" t="str">
+        <f>"5000.00"</f>
+        <v>5000.00</v>
+      </c>
+      <c r="I620" t="str">
+        <f>"301"</f>
+        <v>301</v>
+      </c>
+      <c r="J620" t="str">
+        <f>"证券买入(四川金顶)"</f>
+        <v>证券买入(四川金顶)</v>
+      </c>
+      <c r="K620" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L620" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M620" t="str">
+        <f>"0.28"</f>
+        <v>0.28</v>
+      </c>
+      <c r="N620" t="str">
+        <f t="shared" si="206"/>
+        <v>0.00</v>
+      </c>
+      <c r="O620" t="str">
+        <f>"600678"</f>
+        <v>600678</v>
+      </c>
+      <c r="P620" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="621" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A621" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B621" t="str">
+        <f>"华培动力"</f>
+        <v>华培动力</v>
+      </c>
+      <c r="C621" t="str">
+        <f t="shared" si="208"/>
+        <v>20191217</v>
+      </c>
+      <c r="D621" t="str">
+        <f>"25.400"</f>
+        <v>25.400</v>
+      </c>
+      <c r="E621" t="str">
+        <f>"-600.00"</f>
+        <v>-600.00</v>
+      </c>
+      <c r="F621" t="str">
+        <f>"15219.46"</f>
+        <v>15219.46</v>
+      </c>
+      <c r="G621" t="str">
+        <f>"74179.52"</f>
+        <v>74179.52</v>
+      </c>
+      <c r="H621" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I621" t="str">
+        <f>"266"</f>
+        <v>266</v>
+      </c>
+      <c r="J621" t="str">
+        <f>"证券卖出(华培动力)"</f>
+        <v>证券卖出(华培动力)</v>
+      </c>
+      <c r="K621" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L621" t="str">
+        <f>"15.24"</f>
+        <v>15.24</v>
+      </c>
+      <c r="M621" t="str">
+        <f>"0.30"</f>
+        <v>0.30</v>
+      </c>
+      <c r="N621" t="str">
+        <f t="shared" si="206"/>
+        <v>0.00</v>
+      </c>
+      <c r="O621" t="str">
+        <f>"603121"</f>
+        <v>603121</v>
+      </c>
+      <c r="P621" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="622" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A622" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B622" t="str">
+        <f>"科安达"</f>
+        <v>科安达</v>
+      </c>
+      <c r="C622" t="str">
+        <f t="shared" ref="C622:C627" si="209">"20191218"</f>
+        <v>20191218</v>
+      </c>
+      <c r="D622" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E622" t="str">
+        <f>"26.00"</f>
+        <v>26.00</v>
+      </c>
+      <c r="F622" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G622" t="str">
+        <f>"76580.21"</f>
+        <v>76580.21</v>
+      </c>
+      <c r="H622" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I622" t="str">
+        <f>"322"</f>
+        <v>322</v>
+      </c>
+      <c r="J622" t="str">
+        <f>"申购配号(科安达)"</f>
+        <v>申购配号(科安达)</v>
+      </c>
+      <c r="K622" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L622" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M622" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N622" t="str">
+        <f t="shared" si="206"/>
+        <v>0.00</v>
+      </c>
+      <c r="O622" t="str">
+        <f>"002972"</f>
+        <v>002972</v>
+      </c>
+      <c r="P622" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="623" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A623" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B623" t="str">
+        <f>"易尚展示"</f>
+        <v>易尚展示</v>
+      </c>
+      <c r="C623" t="str">
+        <f t="shared" si="209"/>
+        <v>20191218</v>
+      </c>
+      <c r="D623" t="str">
+        <f>"28.880"</f>
+        <v>28.880</v>
+      </c>
+      <c r="E623" t="str">
+        <f>"-300.00"</f>
+        <v>-300.00</v>
+      </c>
+      <c r="F623" t="str">
+        <f>"8650.34"</f>
+        <v>8650.34</v>
+      </c>
+      <c r="G623" t="str">
+        <f>"76580.21"</f>
+        <v>76580.21</v>
+      </c>
+      <c r="H623" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I623" t="str">
+        <f>"329"</f>
+        <v>329</v>
+      </c>
+      <c r="J623" t="str">
+        <f>"证券卖出(易尚展示)"</f>
+        <v>证券卖出(易尚展示)</v>
+      </c>
+      <c r="K623" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L623" t="str">
+        <f>"8.66"</f>
+        <v>8.66</v>
+      </c>
+      <c r="M623" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N623" t="str">
+        <f t="shared" si="206"/>
+        <v>0.00</v>
+      </c>
+      <c r="O623" t="str">
+        <f>"002751"</f>
+        <v>002751</v>
+      </c>
+      <c r="P623" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="624" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A624" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B624" t="str">
+        <f>"易尚展示"</f>
+        <v>易尚展示</v>
+      </c>
+      <c r="C624" t="str">
+        <f t="shared" si="209"/>
+        <v>20191218</v>
+      </c>
+      <c r="D624" t="str">
+        <f>"29.480"</f>
+        <v>29.480</v>
+      </c>
+      <c r="E624" t="str">
+        <f>"-700.00"</f>
+        <v>-700.00</v>
+      </c>
+      <c r="F624" t="str">
+        <f>"20609.17"</f>
+        <v>20609.17</v>
+      </c>
+      <c r="G624" t="str">
+        <f>"67929.87"</f>
+        <v>67929.87</v>
+      </c>
+      <c r="H624" t="str">
+        <f>"300.00"</f>
+        <v>300.00</v>
+      </c>
+      <c r="I624" t="str">
+        <f>"326"</f>
+        <v>326</v>
+      </c>
+      <c r="J624" t="str">
+        <f>"证券卖出(易尚展示)"</f>
+        <v>证券卖出(易尚展示)</v>
+      </c>
+      <c r="K624" t="str">
+        <f>"6.19"</f>
+        <v>6.19</v>
+      </c>
+      <c r="L624" t="str">
+        <f>"20.64"</f>
+        <v>20.64</v>
+      </c>
+      <c r="M624" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N624" t="str">
+        <f t="shared" si="206"/>
+        <v>0.00</v>
+      </c>
+      <c r="O624" t="str">
+        <f>"002751"</f>
+        <v>002751</v>
+      </c>
+      <c r="P624" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="625" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A625" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B625" t="str">
+        <f>"科蓝软件"</f>
+        <v>科蓝软件</v>
+      </c>
+      <c r="C625" t="str">
+        <f t="shared" si="209"/>
+        <v>20191218</v>
+      </c>
+      <c r="D625" t="str">
+        <f>"28.200"</f>
+        <v>28.200</v>
+      </c>
+      <c r="E625" t="str">
+        <f>"600.00"</f>
+        <v>600.00</v>
+      </c>
+      <c r="F625" t="str">
+        <f>"-16925.08"</f>
+        <v>-16925.08</v>
+      </c>
+      <c r="G625" t="str">
+        <f>"47320.70"</f>
+        <v>47320.70</v>
+      </c>
+      <c r="H625" t="str">
+        <f>"1800.00"</f>
+        <v>1800.00</v>
+      </c>
+      <c r="I625" t="str">
+        <f>"318"</f>
+        <v>318</v>
+      </c>
+      <c r="J625" t="str">
+        <f>"证券买入(科蓝软件)"</f>
+        <v>证券买入(科蓝软件)</v>
+      </c>
+      <c r="K625" t="str">
+        <f>"5.08"</f>
+        <v>5.08</v>
+      </c>
+      <c r="L625" t="str">
+        <f t="shared" ref="L625:M632" si="210">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M625" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N625" t="str">
+        <f t="shared" si="206"/>
+        <v>0.00</v>
+      </c>
+      <c r="O625" t="str">
+        <f>"300663"</f>
+        <v>300663</v>
+      </c>
+      <c r="P625" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="626" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A626" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B626" t="str">
+        <f>"隆基股份"</f>
+        <v>隆基股份</v>
+      </c>
+      <c r="C626" t="str">
+        <f t="shared" si="209"/>
+        <v>20191218</v>
+      </c>
+      <c r="D626" t="str">
+        <f>"25.530"</f>
+        <v>25.530</v>
+      </c>
+      <c r="E626" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="F626" t="str">
+        <f>"-25538.17"</f>
+        <v>-25538.17</v>
+      </c>
+      <c r="G626" t="str">
+        <f>"64245.78"</f>
+        <v>64245.78</v>
+      </c>
+      <c r="H626" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="I626" t="str">
+        <f>"332"</f>
+        <v>332</v>
+      </c>
+      <c r="J626" t="str">
+        <f>"证券买入(隆基股份)"</f>
+        <v>证券买入(隆基股份)</v>
+      </c>
+      <c r="K626" t="str">
+        <f>"7.66"</f>
+        <v>7.66</v>
+      </c>
+      <c r="L626" t="str">
+        <f t="shared" si="210"/>
+        <v>0.00</v>
+      </c>
+      <c r="M626" t="str">
+        <f>"0.51"</f>
+        <v>0.51</v>
+      </c>
+      <c r="N626" t="str">
+        <f t="shared" ref="N626:N633" si="211">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O626" t="str">
+        <f>"601012"</f>
+        <v>601012</v>
+      </c>
+      <c r="P626" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="627" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A627" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B627" t="str">
+        <f>"神驰配号"</f>
+        <v>神驰配号</v>
+      </c>
+      <c r="C627" t="str">
+        <f t="shared" si="209"/>
+        <v>20191218</v>
+      </c>
+      <c r="D627" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E627" t="str">
+        <f>"2.00"</f>
+        <v>2.00</v>
+      </c>
+      <c r="F627" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G627" t="str">
+        <f>"89783.95"</f>
+        <v>89783.95</v>
+      </c>
+      <c r="H627" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I627" t="str">
+        <f>"324"</f>
+        <v>324</v>
+      </c>
+      <c r="J627" t="str">
+        <f>"申购配号(神驰配号)"</f>
+        <v>申购配号(神驰配号)</v>
+      </c>
+      <c r="K627" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L627" t="str">
+        <f t="shared" si="210"/>
+        <v>0.00</v>
+      </c>
+      <c r="M627" t="str">
+        <f t="shared" si="210"/>
+        <v>0.00</v>
+      </c>
+      <c r="N627" t="str">
+        <f t="shared" si="211"/>
+        <v>0.00</v>
+      </c>
+      <c r="O627" t="str">
+        <f>"736109"</f>
+        <v>736109</v>
+      </c>
+      <c r="P627" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="628" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A628" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B628" t="str">
+        <f>"铂科新材"</f>
+        <v>铂科新材</v>
+      </c>
+      <c r="C628" t="str">
+        <f>"20191219"</f>
+        <v>20191219</v>
+      </c>
+      <c r="D628" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E628" t="str">
+        <f>"27.00"</f>
+        <v>27.00</v>
+      </c>
+      <c r="F628" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G628" t="str">
+        <f>"37032.51"</f>
+        <v>37032.51</v>
+      </c>
+      <c r="H628" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I628" t="str">
+        <f>"341"</f>
+        <v>341</v>
+      </c>
+      <c r="J628" t="str">
+        <f>"申购配号(铂科新材)"</f>
+        <v>申购配号(铂科新材)</v>
+      </c>
+      <c r="K628" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L628" t="str">
+        <f t="shared" si="210"/>
+        <v>0.00</v>
+      </c>
+      <c r="M628" t="str">
+        <f t="shared" si="210"/>
+        <v>0.00</v>
+      </c>
+      <c r="N628" t="str">
+        <f t="shared" si="211"/>
+        <v>0.00</v>
+      </c>
+      <c r="O628" t="str">
+        <f>"300811"</f>
+        <v>300811</v>
+      </c>
+      <c r="P628" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="629" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A629" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B629" t="str">
+        <f>"上海新阳"</f>
+        <v>上海新阳</v>
+      </c>
+      <c r="C629" t="str">
+        <f>"20191219"</f>
+        <v>20191219</v>
+      </c>
+      <c r="D629" t="str">
+        <f>"25.650"</f>
+        <v>25.650</v>
+      </c>
+      <c r="E629" t="str">
+        <f>"1000.00"</f>
+        <v>1000.00</v>
+      </c>
+      <c r="F629" t="str">
+        <f>"-25657.70"</f>
+        <v>-25657.70</v>
+      </c>
+      <c r="G629" t="str">
+        <f>"37032.51"</f>
+        <v>37032.51</v>
+      </c>
+      <c r="H629" t="str">
+        <f>"1800.00"</f>
+        <v>1800.00</v>
+      </c>
+      <c r="I629" t="str">
+        <f>"343"</f>
+        <v>343</v>
+      </c>
+      <c r="J629" t="str">
+        <f>"证券买入(上海新阳)"</f>
+        <v>证券买入(上海新阳)</v>
+      </c>
+      <c r="K629" t="str">
+        <f>"7.70"</f>
+        <v>7.70</v>
+      </c>
+      <c r="L629" t="str">
+        <f t="shared" si="210"/>
+        <v>0.00</v>
+      </c>
+      <c r="M629" t="str">
+        <f t="shared" si="210"/>
+        <v>0.00</v>
+      </c>
+      <c r="N629" t="str">
+        <f t="shared" si="211"/>
+        <v>0.00</v>
+      </c>
+      <c r="O629" t="str">
+        <f>"300236"</f>
+        <v>300236</v>
+      </c>
+      <c r="P629" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="630" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A630" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B630" t="str">
+        <f>"科蓝软件"</f>
+        <v>科蓝软件</v>
+      </c>
+      <c r="C630" t="str">
+        <f>"20191219"</f>
+        <v>20191219</v>
+      </c>
+      <c r="D630" t="str">
+        <f>"27.770"</f>
+        <v>27.770</v>
+      </c>
+      <c r="E630" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F630" t="str">
+        <f>"-13890.00"</f>
+        <v>-13890.00</v>
+      </c>
+      <c r="G630" t="str">
+        <f>"62690.21"</f>
+        <v>62690.21</v>
+      </c>
+      <c r="H630" t="str">
+        <f>"2300.00"</f>
+        <v>2300.00</v>
+      </c>
+      <c r="I630" t="str">
+        <f>"347"</f>
+        <v>347</v>
+      </c>
+      <c r="J630" t="str">
+        <f>"证券买入(科蓝软件)"</f>
+        <v>证券买入(科蓝软件)</v>
+      </c>
+      <c r="K630" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L630" t="str">
+        <f t="shared" si="210"/>
+        <v>0.00</v>
+      </c>
+      <c r="M630" t="str">
+        <f t="shared" si="210"/>
+        <v>0.00</v>
+      </c>
+      <c r="N630" t="str">
+        <f t="shared" si="211"/>
+        <v>0.00</v>
+      </c>
+      <c r="O630" t="str">
+        <f>"300663"</f>
+        <v>300663</v>
+      </c>
+      <c r="P630" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="631" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A631" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B631" t="str">
+        <f>"上海新阳"</f>
+        <v>上海新阳</v>
+      </c>
+      <c r="C631" t="str">
+        <f>"20191220"</f>
+        <v>20191220</v>
+      </c>
+      <c r="D631" t="str">
+        <f>"25.090"</f>
+        <v>25.090</v>
+      </c>
+      <c r="E631" t="str">
+        <f>"900.00"</f>
+        <v>900.00</v>
+      </c>
+      <c r="F631" t="str">
+        <f>"-22587.78"</f>
+        <v>-22587.78</v>
+      </c>
+      <c r="G631" t="str">
+        <f>"1926.61"</f>
+        <v>1926.61</v>
+      </c>
+      <c r="H631" t="str">
+        <f>"3200.00"</f>
+        <v>3200.00</v>
+      </c>
+      <c r="I631" t="str">
+        <f>"357"</f>
+        <v>357</v>
+      </c>
+      <c r="J631" t="str">
+        <f>"证券买入(上海新阳)"</f>
+        <v>证券买入(上海新阳)</v>
+      </c>
+      <c r="K631" t="str">
+        <f>"6.78"</f>
+        <v>6.78</v>
+      </c>
+      <c r="L631" t="str">
+        <f t="shared" si="210"/>
+        <v>0.00</v>
+      </c>
+      <c r="M631" t="str">
+        <f t="shared" si="210"/>
+        <v>0.00</v>
+      </c>
+      <c r="N631" t="str">
+        <f t="shared" si="211"/>
+        <v>0.00</v>
+      </c>
+      <c r="O631" t="str">
+        <f>"300236"</f>
+        <v>300236</v>
+      </c>
+      <c r="P631" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="632" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A632" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B632" t="str">
+        <f>"上海新阳"</f>
+        <v>上海新阳</v>
+      </c>
+      <c r="C632" t="str">
+        <f>"20191220"</f>
+        <v>20191220</v>
+      </c>
+      <c r="D632" t="str">
+        <f>"25.090"</f>
+        <v>25.090</v>
+      </c>
+      <c r="E632" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F632" t="str">
+        <f>"-12550.00"</f>
+        <v>-12550.00</v>
+      </c>
+      <c r="G632" t="str">
+        <f>"24514.39"</f>
+        <v>24514.39</v>
+      </c>
+      <c r="H632" t="str">
+        <f>"2300.00"</f>
+        <v>2300.00</v>
+      </c>
+      <c r="I632" t="str">
+        <f>"353"</f>
+        <v>353</v>
+      </c>
+      <c r="J632" t="str">
+        <f>"证券买入(上海新阳)"</f>
+        <v>证券买入(上海新阳)</v>
+      </c>
+      <c r="K632" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L632" t="str">
+        <f t="shared" si="210"/>
+        <v>0.00</v>
+      </c>
+      <c r="M632" t="str">
+        <f t="shared" si="210"/>
+        <v>0.00</v>
+      </c>
+      <c r="N632" t="str">
+        <f t="shared" si="211"/>
+        <v>0.00</v>
+      </c>
+      <c r="O632" t="str">
+        <f>"300236"</f>
+        <v>300236</v>
+      </c>
+      <c r="P632" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="633" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A633" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B633" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="C633" t="str">
+        <f>"20191220"</f>
+        <v>20191220</v>
+      </c>
+      <c r="D633" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="E633" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="F633" t="str">
+        <f>"31.88"</f>
+        <v>31.88</v>
+      </c>
+      <c r="G633" t="str">
+        <f>"37064.39"</f>
+        <v>37064.39</v>
+      </c>
+      <c r="H633" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="I633" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="J633" t="str">
+        <f>"批量利息归本"</f>
+        <v>批量利息归本</v>
+      </c>
+      <c r="K633" t="str">
+        <f t="shared" ref="K633:P633" si="212">"---"</f>
+        <v>---</v>
+      </c>
+      <c r="L633" t="str">
+        <f t="shared" si="212"/>
+        <v>---</v>
+      </c>
+      <c r="M633" t="str">
+        <f t="shared" si="212"/>
+        <v>---</v>
+      </c>
+      <c r="N633" t="str">
+        <f t="shared" si="212"/>
+        <v>---</v>
+      </c>
+      <c r="O633" t="str">
+        <f t="shared" si="212"/>
+        <v>---</v>
+      </c>
+      <c r="P633" t="str">
+        <f t="shared" si="212"/>
+        <v>---</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cal_profit/2019.xlsx
+++ b/cal_profit/2019.xlsx
@@ -1012,16 +1012,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P633"/>
+  <dimension ref="A1:P650"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A596" workbookViewId="0">
-      <selection activeCell="A605" sqref="A605:XFD633"/>
+    <sheetView tabSelected="1" topLeftCell="A626" workbookViewId="0">
+      <selection activeCell="A634" sqref="A634:XFD650"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="10" max="11" width="8.88671875" customWidth="1"/>
+    <col min="10" max="10" width="26.109375" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -40762,7 +40763,7 @@
     </row>
     <row r="605" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A605" t="str">
-        <f t="shared" ref="A605:A633" si="203">"人民币"</f>
+        <f t="shared" ref="A605:A650" si="203">"人民币"</f>
         <v>人民币</v>
       </c>
       <c r="B605" t="str">
@@ -40814,7 +40815,7 @@
         <v>0.00</v>
       </c>
       <c r="N605" t="str">
-        <f t="shared" ref="N605:N611" si="204">"0.00"</f>
+        <f t="shared" ref="N605:N608" si="204">"0.00"</f>
         <v>0.00</v>
       </c>
       <c r="O605" t="str">
@@ -42200,7 +42201,7 @@
         <v>0.51</v>
       </c>
       <c r="N626" t="str">
-        <f t="shared" ref="N626:N633" si="211">"0.00"</f>
+        <f t="shared" ref="N626:N632" si="211">"0.00"</f>
         <v>0.00</v>
       </c>
       <c r="O626" t="str">
@@ -42672,6 +42673,1128 @@
       <c r="P633" t="str">
         <f t="shared" si="212"/>
         <v>---</v>
+      </c>
+    </row>
+    <row r="634" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A634" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B634" t="str">
+        <f>"神州数码"</f>
+        <v>神州数码</v>
+      </c>
+      <c r="C634" t="str">
+        <f>"20191224"</f>
+        <v>20191224</v>
+      </c>
+      <c r="D634" t="str">
+        <f>"20.530"</f>
+        <v>20.530</v>
+      </c>
+      <c r="E634" t="str">
+        <f>"900.00"</f>
+        <v>900.00</v>
+      </c>
+      <c r="F634" t="str">
+        <f>"-18482.54"</f>
+        <v>-18482.54</v>
+      </c>
+      <c r="G634" t="str">
+        <f>"-16555.93"</f>
+        <v>-16555.93</v>
+      </c>
+      <c r="H634" t="str">
+        <f>"900.00"</f>
+        <v>900.00</v>
+      </c>
+      <c r="I634" t="str">
+        <f>"366"</f>
+        <v>366</v>
+      </c>
+      <c r="J634" t="str">
+        <f>"证券买入(神州数码)"</f>
+        <v>证券买入(神州数码)</v>
+      </c>
+      <c r="K634" t="str">
+        <f>"5.54"</f>
+        <v>5.54</v>
+      </c>
+      <c r="L634" t="str">
+        <f t="shared" ref="L634:N643" si="213">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M634" t="str">
+        <f t="shared" si="213"/>
+        <v>0.00</v>
+      </c>
+      <c r="N634" t="str">
+        <f t="shared" si="213"/>
+        <v>0.00</v>
+      </c>
+      <c r="O634" t="str">
+        <f>"000034"</f>
+        <v>000034</v>
+      </c>
+      <c r="P634" t="str">
+        <f t="shared" ref="P634:P643" si="214">"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="635" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A635" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B635" t="str">
+        <f>"上海新阳"</f>
+        <v>上海新阳</v>
+      </c>
+      <c r="C635" t="str">
+        <f>"20191224"</f>
+        <v>20191224</v>
+      </c>
+      <c r="D635" t="str">
+        <f>"26.748"</f>
+        <v>26.748</v>
+      </c>
+      <c r="E635" t="str">
+        <f>"-1400.00"</f>
+        <v>-1400.00</v>
+      </c>
+      <c r="F635" t="str">
+        <f>"37398.31"</f>
+        <v>37398.31</v>
+      </c>
+      <c r="G635" t="str">
+        <f>"20842.38"</f>
+        <v>20842.38</v>
+      </c>
+      <c r="H635" t="str">
+        <f>"1800.00"</f>
+        <v>1800.00</v>
+      </c>
+      <c r="I635" t="str">
+        <f>"363"</f>
+        <v>363</v>
+      </c>
+      <c r="J635" t="str">
+        <f>"证券卖出(上海新阳)"</f>
+        <v>证券卖出(上海新阳)</v>
+      </c>
+      <c r="K635" t="str">
+        <f>"11.24"</f>
+        <v>11.24</v>
+      </c>
+      <c r="L635" t="str">
+        <f>"37.45"</f>
+        <v>37.45</v>
+      </c>
+      <c r="M635" t="str">
+        <f t="shared" si="213"/>
+        <v>0.00</v>
+      </c>
+      <c r="N635" t="str">
+        <f t="shared" si="213"/>
+        <v>0.00</v>
+      </c>
+      <c r="O635" t="str">
+        <f>"300236"</f>
+        <v>300236</v>
+      </c>
+      <c r="P635" t="str">
+        <f t="shared" si="214"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="636" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A636" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B636" t="str">
+        <f>"上海新阳"</f>
+        <v>上海新阳</v>
+      </c>
+      <c r="C636" t="str">
+        <f>"20191224"</f>
+        <v>20191224</v>
+      </c>
+      <c r="D636" t="str">
+        <f>"26.770"</f>
+        <v>26.770</v>
+      </c>
+      <c r="E636" t="str">
+        <f>"-1000.00"</f>
+        <v>-1000.00</v>
+      </c>
+      <c r="F636" t="str">
+        <f>"26735.20"</f>
+        <v>26735.20</v>
+      </c>
+      <c r="G636" t="str">
+        <f>"47577.58"</f>
+        <v>47577.58</v>
+      </c>
+      <c r="H636" t="str">
+        <f>"800.00"</f>
+        <v>800.00</v>
+      </c>
+      <c r="I636" t="str">
+        <f>"371"</f>
+        <v>371</v>
+      </c>
+      <c r="J636" t="str">
+        <f>"证券卖出(上海新阳)"</f>
+        <v>证券卖出(上海新阳)</v>
+      </c>
+      <c r="K636" t="str">
+        <f>"8.03"</f>
+        <v>8.03</v>
+      </c>
+      <c r="L636" t="str">
+        <f>"26.77"</f>
+        <v>26.77</v>
+      </c>
+      <c r="M636" t="str">
+        <f t="shared" si="213"/>
+        <v>0.00</v>
+      </c>
+      <c r="N636" t="str">
+        <f t="shared" si="213"/>
+        <v>0.00</v>
+      </c>
+      <c r="O636" t="str">
+        <f>"300236"</f>
+        <v>300236</v>
+      </c>
+      <c r="P636" t="str">
+        <f t="shared" si="214"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="637" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A637" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B637" t="str">
+        <f>"上海新阳"</f>
+        <v>上海新阳</v>
+      </c>
+      <c r="C637" t="str">
+        <f t="shared" ref="C637:C642" si="215">"20191225"</f>
+        <v>20191225</v>
+      </c>
+      <c r="D637" t="str">
+        <f>"27.190"</f>
+        <v>27.190</v>
+      </c>
+      <c r="E637" t="str">
+        <f>"-800.00"</f>
+        <v>-800.00</v>
+      </c>
+      <c r="F637" t="str">
+        <f>"21723.72"</f>
+        <v>21723.72</v>
+      </c>
+      <c r="G637" t="str">
+        <f>"69301.30"</f>
+        <v>69301.30</v>
+      </c>
+      <c r="H637" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I637" t="str">
+        <f>"381"</f>
+        <v>381</v>
+      </c>
+      <c r="J637" t="str">
+        <f>"证券卖出(上海新阳)"</f>
+        <v>证券卖出(上海新阳)</v>
+      </c>
+      <c r="K637" t="str">
+        <f>"6.53"</f>
+        <v>6.53</v>
+      </c>
+      <c r="L637" t="str">
+        <f>"21.75"</f>
+        <v>21.75</v>
+      </c>
+      <c r="M637" t="str">
+        <f t="shared" si="213"/>
+        <v>0.00</v>
+      </c>
+      <c r="N637" t="str">
+        <f t="shared" si="213"/>
+        <v>0.00</v>
+      </c>
+      <c r="O637" t="str">
+        <f>"300236"</f>
+        <v>300236</v>
+      </c>
+      <c r="P637" t="str">
+        <f t="shared" si="214"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="638" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A638" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B638" t="str">
+        <f>"科蓝软件"</f>
+        <v>科蓝软件</v>
+      </c>
+      <c r="C638" t="str">
+        <f t="shared" si="215"/>
+        <v>20191225</v>
+      </c>
+      <c r="D638" t="str">
+        <f>"25.920"</f>
+        <v>25.920</v>
+      </c>
+      <c r="E638" t="str">
+        <f>"700.00"</f>
+        <v>700.00</v>
+      </c>
+      <c r="F638" t="str">
+        <f>"-18149.45"</f>
+        <v>-18149.45</v>
+      </c>
+      <c r="G638" t="str">
+        <f>"51151.85"</f>
+        <v>51151.85</v>
+      </c>
+      <c r="H638" t="str">
+        <f>"3000.00"</f>
+        <v>3000.00</v>
+      </c>
+      <c r="I638" t="str">
+        <f>"384"</f>
+        <v>384</v>
+      </c>
+      <c r="J638" t="str">
+        <f>"证券买入(科蓝软件)"</f>
+        <v>证券买入(科蓝软件)</v>
+      </c>
+      <c r="K638" t="str">
+        <f>"5.45"</f>
+        <v>5.45</v>
+      </c>
+      <c r="L638" t="str">
+        <f t="shared" ref="L638:L643" si="216">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M638" t="str">
+        <f t="shared" si="213"/>
+        <v>0.00</v>
+      </c>
+      <c r="N638" t="str">
+        <f t="shared" si="213"/>
+        <v>0.00</v>
+      </c>
+      <c r="O638" t="str">
+        <f>"300663"</f>
+        <v>300663</v>
+      </c>
+      <c r="P638" t="str">
+        <f t="shared" si="214"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="639" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A639" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B639" t="str">
+        <f>"侨银环保"</f>
+        <v>侨银环保</v>
+      </c>
+      <c r="C639" t="str">
+        <f t="shared" si="215"/>
+        <v>20191225</v>
+      </c>
+      <c r="D639" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E639" t="str">
+        <f>"24.00"</f>
+        <v>24.00</v>
+      </c>
+      <c r="F639" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G639" t="str">
+        <f>"19689.17"</f>
+        <v>19689.17</v>
+      </c>
+      <c r="H639" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I639" t="str">
+        <f>"379"</f>
+        <v>379</v>
+      </c>
+      <c r="J639" t="str">
+        <f>"申购配号(侨银环保)"</f>
+        <v>申购配号(侨银环保)</v>
+      </c>
+      <c r="K639" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L639" t="str">
+        <f t="shared" si="216"/>
+        <v>0.00</v>
+      </c>
+      <c r="M639" t="str">
+        <f t="shared" si="213"/>
+        <v>0.00</v>
+      </c>
+      <c r="N639" t="str">
+        <f t="shared" si="213"/>
+        <v>0.00</v>
+      </c>
+      <c r="O639" t="str">
+        <f>"002973"</f>
+        <v>002973</v>
+      </c>
+      <c r="P639" t="str">
+        <f t="shared" si="214"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="640" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A640" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B640" t="str">
+        <f>"易天股份"</f>
+        <v>易天股份</v>
+      </c>
+      <c r="C640" t="str">
+        <f t="shared" si="215"/>
+        <v>20191225</v>
+      </c>
+      <c r="D640" t="str">
+        <f>"0.000"</f>
+        <v>0.000</v>
+      </c>
+      <c r="E640" t="str">
+        <f>"26.00"</f>
+        <v>26.00</v>
+      </c>
+      <c r="F640" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="G640" t="str">
+        <f>"19689.17"</f>
+        <v>19689.17</v>
+      </c>
+      <c r="H640" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I640" t="str">
+        <f>"377"</f>
+        <v>377</v>
+      </c>
+      <c r="J640" t="str">
+        <f>"申购配号(易天股份)"</f>
+        <v>申购配号(易天股份)</v>
+      </c>
+      <c r="K640" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="L640" t="str">
+        <f t="shared" si="216"/>
+        <v>0.00</v>
+      </c>
+      <c r="M640" t="str">
+        <f t="shared" si="213"/>
+        <v>0.00</v>
+      </c>
+      <c r="N640" t="str">
+        <f t="shared" si="213"/>
+        <v>0.00</v>
+      </c>
+      <c r="O640" t="str">
+        <f>"300812"</f>
+        <v>300812</v>
+      </c>
+      <c r="P640" t="str">
+        <f t="shared" si="214"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="641" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A641" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B641" t="str">
+        <f>"神州数码"</f>
+        <v>神州数码</v>
+      </c>
+      <c r="C641" t="str">
+        <f t="shared" si="215"/>
+        <v>20191225</v>
+      </c>
+      <c r="D641" t="str">
+        <f>"20.860"</f>
+        <v>20.860</v>
+      </c>
+      <c r="E641" t="str">
+        <f>"600.00"</f>
+        <v>600.00</v>
+      </c>
+      <c r="F641" t="str">
+        <f>"-12521.00"</f>
+        <v>-12521.00</v>
+      </c>
+      <c r="G641" t="str">
+        <f>"19689.17"</f>
+        <v>19689.17</v>
+      </c>
+      <c r="H641" t="str">
+        <f>"2400.00"</f>
+        <v>2400.00</v>
+      </c>
+      <c r="I641" t="str">
+        <f>"396"</f>
+        <v>396</v>
+      </c>
+      <c r="J641" t="str">
+        <f>"证券买入(神州数码)"</f>
+        <v>证券买入(神州数码)</v>
+      </c>
+      <c r="K641" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L641" t="str">
+        <f t="shared" si="216"/>
+        <v>0.00</v>
+      </c>
+      <c r="M641" t="str">
+        <f t="shared" si="213"/>
+        <v>0.00</v>
+      </c>
+      <c r="N641" t="str">
+        <f t="shared" si="213"/>
+        <v>0.00</v>
+      </c>
+      <c r="O641" t="str">
+        <f>"000034"</f>
+        <v>000034</v>
+      </c>
+      <c r="P641" t="str">
+        <f t="shared" si="214"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="642" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A642" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B642" t="str">
+        <f>"神州数码"</f>
+        <v>神州数码</v>
+      </c>
+      <c r="C642" t="str">
+        <f t="shared" si="215"/>
+        <v>20191225</v>
+      </c>
+      <c r="D642" t="str">
+        <f>"21.040"</f>
+        <v>21.040</v>
+      </c>
+      <c r="E642" t="str">
+        <f>"900.00"</f>
+        <v>900.00</v>
+      </c>
+      <c r="F642" t="str">
+        <f>"-18941.68"</f>
+        <v>-18941.68</v>
+      </c>
+      <c r="G642" t="str">
+        <f>"32210.17"</f>
+        <v>32210.17</v>
+      </c>
+      <c r="H642" t="str">
+        <f>"1800.00"</f>
+        <v>1800.00</v>
+      </c>
+      <c r="I642" t="str">
+        <f>"390"</f>
+        <v>390</v>
+      </c>
+      <c r="J642" t="str">
+        <f>"证券买入(神州数码)"</f>
+        <v>证券买入(神州数码)</v>
+      </c>
+      <c r="K642" t="str">
+        <f>"5.68"</f>
+        <v>5.68</v>
+      </c>
+      <c r="L642" t="str">
+        <f t="shared" si="216"/>
+        <v>0.00</v>
+      </c>
+      <c r="M642" t="str">
+        <f t="shared" si="213"/>
+        <v>0.00</v>
+      </c>
+      <c r="N642" t="str">
+        <f t="shared" si="213"/>
+        <v>0.00</v>
+      </c>
+      <c r="O642" t="str">
+        <f>"000034"</f>
+        <v>000034</v>
+      </c>
+      <c r="P642" t="str">
+        <f t="shared" si="214"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="643" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A643" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B643" t="str">
+        <f>"神州数码"</f>
+        <v>神州数码</v>
+      </c>
+      <c r="C643" t="str">
+        <f>"20191226"</f>
+        <v>20191226</v>
+      </c>
+      <c r="D643" t="str">
+        <f>"20.620"</f>
+        <v>20.620</v>
+      </c>
+      <c r="E643" t="str">
+        <f>"900.00"</f>
+        <v>900.00</v>
+      </c>
+      <c r="F643" t="str">
+        <f>"-18563.57"</f>
+        <v>-18563.57</v>
+      </c>
+      <c r="G643" t="str">
+        <f>"1125.60"</f>
+        <v>1125.60</v>
+      </c>
+      <c r="H643" t="str">
+        <f>"3300.00"</f>
+        <v>3300.00</v>
+      </c>
+      <c r="I643" t="str">
+        <f>"406"</f>
+        <v>406</v>
+      </c>
+      <c r="J643" t="str">
+        <f>"证券买入(神州数码)"</f>
+        <v>证券买入(神州数码)</v>
+      </c>
+      <c r="K643" t="str">
+        <f>"5.57"</f>
+        <v>5.57</v>
+      </c>
+      <c r="L643" t="str">
+        <f t="shared" si="216"/>
+        <v>0.00</v>
+      </c>
+      <c r="M643" t="str">
+        <f t="shared" si="213"/>
+        <v>0.00</v>
+      </c>
+      <c r="N643" t="str">
+        <f t="shared" si="213"/>
+        <v>0.00</v>
+      </c>
+      <c r="O643" t="str">
+        <f>"000034"</f>
+        <v>000034</v>
+      </c>
+      <c r="P643" t="str">
+        <f t="shared" si="214"/>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="644" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A644" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B644" t="str">
+        <f>" "</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C644" t="str">
+        <f>"20191230"</f>
+        <v>20191230</v>
+      </c>
+      <c r="D644" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="E644" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="F644" t="str">
+        <f>"30000.00"</f>
+        <v>30000.00</v>
+      </c>
+      <c r="G644" t="str">
+        <f>"31125.60"</f>
+        <v>31125.60</v>
+      </c>
+      <c r="H644" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="I644" t="str">
+        <f>"---"</f>
+        <v>---</v>
+      </c>
+      <c r="J644" t="str">
+        <f>"银行转存"</f>
+        <v>银行转存</v>
+      </c>
+      <c r="K644" t="str">
+        <f t="shared" ref="K644:P644" si="217">"---"</f>
+        <v>---</v>
+      </c>
+      <c r="L644" t="str">
+        <f t="shared" si="217"/>
+        <v>---</v>
+      </c>
+      <c r="M644" t="str">
+        <f t="shared" si="217"/>
+        <v>---</v>
+      </c>
+      <c r="N644" t="str">
+        <f t="shared" si="217"/>
+        <v>---</v>
+      </c>
+      <c r="O644" t="str">
+        <f t="shared" si="217"/>
+        <v>---</v>
+      </c>
+      <c r="P644" t="str">
+        <f t="shared" si="217"/>
+        <v>---</v>
+      </c>
+    </row>
+    <row r="645" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A645" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B645" t="str">
+        <f>"隆基股份"</f>
+        <v>隆基股份</v>
+      </c>
+      <c r="C645" t="str">
+        <f>"20191230"</f>
+        <v>20191230</v>
+      </c>
+      <c r="D645" t="str">
+        <f>"24.690"</f>
+        <v>24.690</v>
+      </c>
+      <c r="E645" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F645" t="str">
+        <f>"-12350.25"</f>
+        <v>-12350.25</v>
+      </c>
+      <c r="G645" t="str">
+        <f>"18775.35"</f>
+        <v>18775.35</v>
+      </c>
+      <c r="H645" t="str">
+        <f>"1500.00"</f>
+        <v>1500.00</v>
+      </c>
+      <c r="I645" t="str">
+        <f>"419"</f>
+        <v>419</v>
+      </c>
+      <c r="J645" t="str">
+        <f>"证券买入(隆基股份)"</f>
+        <v>证券买入(隆基股份)</v>
+      </c>
+      <c r="K645" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L645" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M645" t="str">
+        <f>"0.25"</f>
+        <v>0.25</v>
+      </c>
+      <c r="N645" t="str">
+        <f t="shared" ref="N645:N650" si="218">"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="O645" t="str">
+        <f>"601012"</f>
+        <v>601012</v>
+      </c>
+      <c r="P645" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="646" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A646" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B646" t="str">
+        <f>"神州数码"</f>
+        <v>神州数码</v>
+      </c>
+      <c r="C646" t="str">
+        <f>"20191230"</f>
+        <v>20191230</v>
+      </c>
+      <c r="D646" t="str">
+        <f>"19.510"</f>
+        <v>19.510</v>
+      </c>
+      <c r="E646" t="str">
+        <f>"800.00"</f>
+        <v>800.00</v>
+      </c>
+      <c r="F646" t="str">
+        <f>"-15613.00"</f>
+        <v>-15613.00</v>
+      </c>
+      <c r="G646" t="str">
+        <f>"3162.35"</f>
+        <v>3162.35</v>
+      </c>
+      <c r="H646" t="str">
+        <f>"4100.00"</f>
+        <v>4100.00</v>
+      </c>
+      <c r="I646" t="str">
+        <f>"413"</f>
+        <v>413</v>
+      </c>
+      <c r="J646" t="str">
+        <f>"证券买入(神州数码)"</f>
+        <v>证券买入(神州数码)</v>
+      </c>
+      <c r="K646" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L646" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M646" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N646" t="str">
+        <f t="shared" si="218"/>
+        <v>0.00</v>
+      </c>
+      <c r="O646" t="str">
+        <f>"000034"</f>
+        <v>000034</v>
+      </c>
+      <c r="P646" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="647" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A647" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B647" t="str">
+        <f>"神州数码"</f>
+        <v>神州数码</v>
+      </c>
+      <c r="C647" t="str">
+        <f>"20191230"</f>
+        <v>20191230</v>
+      </c>
+      <c r="D647" t="str">
+        <f>"19.940"</f>
+        <v>19.940</v>
+      </c>
+      <c r="E647" t="str">
+        <f>"-800.00"</f>
+        <v>-800.00</v>
+      </c>
+      <c r="F647" t="str">
+        <f>"15931.05"</f>
+        <v>15931.05</v>
+      </c>
+      <c r="G647" t="str">
+        <f>"19093.40"</f>
+        <v>19093.40</v>
+      </c>
+      <c r="H647" t="str">
+        <f>"3300.00"</f>
+        <v>3300.00</v>
+      </c>
+      <c r="I647" t="str">
+        <f>"416"</f>
+        <v>416</v>
+      </c>
+      <c r="J647" t="str">
+        <f>"证券卖出(神州数码)"</f>
+        <v>证券卖出(神州数码)</v>
+      </c>
+      <c r="K647" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L647" t="str">
+        <f>"15.95"</f>
+        <v>15.95</v>
+      </c>
+      <c r="M647" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N647" t="str">
+        <f t="shared" si="218"/>
+        <v>0.00</v>
+      </c>
+      <c r="O647" t="str">
+        <f>"000034"</f>
+        <v>000034</v>
+      </c>
+      <c r="P647" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
+      </c>
+    </row>
+    <row r="648" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A648" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B648" t="str">
+        <f>"四川金顶"</f>
+        <v>四川金顶</v>
+      </c>
+      <c r="C648" t="str">
+        <f>"20191231"</f>
+        <v>20191231</v>
+      </c>
+      <c r="D648" t="str">
+        <f>"7.630"</f>
+        <v>7.630</v>
+      </c>
+      <c r="E648" t="str">
+        <f>"-2500.00"</f>
+        <v>-2500.00</v>
+      </c>
+      <c r="F648" t="str">
+        <f>"19049.82"</f>
+        <v>19049.82</v>
+      </c>
+      <c r="G648" t="str">
+        <f>"38143.22"</f>
+        <v>38143.22</v>
+      </c>
+      <c r="H648" t="str">
+        <f>"2500.00"</f>
+        <v>2500.00</v>
+      </c>
+      <c r="I648" t="str">
+        <f>"430"</f>
+        <v>430</v>
+      </c>
+      <c r="J648" t="str">
+        <f>"证券卖出(四川金顶)"</f>
+        <v>证券卖出(四川金顶)</v>
+      </c>
+      <c r="K648" t="str">
+        <f>"5.72"</f>
+        <v>5.72</v>
+      </c>
+      <c r="L648" t="str">
+        <f>"19.08"</f>
+        <v>19.08</v>
+      </c>
+      <c r="M648" t="str">
+        <f>"0.38"</f>
+        <v>0.38</v>
+      </c>
+      <c r="N648" t="str">
+        <f t="shared" si="218"/>
+        <v>0.00</v>
+      </c>
+      <c r="O648" t="str">
+        <f>"600678"</f>
+        <v>600678</v>
+      </c>
+      <c r="P648" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="649" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A649" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B649" t="str">
+        <f>"四川金顶"</f>
+        <v>四川金顶</v>
+      </c>
+      <c r="C649" t="str">
+        <f>"20191231"</f>
+        <v>20191231</v>
+      </c>
+      <c r="D649" t="str">
+        <f>"7.620"</f>
+        <v>7.620</v>
+      </c>
+      <c r="E649" t="str">
+        <f>"-2500.00"</f>
+        <v>-2500.00</v>
+      </c>
+      <c r="F649" t="str">
+        <f>"19024.84"</f>
+        <v>19024.84</v>
+      </c>
+      <c r="G649" t="str">
+        <f>"57168.06"</f>
+        <v>57168.06</v>
+      </c>
+      <c r="H649" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="I649" t="str">
+        <f>"433"</f>
+        <v>433</v>
+      </c>
+      <c r="J649" t="str">
+        <f>"证券卖出(四川金顶)"</f>
+        <v>证券卖出(四川金顶)</v>
+      </c>
+      <c r="K649" t="str">
+        <f>"5.72"</f>
+        <v>5.72</v>
+      </c>
+      <c r="L649" t="str">
+        <f>"19.05"</f>
+        <v>19.05</v>
+      </c>
+      <c r="M649" t="str">
+        <f>"0.39"</f>
+        <v>0.39</v>
+      </c>
+      <c r="N649" t="str">
+        <f t="shared" si="218"/>
+        <v>0.00</v>
+      </c>
+      <c r="O649" t="str">
+        <f>"600678"</f>
+        <v>600678</v>
+      </c>
+      <c r="P649" t="str">
+        <f>"A400948245"</f>
+        <v>A400948245</v>
+      </c>
+    </row>
+    <row r="650" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A650" t="str">
+        <f t="shared" si="203"/>
+        <v>人民币</v>
+      </c>
+      <c r="B650" t="str">
+        <f>"神州数码"</f>
+        <v>神州数码</v>
+      </c>
+      <c r="C650" t="str">
+        <f>"20191231"</f>
+        <v>20191231</v>
+      </c>
+      <c r="D650" t="str">
+        <f>"19.710"</f>
+        <v>19.710</v>
+      </c>
+      <c r="E650" t="str">
+        <f>"500.00"</f>
+        <v>500.00</v>
+      </c>
+      <c r="F650" t="str">
+        <f>"-9860.00"</f>
+        <v>-9860.00</v>
+      </c>
+      <c r="G650" t="str">
+        <f>"47308.06"</f>
+        <v>47308.06</v>
+      </c>
+      <c r="H650" t="str">
+        <f>"3800.00"</f>
+        <v>3800.00</v>
+      </c>
+      <c r="I650" t="str">
+        <f>"427"</f>
+        <v>427</v>
+      </c>
+      <c r="J650" t="str">
+        <f>"证券买入(神州数码)"</f>
+        <v>证券买入(神州数码)</v>
+      </c>
+      <c r="K650" t="str">
+        <f>"5.00"</f>
+        <v>5.00</v>
+      </c>
+      <c r="L650" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="M650" t="str">
+        <f>"0.00"</f>
+        <v>0.00</v>
+      </c>
+      <c r="N650" t="str">
+        <f t="shared" si="218"/>
+        <v>0.00</v>
+      </c>
+      <c r="O650" t="str">
+        <f>"000034"</f>
+        <v>000034</v>
+      </c>
+      <c r="P650" t="str">
+        <f>"0153613480"</f>
+        <v>0153613480</v>
       </c>
     </row>
   </sheetData>
